--- a/bak/ml_bb.xlsx
+++ b/bak/ml_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P214"/>
+  <dimension ref="A1:P281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5159,7 +5159,7 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -7854,3020 +7854,3020 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Las Animas </t>
+          <t xml:space="preserve">San-En Neophoenix </t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Atletico Puerto Varas</t>
+          <t xml:space="preserve"> Hiroshima Dragonflies</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="D133" t="n">
-        <v>4.25</v>
+        <v>3.1</v>
       </c>
       <c r="E133" t="n">
-        <v>3.07</v>
+        <v>1.75</v>
       </c>
       <c r="F133" t="n">
-        <v>20.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="G133" t="n">
-        <v>18.5</v>
+        <v>23.25</v>
       </c>
       <c r="H133" t="n">
-        <v>20.16666666666667</v>
+        <v>17.5</v>
       </c>
       <c r="I133" t="n">
-        <v>17.5</v>
+        <v>19.75</v>
       </c>
       <c r="J133" t="n">
-        <v>20.16666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="K133" t="n">
-        <v>21.16666666666667</v>
+        <v>19.5</v>
       </c>
       <c r="L133" t="n">
-        <v>19.83333333333333</v>
+        <v>16</v>
       </c>
       <c r="M133" t="n">
-        <v>15.83333333333333</v>
+        <v>15.25</v>
       </c>
       <c r="N133" t="n">
-        <v>77.345</v>
+        <v>77.125</v>
       </c>
       <c r="O133" t="n">
-        <v>78.23333333333333</v>
+        <v>74.55250000000001</v>
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Lanus </t>
+          <t xml:space="preserve">Nagoya Diamond Dolphins </t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Villa Mitre de Bahia Blanca</t>
+          <t xml:space="preserve"> Seahorses Mikawa</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.26</v>
+        <v>1.37</v>
       </c>
       <c r="D134" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="E134" t="n">
-        <v>2.14</v>
+        <v>1.63</v>
       </c>
       <c r="F134" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G134" t="n">
-        <v>20</v>
+        <v>21.75</v>
       </c>
       <c r="H134" t="n">
-        <v>17.5</v>
+        <v>16.75</v>
       </c>
       <c r="I134" t="n">
-        <v>26.5</v>
+        <v>22.75</v>
       </c>
       <c r="J134" t="n">
-        <v>14</v>
+        <v>21.25</v>
       </c>
       <c r="K134" t="n">
-        <v>22</v>
+        <v>18.25</v>
       </c>
       <c r="L134" t="n">
-        <v>21</v>
+        <v>19.25</v>
       </c>
       <c r="M134" t="n">
-        <v>22</v>
+        <v>26.75</v>
       </c>
       <c r="N134" t="n">
-        <v>85.35499999999999</v>
+        <v>79.7625</v>
       </c>
       <c r="O134" t="n">
-        <v>79.55500000000001</v>
+        <v>79.0625</v>
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">CEB Puerto Montt </t>
+          <t xml:space="preserve">Camberwell Dragons </t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Espanol De Talca</t>
+          <t xml:space="preserve"> Wyndham Basketball</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1.65</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D135" t="n">
-        <v>2.1</v>
+        <v>1.02</v>
       </c>
       <c r="E135" t="n">
-        <v>0.4500000000000002</v>
+        <v>8.18</v>
       </c>
       <c r="F135" t="n">
-        <v>18.33333333333333</v>
+        <v>27.75</v>
       </c>
       <c r="G135" t="n">
-        <v>21</v>
+        <v>24.25</v>
       </c>
       <c r="H135" t="n">
-        <v>26.33333333333333</v>
+        <v>21.5</v>
       </c>
       <c r="I135" t="n">
-        <v>19.33333333333333</v>
+        <v>29</v>
       </c>
       <c r="J135" t="n">
-        <v>15.33333333333333</v>
+        <v>20.5</v>
       </c>
       <c r="K135" t="n">
-        <v>14</v>
+        <v>20.25</v>
       </c>
       <c r="L135" t="n">
-        <v>14.33333333333333</v>
+        <v>23.75</v>
       </c>
       <c r="M135" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N135" t="n">
-        <v>78.65666666666665</v>
+        <v>91.61500000000001</v>
       </c>
       <c r="O135" t="n">
-        <v>74.03</v>
+        <v>82.6525</v>
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cleveland Cavaliers </t>
+          <t xml:space="preserve">Dyip </t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Boston Celtics</t>
+          <t xml:space="preserve"> San Miguel Beermen</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3.63</v>
+        <v>4</v>
       </c>
       <c r="D136" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="E136" t="n">
-        <v>2.29</v>
+        <v>2.79</v>
       </c>
       <c r="F136" t="n">
-        <v>35.57142857142857</v>
+        <v>24.57142857142857</v>
       </c>
       <c r="G136" t="n">
-        <v>25.42857142857143</v>
+        <v>23.57142857142857</v>
       </c>
       <c r="H136" t="n">
-        <v>30.14285714285714</v>
+        <v>24.14285714285714</v>
       </c>
       <c r="I136" t="n">
-        <v>23.71428571428572</v>
+        <v>24.71428571428572</v>
       </c>
       <c r="J136" t="n">
-        <v>26.57142857142857</v>
+        <v>25.14285714285714</v>
       </c>
       <c r="K136" t="n">
-        <v>21</v>
+        <v>24.14285714285714</v>
       </c>
       <c r="L136" t="n">
-        <v>22.85714285714286</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="M136" t="n">
-        <v>22.14285714285714</v>
+        <v>23.14285714285714</v>
       </c>
       <c r="N136" t="n">
-        <v>113.5185714285714</v>
+        <v>98.22142857142858</v>
       </c>
       <c r="O136" t="n">
-        <v>94.27714285714285</v>
+        <v>95.27714285714286</v>
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caribbean Storm Islands </t>
+          <t xml:space="preserve">Central Coast Crusaders </t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Piratas de Bogota</t>
+          <t xml:space="preserve"> Canberra Gunners</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.27</v>
+        <v>3.9</v>
       </c>
       <c r="D137" t="n">
-        <v>3.3</v>
+        <v>1.21</v>
       </c>
       <c r="E137" t="n">
-        <v>2.03</v>
+        <v>2.69</v>
       </c>
       <c r="F137" t="n">
-        <v>27</v>
+        <v>20.25</v>
       </c>
       <c r="G137" t="n">
-        <v>19.25</v>
+        <v>19.75</v>
       </c>
       <c r="H137" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="I137" t="n">
-        <v>21.75</v>
+        <v>21.25</v>
       </c>
       <c r="J137" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="K137" t="n">
-        <v>17.25</v>
+        <v>19</v>
       </c>
       <c r="L137" t="n">
-        <v>16.25</v>
+        <v>24</v>
       </c>
       <c r="M137" t="n">
-        <v>26.5</v>
+        <v>23.75</v>
       </c>
       <c r="N137" t="n">
-        <v>75.76000000000001</v>
+        <v>83.1675</v>
       </c>
       <c r="O137" t="n">
-        <v>81.565</v>
+        <v>83.1675</v>
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hawke's Bay Hawks </t>
+          <t xml:space="preserve">Warrnambool Mermaids </t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Otago Nuggets</t>
+          <t xml:space="preserve"> Hume City Broncos</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1.67</v>
+        <v>1.1</v>
       </c>
       <c r="D138" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="E138" t="n">
-        <v>0.4300000000000002</v>
+        <v>4.5</v>
       </c>
       <c r="F138" t="n">
-        <v>25.71428571428572</v>
+        <v>18.75</v>
       </c>
       <c r="G138" t="n">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="H138" t="n">
-        <v>23.42857142857143</v>
+        <v>18.5</v>
       </c>
       <c r="I138" t="n">
-        <v>24.71428571428572</v>
+        <v>21.75</v>
       </c>
       <c r="J138" t="n">
-        <v>21</v>
+        <v>17.75</v>
       </c>
       <c r="K138" t="n">
-        <v>22.71428571428572</v>
+        <v>19</v>
       </c>
       <c r="L138" t="n">
-        <v>19.85714285714286</v>
+        <v>17.5</v>
       </c>
       <c r="M138" t="n">
-        <v>20.57142857142857</v>
+        <v>21.75</v>
       </c>
       <c r="N138" t="n">
-        <v>102.7671428571429</v>
+        <v>81.83750000000001</v>
       </c>
       <c r="O138" t="n">
-        <v>89.59571428571428</v>
+        <v>81.63000000000001</v>
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">San-En Neophoenix </t>
+          <t xml:space="preserve">Sunshine Coast Phoenix </t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hiroshima Dragonflies</t>
+          <t xml:space="preserve"> Cairns Dolphins</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="D139" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="E139" t="n">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="F139" t="n">
-        <v>16</v>
+        <v>21.28571428571428</v>
       </c>
       <c r="G139" t="n">
-        <v>23.25</v>
+        <v>18</v>
       </c>
       <c r="H139" t="n">
-        <v>17.5</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="I139" t="n">
-        <v>19.75</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="J139" t="n">
-        <v>20.5</v>
+        <v>22.71428571428572</v>
       </c>
       <c r="K139" t="n">
-        <v>19.5</v>
+        <v>20.14285714285714</v>
       </c>
       <c r="L139" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M139" t="n">
-        <v>15.25</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="N139" t="n">
-        <v>77.125</v>
+        <v>82.84714285714287</v>
       </c>
       <c r="O139" t="n">
-        <v>74.55250000000001</v>
+        <v>83.9542857142857</v>
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Nagoya Diamond Dolphins </t>
+          <t xml:space="preserve">Ballarat Miners </t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Seahorses Mikawa</t>
+          <t xml:space="preserve"> Eltham Wildcats</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="D140" t="n">
-        <v>3</v>
+        <v>2.35</v>
       </c>
       <c r="E140" t="n">
-        <v>1.63</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="F140" t="n">
+        <v>24</v>
+      </c>
+      <c r="G140" t="n">
+        <v>26.6</v>
+      </c>
+      <c r="H140" t="n">
         <v>21</v>
       </c>
-      <c r="G140" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="H140" t="n">
-        <v>16.75</v>
-      </c>
       <c r="I140" t="n">
-        <v>22.75</v>
+        <v>20.8</v>
       </c>
       <c r="J140" t="n">
-        <v>21.25</v>
+        <v>22.8</v>
       </c>
       <c r="K140" t="n">
-        <v>18.25</v>
+        <v>19.4</v>
       </c>
       <c r="L140" t="n">
-        <v>19.25</v>
+        <v>24.8</v>
       </c>
       <c r="M140" t="n">
-        <v>26.75</v>
+        <v>21</v>
       </c>
       <c r="N140" t="n">
-        <v>79.7625</v>
+        <v>91.708</v>
       </c>
       <c r="O140" t="n">
-        <v>79.0625</v>
+        <v>86.154</v>
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Camberwell Dragons </t>
+          <t xml:space="preserve">Sydney City Comets </t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wyndham Basketball</t>
+          <t xml:space="preserve"> Sutherland Sharks</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>9.199999999999999</v>
+        <v>1.53</v>
       </c>
       <c r="D141" t="n">
-        <v>1.02</v>
+        <v>2.35</v>
       </c>
       <c r="E141" t="n">
-        <v>8.18</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>27.75</v>
+        <v>18</v>
       </c>
       <c r="G141" t="n">
-        <v>24.25</v>
+        <v>27.25</v>
       </c>
       <c r="H141" t="n">
-        <v>21.5</v>
+        <v>22</v>
       </c>
       <c r="I141" t="n">
-        <v>29</v>
+        <v>26.5</v>
       </c>
       <c r="J141" t="n">
-        <v>20.5</v>
+        <v>27.25</v>
       </c>
       <c r="K141" t="n">
-        <v>20.25</v>
+        <v>22.75</v>
       </c>
       <c r="L141" t="n">
-        <v>23.75</v>
+        <v>21.25</v>
       </c>
       <c r="M141" t="n">
-        <v>18</v>
+        <v>26.25</v>
       </c>
       <c r="N141" t="n">
-        <v>91.61500000000001</v>
+        <v>86.6825</v>
       </c>
       <c r="O141" t="n">
-        <v>82.6525</v>
+        <v>82.50750000000001</v>
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dyip </t>
+          <t xml:space="preserve">Keysborough </t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> San Miguel Beermen</t>
+          <t xml:space="preserve"> Western Port Steelers</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>4</v>
+        <v>1.03</v>
       </c>
       <c r="D142" t="n">
-        <v>1.21</v>
+        <v>8.5</v>
       </c>
       <c r="E142" t="n">
-        <v>2.79</v>
+        <v>7.47</v>
       </c>
       <c r="F142" t="n">
-        <v>24.57142857142857</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="G142" t="n">
-        <v>23.57142857142857</v>
+        <v>21.14285714285714</v>
       </c>
       <c r="H142" t="n">
-        <v>24.14285714285714</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="I142" t="n">
-        <v>24.71428571428572</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="J142" t="n">
-        <v>25.14285714285714</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="K142" t="n">
-        <v>24.14285714285714</v>
+        <v>23.28571428571428</v>
       </c>
       <c r="L142" t="n">
-        <v>21.42857142857143</v>
+        <v>17.71428571428572</v>
       </c>
       <c r="M142" t="n">
-        <v>23.14285714285714</v>
+        <v>19.57142857142857</v>
       </c>
       <c r="N142" t="n">
-        <v>98.22142857142858</v>
+        <v>81.71000000000001</v>
       </c>
       <c r="O142" t="n">
-        <v>95.27714285714286</v>
+        <v>84.66857142857144</v>
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prawira Bandung </t>
+          <t xml:space="preserve">Southern Districts Spartans </t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tangerang Hawks</t>
+          <t xml:space="preserve"> Logan Thunder</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>1.11</v>
+        <v>1.24</v>
       </c>
       <c r="D143" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="E143" t="n">
-        <v>4.489999999999999</v>
+        <v>2.36</v>
       </c>
       <c r="F143" t="n">
-        <v>22.4</v>
+        <v>20.625</v>
       </c>
       <c r="G143" t="n">
-        <v>22.4</v>
+        <v>19.125</v>
       </c>
       <c r="H143" t="n">
-        <v>20</v>
+        <v>20.25</v>
       </c>
       <c r="I143" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="J143" t="n">
-        <v>18.8</v>
+        <v>23</v>
       </c>
       <c r="K143" t="n">
-        <v>20.2</v>
+        <v>23.25</v>
       </c>
       <c r="L143" t="n">
-        <v>24.6</v>
+        <v>18.375</v>
       </c>
       <c r="M143" t="n">
-        <v>21.8</v>
+        <v>19.625</v>
       </c>
       <c r="N143" t="n">
-        <v>75.41799999999999</v>
+        <v>81.78625</v>
       </c>
       <c r="O143" t="n">
-        <v>79.78200000000001</v>
+        <v>84.15375</v>
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Illawarra Hawks </t>
+          <t xml:space="preserve">Knox Raiders </t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hornsby Spiders</t>
+          <t xml:space="preserve"> Waverley Falcons</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="D144" t="n">
-        <v>5.4</v>
+        <v>4.75</v>
       </c>
       <c r="E144" t="n">
-        <v>4.29</v>
+        <v>3.61</v>
       </c>
       <c r="F144" t="n">
-        <v>24</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="G144" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H144" t="n">
-        <v>21.25</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="I144" t="n">
-        <v>26.5</v>
+        <v>20</v>
       </c>
       <c r="J144" t="n">
-        <v>21</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="K144" t="n">
-        <v>20.25</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="L144" t="n">
-        <v>25.25</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="M144" t="n">
-        <v>21</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="N144" t="n">
-        <v>91.94</v>
+        <v>86.575</v>
       </c>
       <c r="O144" t="n">
-        <v>86.7</v>
+        <v>90.46499999999999</v>
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gold Coast Rollers </t>
+          <t xml:space="preserve">Launceston Tornadoes </t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Northside Wizards</t>
+          <t xml:space="preserve"> Melbourne Tigers</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>11</v>
+        <v>1.18</v>
       </c>
       <c r="D145" t="n">
-        <v>1.01</v>
+        <v>4.2</v>
       </c>
       <c r="E145" t="n">
-        <v>9.99</v>
+        <v>3.02</v>
       </c>
       <c r="F145" t="n">
-        <v>26.875</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="G145" t="n">
-        <v>28.5</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>23.25</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="I145" t="n">
-        <v>23.25</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="J145" t="n">
-        <v>20.875</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="K145" t="n">
-        <v>20.875</v>
+        <v>26.16666666666667</v>
       </c>
       <c r="L145" t="n">
-        <v>18.75</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="M145" t="n">
-        <v>19.75</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="N145" t="n">
-        <v>102.735</v>
+        <v>80.995</v>
       </c>
       <c r="O145" t="n">
-        <v>80.58</v>
+        <v>82.92</v>
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ipswich Force </t>
+          <t xml:space="preserve">Norths Bears </t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> North Gold Coast Seahawks</t>
+          <t xml:space="preserve"> Penrith Panthers</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>9.800000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="D146" t="n">
-        <v>1.01</v>
+        <v>7.2</v>
       </c>
       <c r="E146" t="n">
-        <v>8.790000000000001</v>
+        <v>6.140000000000001</v>
       </c>
       <c r="F146" t="n">
-        <v>23.625</v>
+        <v>23.4</v>
       </c>
       <c r="G146" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H146" t="n">
-        <v>22</v>
+        <v>21.6</v>
       </c>
       <c r="I146" t="n">
-        <v>22.875</v>
+        <v>22.8</v>
       </c>
       <c r="J146" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="K146" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="L146" t="n">
         <v>21</v>
       </c>
-      <c r="K146" t="n">
-        <v>24.125</v>
-      </c>
-      <c r="L146" t="n">
-        <v>20.75</v>
-      </c>
       <c r="M146" t="n">
-        <v>22.375</v>
+        <v>20.4</v>
       </c>
       <c r="N146" t="n">
-        <v>96.70750000000001</v>
+        <v>86.491</v>
       </c>
       <c r="O146" t="n">
-        <v>90.69999999999999</v>
+        <v>79.07499999999997</v>
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Geelong Supercats </t>
+          <t xml:space="preserve">Forestville Eagles </t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sandringham Sabres</t>
+          <t xml:space="preserve"> South Adelaide Panthers</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2.05</v>
+        <v>1.45</v>
       </c>
       <c r="D147" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3999999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="F147" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G147" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="H147" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="I147" t="n">
+        <v>26</v>
+      </c>
+      <c r="J147" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="K147" t="n">
         <v>19.5</v>
       </c>
-      <c r="G147" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H147" t="n">
-        <v>20</v>
-      </c>
-      <c r="I147" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J147" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="K147" t="n">
-        <v>24.25</v>
-      </c>
       <c r="L147" t="n">
-        <v>24.25</v>
+        <v>18.5</v>
       </c>
       <c r="M147" t="n">
-        <v>22.75</v>
+        <v>21</v>
       </c>
       <c r="N147" t="n">
-        <v>81.3425</v>
+        <v>91.49249999999999</v>
       </c>
       <c r="O147" t="n">
-        <v>90.61250000000001</v>
+        <v>84.925</v>
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Central Coast Crusaders </t>
+          <t xml:space="preserve">Southern Tigers </t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canberra Gunners</t>
+          <t xml:space="preserve"> Norwood Flames</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3.9</v>
+        <v>1.51</v>
       </c>
       <c r="D148" t="n">
-        <v>1.21</v>
+        <v>2.35</v>
       </c>
       <c r="E148" t="n">
-        <v>2.69</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="F148" t="n">
-        <v>20.25</v>
+        <v>20.8</v>
       </c>
       <c r="G148" t="n">
-        <v>19.75</v>
+        <v>26.2</v>
       </c>
       <c r="H148" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="I148" t="n">
-        <v>21.25</v>
+        <v>19.2</v>
       </c>
       <c r="J148" t="n">
-        <v>22</v>
+        <v>23.6</v>
       </c>
       <c r="K148" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="L148" t="n">
-        <v>24</v>
+        <v>26.2</v>
       </c>
       <c r="M148" t="n">
-        <v>23.75</v>
+        <v>20.4</v>
       </c>
       <c r="N148" t="n">
-        <v>83.1675</v>
+        <v>100.024</v>
       </c>
       <c r="O148" t="n">
-        <v>83.1675</v>
+        <v>97.124</v>
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Warrnambool Mermaids </t>
+          <t xml:space="preserve">Warwick Senators </t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hume City Broncos</t>
+          <t xml:space="preserve"> Cockburn Cougars</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>1.1</v>
+        <v>1.94</v>
       </c>
       <c r="D149" t="n">
-        <v>5.6</v>
+        <v>1.74</v>
       </c>
       <c r="E149" t="n">
-        <v>4.5</v>
+        <v>0.2</v>
       </c>
       <c r="F149" t="n">
-        <v>18.75</v>
+        <v>23.875</v>
       </c>
       <c r="G149" t="n">
-        <v>24.5</v>
+        <v>23.875</v>
       </c>
       <c r="H149" t="n">
-        <v>18.5</v>
+        <v>26.625</v>
       </c>
       <c r="I149" t="n">
-        <v>21.75</v>
+        <v>20.75</v>
       </c>
       <c r="J149" t="n">
-        <v>17.75</v>
+        <v>21.125</v>
       </c>
       <c r="K149" t="n">
-        <v>19</v>
+        <v>20.875</v>
       </c>
       <c r="L149" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="M149" t="n">
-        <v>21.75</v>
+        <v>16.625</v>
       </c>
       <c r="N149" t="n">
-        <v>81.83750000000001</v>
+        <v>95.27250000000001</v>
       </c>
       <c r="O149" t="n">
-        <v>81.63000000000001</v>
+        <v>81.63624999999999</v>
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sunshine Coast Phoenix </t>
+          <t xml:space="preserve">Maitland Mustangs </t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cairns Dolphins</t>
+          <t xml:space="preserve"> Hills Hornets</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="D150" t="n">
-        <v>3.4</v>
+        <v>6.9</v>
       </c>
       <c r="E150" t="n">
-        <v>2.14</v>
+        <v>5.83</v>
       </c>
       <c r="F150" t="n">
-        <v>21.28571428571428</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="G150" t="n">
-        <v>18</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="H150" t="n">
-        <v>19.28571428571428</v>
+        <v>20.5</v>
       </c>
       <c r="I150" t="n">
-        <v>20.28571428571428</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="J150" t="n">
-        <v>22.71428571428572</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="K150" t="n">
-        <v>20.14285714285714</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="L150" t="n">
-        <v>20</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="M150" t="n">
-        <v>19.85714285714286</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="N150" t="n">
-        <v>82.84714285714287</v>
+        <v>82.48833333333333</v>
       </c>
       <c r="O150" t="n">
-        <v>83.9542857142857</v>
+        <v>88.58999999999999</v>
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ballarat Miners </t>
+          <t xml:space="preserve">Sydney Comets </t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Eltham Wildcats</t>
+          <t xml:space="preserve"> Sutherland Sharks</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="D151" t="n">
-        <v>2.35</v>
+        <v>1.38</v>
       </c>
       <c r="E151" t="n">
-        <v>0.8500000000000001</v>
+        <v>1.37</v>
       </c>
       <c r="F151" t="n">
-        <v>24</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="G151" t="n">
-        <v>26.6</v>
+        <v>19</v>
       </c>
       <c r="H151" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I151" t="n">
-        <v>20.8</v>
+        <v>21.14285714285714</v>
       </c>
       <c r="J151" t="n">
-        <v>22.8</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="K151" t="n">
-        <v>19.4</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="L151" t="n">
-        <v>24.8</v>
+        <v>20.42857142857143</v>
       </c>
       <c r="M151" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N151" t="n">
-        <v>91.708</v>
+        <v>85.52142857142857</v>
       </c>
       <c r="O151" t="n">
-        <v>86.154</v>
+        <v>77.92999999999999</v>
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Casey Cavaliers </t>
+          <t xml:space="preserve">Lakeside Lightning </t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kilsyth Cobras</t>
+          <t xml:space="preserve"> Willetton Tigers</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="D152" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="E152" t="n">
-        <v>0.7</v>
+        <v>0.48</v>
       </c>
       <c r="F152" t="n">
-        <v>26.44444444444444</v>
+        <v>20.6</v>
       </c>
       <c r="G152" t="n">
-        <v>22.44444444444444</v>
+        <v>21.2</v>
       </c>
       <c r="H152" t="n">
-        <v>26.22222222222222</v>
+        <v>23.6</v>
       </c>
       <c r="I152" t="n">
-        <v>22.66666666666667</v>
+        <v>21.8</v>
       </c>
       <c r="J152" t="n">
-        <v>22.66666666666667</v>
+        <v>20.8</v>
       </c>
       <c r="K152" t="n">
-        <v>22.77777777777778</v>
+        <v>20.2</v>
       </c>
       <c r="L152" t="n">
-        <v>20.44444444444444</v>
+        <v>15</v>
       </c>
       <c r="M152" t="n">
-        <v>19.33333333333333</v>
+        <v>21.4</v>
       </c>
       <c r="N152" t="n">
-        <v>101.5111111111111</v>
+        <v>93.468</v>
       </c>
       <c r="O152" t="n">
-        <v>84.80555555555556</v>
+        <v>90.806</v>
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sydney City Comets </t>
+          <t xml:space="preserve">Blackburn Vikings </t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sutherland Sharks</t>
+          <t xml:space="preserve"> McKinnon Cougars</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>1.53</v>
+        <v>7.6</v>
       </c>
       <c r="D153" t="n">
-        <v>2.35</v>
+        <v>1.04</v>
       </c>
       <c r="E153" t="n">
-        <v>0.8200000000000001</v>
+        <v>6.56</v>
       </c>
       <c r="F153" t="n">
         <v>18</v>
       </c>
       <c r="G153" t="n">
-        <v>27.25</v>
+        <v>33</v>
       </c>
       <c r="H153" t="n">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="I153" t="n">
-        <v>26.5</v>
+        <v>21</v>
       </c>
       <c r="J153" t="n">
-        <v>27.25</v>
+        <v>33</v>
       </c>
       <c r="K153" t="n">
-        <v>22.75</v>
+        <v>20</v>
       </c>
       <c r="L153" t="n">
-        <v>21.25</v>
+        <v>24</v>
       </c>
       <c r="M153" t="n">
-        <v>26.25</v>
+        <v>21</v>
       </c>
       <c r="N153" t="n">
-        <v>86.6825</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="O153" t="n">
-        <v>82.50750000000001</v>
+        <v>77.84</v>
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Keysborough </t>
+          <t xml:space="preserve">Bulleen Boomers </t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Western Port Steelers</t>
+          <t xml:space="preserve"> Sherbrooke</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D154" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="E154" t="n">
-        <v>7.47</v>
+        <v>6.76</v>
       </c>
       <c r="F154" t="n">
-        <v>19.85714285714286</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>21.14285714285714</v>
+        <v>7.4</v>
       </c>
       <c r="H154" t="n">
-        <v>17.14285714285714</v>
+        <v>5.4</v>
       </c>
       <c r="I154" t="n">
-        <v>21.42857142857143</v>
+        <v>6.4</v>
       </c>
       <c r="J154" t="n">
-        <v>23.71428571428572</v>
+        <v>6.8</v>
       </c>
       <c r="K154" t="n">
-        <v>23.28571428571428</v>
+        <v>6.6</v>
       </c>
       <c r="L154" t="n">
-        <v>17.71428571428572</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M154" t="n">
-        <v>19.57142857142857</v>
+        <v>6.2</v>
       </c>
       <c r="N154" t="n">
-        <v>81.71000000000001</v>
+        <v>70.75729523809524</v>
       </c>
       <c r="O154" t="n">
-        <v>84.66857142857144</v>
+        <v>68.26224761904761</v>
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Southern Districts Spartans </t>
+          <t xml:space="preserve">Bali United BC </t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Logan Thunder</t>
+          <t xml:space="preserve"> Bumi Borneo Basketball Pontianak</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.24</v>
+        <v>1.85</v>
       </c>
       <c r="D155" t="n">
-        <v>3.6</v>
+        <v>1.85</v>
       </c>
       <c r="E155" t="n">
-        <v>2.36</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>20.625</v>
+        <v>18.5</v>
       </c>
       <c r="G155" t="n">
-        <v>19.125</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="H155" t="n">
-        <v>20.25</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="I155" t="n">
-        <v>19.5</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="J155" t="n">
-        <v>23</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="K155" t="n">
-        <v>23.25</v>
+        <v>21.5</v>
       </c>
       <c r="L155" t="n">
-        <v>18.375</v>
+        <v>16.5</v>
       </c>
       <c r="M155" t="n">
-        <v>19.625</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="N155" t="n">
-        <v>81.78625</v>
+        <v>81.72333333333333</v>
       </c>
       <c r="O155" t="n">
-        <v>84.15375</v>
+        <v>74.54333333333334</v>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dandenong Rangers </t>
+          <t xml:space="preserve">Goldfields Giants </t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Keilor Thunder</t>
+          <t xml:space="preserve"> Mandurah Magic</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>1.77</v>
+        <v>7.75</v>
       </c>
       <c r="D156" t="n">
-        <v>1.91</v>
+        <v>1.04</v>
       </c>
       <c r="E156" t="n">
-        <v>0.1399999999999999</v>
+        <v>6.71</v>
       </c>
       <c r="F156" t="n">
-        <v>24.5</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="G156" t="n">
-        <v>22.5</v>
+        <v>19.77777777777778</v>
       </c>
       <c r="H156" t="n">
-        <v>25</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="I156" t="n">
-        <v>23.125</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="J156" t="n">
-        <v>21.625</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="K156" t="n">
-        <v>23.75</v>
+        <v>22.11111111111111</v>
       </c>
       <c r="L156" t="n">
-        <v>23.75</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="M156" t="n">
-        <v>21.625</v>
+        <v>23.77777777777778</v>
       </c>
       <c r="N156" t="n">
-        <v>97.72875000000001</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="O156" t="n">
-        <v>89.50875000000001</v>
+        <v>88.12333333333332</v>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Knox Raiders </t>
+          <t xml:space="preserve">Alvark Tokyo </t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Waverley Falcons</t>
+          <t xml:space="preserve"> Ryukyu Golden Kings Okinawa</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="D157" t="n">
-        <v>4.75</v>
+        <v>2.85</v>
       </c>
       <c r="E157" t="n">
-        <v>3.61</v>
+        <v>1.44</v>
       </c>
       <c r="F157" t="n">
-        <v>26.66666666666667</v>
+        <v>16.2</v>
       </c>
       <c r="G157" t="n">
-        <v>22</v>
+        <v>19.6</v>
       </c>
       <c r="H157" t="n">
-        <v>21.66666666666667</v>
+        <v>18.4</v>
       </c>
       <c r="I157" t="n">
-        <v>20</v>
+        <v>20.8</v>
       </c>
       <c r="J157" t="n">
-        <v>29.33333333333333</v>
+        <v>19.4</v>
       </c>
       <c r="K157" t="n">
-        <v>24.16666666666667</v>
+        <v>19.2</v>
       </c>
       <c r="L157" t="n">
-        <v>22.33333333333333</v>
+        <v>16</v>
       </c>
       <c r="M157" t="n">
-        <v>23.83333333333333</v>
+        <v>20.8</v>
       </c>
       <c r="N157" t="n">
-        <v>86.575</v>
+        <v>78.242</v>
       </c>
       <c r="O157" t="n">
-        <v>90.46499999999999</v>
+        <v>79.54000000000001</v>
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Launceston Tornadoes </t>
+          <t xml:space="preserve">Sturt Sabres </t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Melbourne Tigers</t>
+          <t xml:space="preserve"> West Adelaide Bearcats</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.18</v>
+        <v>1.01</v>
       </c>
       <c r="D158" t="n">
-        <v>4.2</v>
+        <v>10</v>
       </c>
       <c r="E158" t="n">
-        <v>3.02</v>
+        <v>8.99</v>
       </c>
       <c r="F158" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="G158" t="n">
+        <v>19</v>
+      </c>
+      <c r="H158" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I158" t="n">
+        <v>24.66666666666667</v>
+      </c>
+      <c r="J158" t="n">
+        <v>24</v>
+      </c>
+      <c r="K158" t="n">
         <v>20.66666666666667</v>
       </c>
-      <c r="G158" t="n">
-        <v>20.33333333333333</v>
-      </c>
-      <c r="H158" t="n">
-        <v>19.66666666666667</v>
-      </c>
-      <c r="I158" t="n">
-        <v>20.66666666666667</v>
-      </c>
-      <c r="J158" t="n">
-        <v>22.33333333333333</v>
-      </c>
-      <c r="K158" t="n">
-        <v>26.16666666666667</v>
-      </c>
       <c r="L158" t="n">
-        <v>22.83333333333333</v>
+        <v>24.66666666666667</v>
       </c>
       <c r="M158" t="n">
-        <v>19.33333333333333</v>
+        <v>26</v>
       </c>
       <c r="N158" t="n">
-        <v>80.995</v>
+        <v>89.55833333333332</v>
       </c>
       <c r="O158" t="n">
-        <v>82.92</v>
+        <v>95.86833333333333</v>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Norths Bears </t>
+          <t xml:space="preserve">Woodville Warriors </t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Penrith Panthers</t>
+          <t xml:space="preserve"> Central Districts Lions</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>1.06</v>
+        <v>1.32</v>
       </c>
       <c r="D159" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="E159" t="n">
-        <v>6.140000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="F159" t="n">
-        <v>23.4</v>
+        <v>17.5</v>
       </c>
       <c r="G159" t="n">
-        <v>20</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="H159" t="n">
-        <v>21.6</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I159" t="n">
-        <v>22.8</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="J159" t="n">
-        <v>20.9</v>
+        <v>18</v>
       </c>
       <c r="K159" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="L159" t="n">
-        <v>21</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="M159" t="n">
-        <v>20.4</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="N159" t="n">
-        <v>86.491</v>
+        <v>80.98</v>
       </c>
       <c r="O159" t="n">
-        <v>79.07499999999997</v>
+        <v>88.34333333333332</v>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forestville Eagles </t>
+          <t xml:space="preserve">BC Lokomotiv Kuban Krasnodar </t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> South Adelaide Panthers</t>
+          <t xml:space="preserve"> BC Uniks Kazan</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
       <c r="D160" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="E160" t="n">
-        <v>1.05</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>24.5</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="G160" t="n">
-        <v>25.75</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="H160" t="n">
-        <v>25.25</v>
+        <v>27</v>
       </c>
       <c r="I160" t="n">
-        <v>26</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="J160" t="n">
-        <v>24.75</v>
+        <v>13</v>
       </c>
       <c r="K160" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="L160" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="M160" t="n">
-        <v>21</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="N160" t="n">
-        <v>91.49249999999999</v>
+        <v>75.31</v>
       </c>
       <c r="O160" t="n">
-        <v>84.925</v>
+        <v>81.97000000000001</v>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Camberwell Dragons </t>
+          <t xml:space="preserve">Dewa United Surabaya </t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wyndham Basketball</t>
+          <t xml:space="preserve"> Pelita Jaya Bakrie Jakarta</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>9.199999999999999</v>
+        <v>1.56</v>
       </c>
       <c r="D161" t="n">
-        <v>1.02</v>
+        <v>2.3</v>
       </c>
       <c r="E161" t="n">
-        <v>8.18</v>
+        <v>0.7399999999999998</v>
       </c>
       <c r="F161" t="n">
-        <v>20.8</v>
+        <v>24</v>
       </c>
       <c r="G161" t="n">
-        <v>20.8</v>
+        <v>26</v>
       </c>
       <c r="H161" t="n">
-        <v>16.6</v>
+        <v>28.6</v>
       </c>
       <c r="I161" t="n">
-        <v>21.4</v>
+        <v>16</v>
       </c>
       <c r="J161" t="n">
-        <v>19.4</v>
+        <v>18</v>
       </c>
       <c r="K161" t="n">
-        <v>20.2</v>
+        <v>18</v>
       </c>
       <c r="L161" t="n">
-        <v>16</v>
+        <v>21.8</v>
       </c>
       <c r="M161" t="n">
-        <v>17.6</v>
+        <v>22.6</v>
       </c>
       <c r="N161" t="n">
-        <v>85.52200000000001</v>
+        <v>92.804</v>
       </c>
       <c r="O161" t="n">
-        <v>80.91200000000001</v>
+        <v>74.18600000000001</v>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Southern Tigers </t>
+          <t xml:space="preserve">Liaoning Flying Leopards </t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Norwood Flames</t>
+          <t xml:space="preserve"> Guangdong Southern Tigers</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.51</v>
+        <v>1.19</v>
       </c>
       <c r="D162" t="n">
-        <v>2.35</v>
+        <v>4.6</v>
       </c>
       <c r="E162" t="n">
-        <v>0.8400000000000001</v>
+        <v>3.41</v>
       </c>
       <c r="F162" t="n">
-        <v>20.8</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="G162" t="n">
-        <v>26.2</v>
+        <v>20.42857142857143</v>
       </c>
       <c r="H162" t="n">
-        <v>19</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="I162" t="n">
-        <v>19.2</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="J162" t="n">
-        <v>23.6</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="K162" t="n">
-        <v>27</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="L162" t="n">
-        <v>26.2</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="M162" t="n">
-        <v>20.4</v>
+        <v>18.85714285714286</v>
       </c>
       <c r="N162" t="n">
-        <v>100.024</v>
+        <v>93.98571428571428</v>
       </c>
       <c r="O162" t="n">
-        <v>97.124</v>
+        <v>93.30285714285715</v>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Central Coast Crusaders </t>
+          <t xml:space="preserve">CSM Ploiesti </t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canberra Nationals</t>
+          <t xml:space="preserve"> Csm Focsani</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3.9</v>
+        <v>1.24</v>
       </c>
       <c r="D163" t="n">
-        <v>1.21</v>
+        <v>3.6</v>
       </c>
       <c r="E163" t="n">
-        <v>2.69</v>
+        <v>2.36</v>
       </c>
       <c r="F163" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G163" t="n">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="H163" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="I163" t="n">
-        <v>23.5</v>
+        <v>15</v>
       </c>
       <c r="J163" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="K163" t="n">
-        <v>17.25</v>
+        <v>16</v>
       </c>
       <c r="L163" t="n">
-        <v>19.75</v>
+        <v>17</v>
       </c>
       <c r="M163" t="n">
-        <v>23.25</v>
+        <v>14</v>
       </c>
       <c r="N163" t="n">
-        <v>88.96249999999999</v>
+        <v>78.95999999999999</v>
       </c>
       <c r="O163" t="n">
-        <v>80.4075</v>
+        <v>76.38</v>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Warwick Senators </t>
+          <t xml:space="preserve">Benfica Lisboa </t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cockburn Cougars</t>
+          <t xml:space="preserve"> Vitoria Sport Clube</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.94</v>
+        <v>1.02</v>
       </c>
       <c r="D164" t="n">
-        <v>1.74</v>
+        <v>13</v>
       </c>
       <c r="E164" t="n">
-        <v>0.2</v>
+        <v>11.98</v>
       </c>
       <c r="F164" t="n">
-        <v>23.875</v>
+        <v>16</v>
       </c>
       <c r="G164" t="n">
-        <v>23.875</v>
+        <v>15</v>
       </c>
       <c r="H164" t="n">
-        <v>26.625</v>
+        <v>19</v>
       </c>
       <c r="I164" t="n">
-        <v>20.75</v>
+        <v>12.66666666666667</v>
       </c>
       <c r="J164" t="n">
-        <v>21.125</v>
+        <v>12</v>
       </c>
       <c r="K164" t="n">
-        <v>20.875</v>
+        <v>9</v>
       </c>
       <c r="L164" t="n">
-        <v>20</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="M164" t="n">
-        <v>16.625</v>
+        <v>10</v>
       </c>
       <c r="N164" t="n">
-        <v>95.27250000000001</v>
+        <v>77.81666666666668</v>
       </c>
       <c r="O164" t="n">
-        <v>81.63624999999999</v>
+        <v>70.62666666666667</v>
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bankstown Bruins </t>
+          <t xml:space="preserve">UD Oliveirense </t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Albury Wodonga Bandits</t>
+          <t xml:space="preserve"> CD Povoa</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2.15</v>
+        <v>1.23</v>
       </c>
       <c r="D165" t="n">
-        <v>1.64</v>
+        <v>4</v>
       </c>
       <c r="E165" t="n">
-        <v>0.51</v>
+        <v>2.77</v>
       </c>
       <c r="F165" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="G165" t="n">
+        <v>12</v>
+      </c>
+      <c r="H165" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="I165" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="J165" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="K165" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="L165" t="n">
         <v>15</v>
       </c>
-      <c r="G165" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="H165" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="I165" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="J165" t="n">
-        <v>24.2</v>
-      </c>
-      <c r="K165" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="L165" t="n">
-        <v>17.8</v>
-      </c>
       <c r="M165" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N165" t="n">
-        <v>76.82599999999999</v>
+        <v>81.19333333333333</v>
       </c>
       <c r="O165" t="n">
-        <v>78.00399999999999</v>
+        <v>81.7</v>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maitland Mustangs </t>
+          <t xml:space="preserve">Rivers Hoopers </t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hills Hornets</t>
+          <t xml:space="preserve"> Armee Patriotique Rwandaise</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.07</v>
+        <v>1.54</v>
       </c>
       <c r="D166" t="n">
-        <v>6.9</v>
+        <v>2.25</v>
       </c>
       <c r="E166" t="n">
-        <v>5.83</v>
+        <v>0.71</v>
       </c>
       <c r="F166" t="n">
-        <v>24.66666666666667</v>
+        <v>19.75</v>
       </c>
       <c r="G166" t="n">
-        <v>22.33333333333333</v>
+        <v>18.5</v>
       </c>
       <c r="H166" t="n">
-        <v>20.5</v>
+        <v>14</v>
       </c>
       <c r="I166" t="n">
-        <v>22.83333333333333</v>
+        <v>19.75</v>
       </c>
       <c r="J166" t="n">
-        <v>24.16666666666667</v>
+        <v>18.5</v>
       </c>
       <c r="K166" t="n">
-        <v>19.33333333333333</v>
+        <v>20.75</v>
       </c>
       <c r="L166" t="n">
-        <v>21.83333333333333</v>
+        <v>19.75</v>
       </c>
       <c r="M166" t="n">
-        <v>22.66666666666667</v>
+        <v>22</v>
       </c>
       <c r="N166" t="n">
-        <v>82.48833333333333</v>
+        <v>74.80499999999999</v>
       </c>
       <c r="O166" t="n">
-        <v>88.58999999999999</v>
+        <v>81.55250000000001</v>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sydney Comets </t>
+          <t xml:space="preserve">BK Levicki Patrioti </t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sutherland Sharks</t>
+          <t xml:space="preserve"> BK 04 AC LB SNV Spisski Rytieri</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>2.75</v>
+        <v>1.22</v>
       </c>
       <c r="D167" t="n">
-        <v>1.38</v>
+        <v>3.9</v>
       </c>
       <c r="E167" t="n">
-        <v>1.37</v>
+        <v>2.68</v>
       </c>
       <c r="F167" t="n">
-        <v>19.28571428571428</v>
+        <v>23</v>
       </c>
       <c r="G167" t="n">
+        <v>20</v>
+      </c>
+      <c r="H167" t="n">
+        <v>39</v>
+      </c>
+      <c r="I167" t="n">
+        <v>22</v>
+      </c>
+      <c r="J167" t="n">
         <v>19</v>
       </c>
-      <c r="H167" t="n">
+      <c r="K167" t="n">
+        <v>24</v>
+      </c>
+      <c r="L167" t="n">
+        <v>15</v>
+      </c>
+      <c r="M167" t="n">
         <v>20</v>
       </c>
-      <c r="I167" t="n">
-        <v>21.14285714285714</v>
-      </c>
-      <c r="J167" t="n">
-        <v>19.42857142857143</v>
-      </c>
-      <c r="K167" t="n">
-        <v>22.14285714285714</v>
-      </c>
-      <c r="L167" t="n">
-        <v>20.42857142857143</v>
-      </c>
-      <c r="M167" t="n">
-        <v>19</v>
-      </c>
       <c r="N167" t="n">
-        <v>85.52142857142857</v>
+        <v>78.45999999999999</v>
       </c>
       <c r="O167" t="n">
-        <v>77.92999999999999</v>
+        <v>82.78</v>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Lakeside Lightning </t>
+          <t xml:space="preserve">Bursaspor </t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Willetton Tigers</t>
+          <t xml:space="preserve"> Fenerbahce Istanbul</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>1.62</v>
+        <v>2.12</v>
       </c>
       <c r="D168" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="E168" t="n">
-        <v>0.48</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="F168" t="n">
-        <v>20.6</v>
+        <v>21.5</v>
       </c>
       <c r="G168" t="n">
-        <v>21.2</v>
+        <v>16</v>
       </c>
       <c r="H168" t="n">
-        <v>23.6</v>
+        <v>18</v>
       </c>
       <c r="I168" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="J168" t="n">
-        <v>20.8</v>
+        <v>26.5</v>
       </c>
       <c r="K168" t="n">
-        <v>20.2</v>
+        <v>19</v>
       </c>
       <c r="L168" t="n">
-        <v>15</v>
+        <v>23.5</v>
       </c>
       <c r="M168" t="n">
-        <v>21.4</v>
+        <v>20.5</v>
       </c>
       <c r="N168" t="n">
-        <v>93.468</v>
+        <v>80.425</v>
       </c>
       <c r="O168" t="n">
-        <v>90.806</v>
+        <v>93.175</v>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Blackburn Vikings </t>
+          <t xml:space="preserve">Tartu Ulikool </t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t xml:space="preserve"> McKinnon Cougars</t>
+          <t xml:space="preserve"> Kk Parnu</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>7.6</v>
+        <v>1.23</v>
       </c>
       <c r="D169" t="n">
-        <v>1.04</v>
+        <v>3.8</v>
       </c>
       <c r="E169" t="n">
-        <v>6.56</v>
+        <v>2.57</v>
       </c>
       <c r="F169" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="G169" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="H169" t="n">
         <v>18</v>
       </c>
-      <c r="G169" t="n">
-        <v>33</v>
-      </c>
-      <c r="H169" t="n">
-        <v>9</v>
-      </c>
       <c r="I169" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="J169" t="n">
-        <v>33</v>
+        <v>18.25</v>
       </c>
       <c r="K169" t="n">
-        <v>20</v>
+        <v>18.25</v>
       </c>
       <c r="L169" t="n">
-        <v>24</v>
+        <v>16.25</v>
       </c>
       <c r="M169" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="N169" t="n">
-        <v>95.90000000000001</v>
+        <v>82.4075</v>
       </c>
       <c r="O169" t="n">
-        <v>77.84</v>
+        <v>75.2475</v>
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bulleen Boomers </t>
+          <t xml:space="preserve">Sluneta Usti nad Labem </t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sherbrooke</t>
+          <t xml:space="preserve"> BK Decin</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>1.04</v>
+        <v>1.41</v>
       </c>
       <c r="D170" t="n">
-        <v>7.8</v>
+        <v>2.85</v>
       </c>
       <c r="E170" t="n">
-        <v>6.76</v>
+        <v>1.44</v>
       </c>
       <c r="F170" t="n">
-        <v>8.800000000000001</v>
+        <v>18.5</v>
       </c>
       <c r="G170" t="n">
-        <v>7.4</v>
+        <v>16.5</v>
       </c>
       <c r="H170" t="n">
-        <v>5.4</v>
+        <v>18.75</v>
       </c>
       <c r="I170" t="n">
-        <v>6.4</v>
+        <v>22</v>
       </c>
       <c r="J170" t="n">
-        <v>6.8</v>
+        <v>21</v>
       </c>
       <c r="K170" t="n">
-        <v>6.6</v>
+        <v>18</v>
       </c>
       <c r="L170" t="n">
-        <v>8.199999999999999</v>
+        <v>21.5</v>
       </c>
       <c r="M170" t="n">
-        <v>6.2</v>
+        <v>17.25</v>
       </c>
       <c r="N170" t="n">
-        <v>70.75729523809524</v>
+        <v>77.5025</v>
       </c>
       <c r="O170" t="n">
-        <v>68.26224761904761</v>
+        <v>80.74250000000001</v>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bali United BC </t>
+          <t xml:space="preserve">Alba Fehervar </t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bumi Borneo Basketball Pontianak</t>
+          <t xml:space="preserve"> Zalakeramia ZTE</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.85</v>
+        <v>1.09</v>
       </c>
       <c r="D171" t="n">
-        <v>1.85</v>
+        <v>6</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>4.91</v>
       </c>
       <c r="F171" t="n">
-        <v>18.5</v>
+        <v>20.8</v>
       </c>
       <c r="G171" t="n">
-        <v>21.83333333333333</v>
+        <v>24.2</v>
       </c>
       <c r="H171" t="n">
-        <v>18.33333333333333</v>
+        <v>23.6</v>
       </c>
       <c r="I171" t="n">
-        <v>21.16666666666667</v>
+        <v>22.6</v>
       </c>
       <c r="J171" t="n">
-        <v>16.66666666666667</v>
+        <v>20.4</v>
       </c>
       <c r="K171" t="n">
-        <v>21.5</v>
+        <v>17.2</v>
       </c>
       <c r="L171" t="n">
-        <v>16.5</v>
+        <v>17.4</v>
       </c>
       <c r="M171" t="n">
-        <v>17.33333333333333</v>
+        <v>19</v>
       </c>
       <c r="N171" t="n">
-        <v>81.72333333333333</v>
+        <v>89.804</v>
       </c>
       <c r="O171" t="n">
-        <v>74.54333333333334</v>
+        <v>79.61800000000001</v>
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Goldfields Giants </t>
+          <t xml:space="preserve">Cso Voluntari </t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mandurah Magic</t>
+          <t xml:space="preserve"> BCMU Arges Pitesti</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>7.75</v>
+        <v>1.28</v>
       </c>
       <c r="D172" t="n">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="E172" t="n">
-        <v>6.71</v>
+        <v>2.02</v>
       </c>
       <c r="F172" t="n">
-        <v>23.22222222222222</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="G172" t="n">
-        <v>19.77777777777778</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="H172" t="n">
-        <v>24.66666666666667</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="I172" t="n">
-        <v>22.66666666666667</v>
+        <v>18</v>
       </c>
       <c r="J172" t="n">
-        <v>20.33333333333333</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="K172" t="n">
-        <v>22.11111111111111</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="L172" t="n">
-        <v>21.77777777777778</v>
+        <v>20</v>
       </c>
       <c r="M172" t="n">
-        <v>23.77777777777778</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="N172" t="n">
-        <v>91.93000000000001</v>
+        <v>84.67</v>
       </c>
       <c r="O172" t="n">
-        <v>88.12333333333332</v>
+        <v>74.68333333333334</v>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alvark Tokyo </t>
+          <t xml:space="preserve">Igokea Aleksandrovac </t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ryukyu Golden Kings Okinawa</t>
+          <t xml:space="preserve"> KK Bosna Royal Sarajevo</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="D173" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="E173" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="F173" t="n">
-        <v>16.2</v>
+        <v>22</v>
       </c>
       <c r="G173" t="n">
-        <v>19.6</v>
+        <v>21</v>
       </c>
       <c r="H173" t="n">
-        <v>18.4</v>
+        <v>19.25</v>
       </c>
       <c r="I173" t="n">
-        <v>20.8</v>
+        <v>23.25</v>
       </c>
       <c r="J173" t="n">
-        <v>19.4</v>
+        <v>21.25</v>
       </c>
       <c r="K173" t="n">
-        <v>19.2</v>
+        <v>18.25</v>
       </c>
       <c r="L173" t="n">
-        <v>16</v>
+        <v>19.75</v>
       </c>
       <c r="M173" t="n">
-        <v>20.8</v>
+        <v>23.5</v>
       </c>
       <c r="N173" t="n">
-        <v>78.242</v>
+        <v>73.7225</v>
       </c>
       <c r="O173" t="n">
-        <v>79.54000000000001</v>
+        <v>77.80499999999999</v>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Utsunomiya Brex </t>
+          <t xml:space="preserve">Cholet Basket </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chiba Jets Funabashi</t>
+          <t xml:space="preserve"> Elan Chalon</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="D174" t="n">
-        <v>3.3</v>
+        <v>4.62</v>
       </c>
       <c r="E174" t="n">
-        <v>1.98</v>
+        <v>3.41</v>
       </c>
       <c r="F174" t="n">
-        <v>24.33333333333333</v>
+        <v>24.2</v>
       </c>
       <c r="G174" t="n">
-        <v>18.66666666666667</v>
+        <v>22.8</v>
       </c>
       <c r="H174" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="I174" t="n">
-        <v>14.66666666666667</v>
+        <v>15.8</v>
       </c>
       <c r="J174" t="n">
-        <v>24</v>
+        <v>21.6</v>
       </c>
       <c r="K174" t="n">
-        <v>14.66666666666667</v>
+        <v>22.2</v>
       </c>
       <c r="L174" t="n">
-        <v>23.33333333333333</v>
+        <v>15.4</v>
       </c>
       <c r="M174" t="n">
-        <v>19.33333333333333</v>
+        <v>25.4</v>
       </c>
       <c r="N174" t="n">
-        <v>79.25666666666667</v>
+        <v>89.25999999999999</v>
       </c>
       <c r="O174" t="n">
-        <v>79.06</v>
+        <v>83.508</v>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forestville Eagles </t>
+          <t xml:space="preserve">JDA Dijon Basket </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t xml:space="preserve"> South Adelaide Panthers</t>
+          <t xml:space="preserve"> Le Mans Sarthe Basket</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="D175" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="E175" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="F175" t="n">
-        <v>26.75</v>
+        <v>19.2</v>
       </c>
       <c r="G175" t="n">
-        <v>24.5</v>
+        <v>18</v>
       </c>
       <c r="H175" t="n">
-        <v>24.75</v>
+        <v>18</v>
       </c>
       <c r="I175" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J175" t="n">
-        <v>25.75</v>
+        <v>19.8</v>
       </c>
       <c r="K175" t="n">
-        <v>21</v>
+        <v>21.6</v>
       </c>
       <c r="L175" t="n">
-        <v>17.75</v>
+        <v>21.6</v>
       </c>
       <c r="M175" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="N175" t="n">
-        <v>90.17249999999999</v>
+        <v>75.50600000000001</v>
       </c>
       <c r="O175" t="n">
-        <v>89.02499999999999</v>
+        <v>78.53400000000001</v>
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Eastern Mavericks </t>
+          <t xml:space="preserve">Le Portel </t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t xml:space="preserve"> North Adelaide Rockets</t>
+          <t xml:space="preserve"> Paris Basketball</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1.27</v>
+        <v>3.25</v>
       </c>
       <c r="D176" t="n">
-        <v>3.4</v>
+        <v>1.37</v>
       </c>
       <c r="E176" t="n">
-        <v>2.13</v>
+        <v>1.88</v>
       </c>
       <c r="F176" t="n">
-        <v>22</v>
+        <v>19.2</v>
       </c>
       <c r="G176" t="n">
-        <v>22</v>
+        <v>20.4</v>
       </c>
       <c r="H176" t="n">
-        <v>23.27272727272727</v>
+        <v>20.6</v>
       </c>
       <c r="I176" t="n">
-        <v>19</v>
+        <v>18.4</v>
       </c>
       <c r="J176" t="n">
-        <v>20.36363636363636</v>
+        <v>19.6</v>
       </c>
       <c r="K176" t="n">
-        <v>19.27272727272727</v>
+        <v>21.6</v>
       </c>
       <c r="L176" t="n">
-        <v>20.90909090909091</v>
+        <v>18.4</v>
       </c>
       <c r="M176" t="n">
-        <v>20.54545454545455</v>
+        <v>17.8</v>
       </c>
       <c r="N176" t="n">
-        <v>89.50090909090909</v>
+        <v>82.43199999999999</v>
       </c>
       <c r="O176" t="n">
-        <v>77.99000000000001</v>
+        <v>81.83199999999999</v>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sturt Sabres </t>
+          <t xml:space="preserve">Limoges CSP </t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> West Adelaide Bearcats</t>
+          <t xml:space="preserve"> JL Bourg Basket</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1.01</v>
+        <v>3.09</v>
       </c>
       <c r="D177" t="n">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="E177" t="n">
-        <v>8.99</v>
+        <v>1.69</v>
       </c>
       <c r="F177" t="n">
-        <v>20.83333333333333</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="G177" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="H177" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="I177" t="n">
+        <v>17.83333333333333</v>
+      </c>
+      <c r="J177" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K177" t="n">
         <v>19</v>
       </c>
-      <c r="H177" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="I177" t="n">
-        <v>24.66666666666667</v>
-      </c>
-      <c r="J177" t="n">
-        <v>24</v>
-      </c>
-      <c r="K177" t="n">
-        <v>20.66666666666667</v>
-      </c>
       <c r="L177" t="n">
-        <v>24.66666666666667</v>
+        <v>13</v>
       </c>
       <c r="M177" t="n">
-        <v>26</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="N177" t="n">
-        <v>89.55833333333332</v>
+        <v>79.08999999999999</v>
       </c>
       <c r="O177" t="n">
-        <v>95.86833333333333</v>
+        <v>74.58666666666666</v>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Woodville Warriors </t>
+          <t xml:space="preserve">Metropolitans 92 </t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Central Districts Lions</t>
+          <t xml:space="preserve"> Nanterre 92</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1.32</v>
+        <v>2.7</v>
       </c>
       <c r="D178" t="n">
-        <v>3.1</v>
+        <v>1.49</v>
       </c>
       <c r="E178" t="n">
-        <v>1.78</v>
+        <v>1.21</v>
       </c>
       <c r="F178" t="n">
-        <v>17.5</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="G178" t="n">
-        <v>19.16666666666667</v>
+        <v>16</v>
       </c>
       <c r="H178" t="n">
-        <v>16.66666666666667</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="I178" t="n">
-        <v>17.83333333333333</v>
+        <v>25.33333333333333</v>
       </c>
       <c r="J178" t="n">
-        <v>18</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="K178" t="n">
-        <v>20.5</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="L178" t="n">
-        <v>18.33333333333333</v>
+        <v>22</v>
       </c>
       <c r="M178" t="n">
-        <v>17.83333333333333</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="N178" t="n">
-        <v>80.98</v>
+        <v>83.67</v>
       </c>
       <c r="O178" t="n">
-        <v>88.34333333333332</v>
+        <v>94.67999999999999</v>
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Lokomotiv Kuban Krasnodar </t>
+          <t xml:space="preserve">Roanne Chorale </t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BC Uniks Kazan</t>
+          <t xml:space="preserve"> ASVEL Lyon Villeurbanne</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>1.6</v>
+        <v>5.52</v>
       </c>
       <c r="D179" t="n">
-        <v>2.2</v>
+        <v>1.16</v>
       </c>
       <c r="E179" t="n">
-        <v>0.6000000000000001</v>
+        <v>4.359999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>19.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="G179" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="H179" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="I179" t="n">
+        <v>21</v>
+      </c>
+      <c r="J179" t="n">
+        <v>20</v>
+      </c>
+      <c r="K179" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="L179" t="n">
         <v>20.33333333333333</v>
       </c>
-      <c r="H179" t="n">
-        <v>27</v>
-      </c>
-      <c r="I179" t="n">
-        <v>20.33333333333333</v>
-      </c>
-      <c r="J179" t="n">
-        <v>13</v>
-      </c>
-      <c r="K179" t="n">
-        <v>20</v>
-      </c>
-      <c r="L179" t="n">
-        <v>18</v>
-      </c>
       <c r="M179" t="n">
-        <v>18.33333333333333</v>
+        <v>23.16666666666667</v>
       </c>
       <c r="N179" t="n">
-        <v>75.31</v>
+        <v>87.65500000000002</v>
       </c>
       <c r="O179" t="n">
-        <v>81.97000000000001</v>
+        <v>83.23833333333333</v>
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dewa United Surabaya </t>
+          <t xml:space="preserve">Saint Quentin </t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pelita Jaya Bakrie Jakarta</t>
+          <t xml:space="preserve"> SIG Strasbourg</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>1.56</v>
+        <v>1.62</v>
       </c>
       <c r="D180" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="E180" t="n">
         <v>0.7399999999999998</v>
       </c>
       <c r="F180" t="n">
-        <v>24</v>
+        <v>19.125</v>
       </c>
       <c r="G180" t="n">
-        <v>26</v>
+        <v>24.25</v>
       </c>
       <c r="H180" t="n">
-        <v>28.6</v>
+        <v>16.125</v>
       </c>
       <c r="I180" t="n">
-        <v>16</v>
+        <v>21.25</v>
       </c>
       <c r="J180" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K180" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L180" t="n">
-        <v>21.8</v>
+        <v>19.25</v>
       </c>
       <c r="M180" t="n">
-        <v>22.6</v>
+        <v>18.625</v>
       </c>
       <c r="N180" t="n">
-        <v>92.804</v>
+        <v>79.16125000000001</v>
       </c>
       <c r="O180" t="n">
-        <v>74.18600000000001</v>
+        <v>78.92</v>
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Southern Tigers </t>
+          <t xml:space="preserve">Sluc Nancy Basket </t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Norwood Flames</t>
+          <t xml:space="preserve"> BCM Gravelines Dunkerque</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.51</v>
+        <v>1.38</v>
       </c>
       <c r="D181" t="n">
-        <v>2.35</v>
+        <v>3.2</v>
       </c>
       <c r="E181" t="n">
-        <v>0.8400000000000001</v>
+        <v>1.82</v>
       </c>
       <c r="F181" t="n">
-        <v>23.14285714285714</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="G181" t="n">
-        <v>24.28571428571428</v>
+        <v>23.57142857142857</v>
       </c>
       <c r="H181" t="n">
-        <v>21.42857142857143</v>
+        <v>16.57142857142857</v>
       </c>
       <c r="I181" t="n">
-        <v>21.85714285714286</v>
+        <v>22</v>
       </c>
       <c r="J181" t="n">
-        <v>22.71428571428572</v>
+        <v>20.14285714285714</v>
       </c>
       <c r="K181" t="n">
-        <v>25.42857142857143</v>
+        <v>19.57142857142857</v>
       </c>
       <c r="L181" t="n">
-        <v>22</v>
+        <v>20.57142857142857</v>
       </c>
       <c r="M181" t="n">
-        <v>21.85714285714286</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="N181" t="n">
-        <v>92.77142857142857</v>
+        <v>85.94571428571429</v>
       </c>
       <c r="O181" t="n">
-        <v>89.86999999999999</v>
+        <v>76.93142857142857</v>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liaoning Flying Leopards </t>
+          <t xml:space="preserve">Minas Tenis Clube MG </t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Guangdong Southern Tigers</t>
+          <t xml:space="preserve"> Sao Paulo FC</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="D182" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="E182" t="n">
-        <v>3.41</v>
+        <v>2.87</v>
       </c>
       <c r="F182" t="n">
-        <v>20.85714285714286</v>
+        <v>18</v>
       </c>
       <c r="G182" t="n">
-        <v>20.42857142857143</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="H182" t="n">
-        <v>21.42857142857143</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="I182" t="n">
-        <v>22.28571428571428</v>
+        <v>14</v>
       </c>
       <c r="J182" t="n">
-        <v>21.42857142857143</v>
+        <v>11</v>
       </c>
       <c r="K182" t="n">
-        <v>20.85714285714286</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="L182" t="n">
-        <v>19.85714285714286</v>
+        <v>10</v>
       </c>
       <c r="M182" t="n">
-        <v>18.85714285714286</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="N182" t="n">
-        <v>93.98571428571428</v>
+        <v>84.41000000000001</v>
       </c>
       <c r="O182" t="n">
-        <v>93.30285714285715</v>
+        <v>68.09666666666668</v>
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mersin Buyuksehir Belediyesi </t>
+          <t xml:space="preserve">Falco KC Szombathely </t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gaziantep Basketbol</t>
+          <t xml:space="preserve"> Szolnoki Olaj Kk</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="D183" t="n">
-        <v>3.7</v>
+        <v>6.7</v>
       </c>
       <c r="E183" t="n">
-        <v>2.48</v>
+        <v>5.63</v>
       </c>
       <c r="F183" t="n">
-        <v>21</v>
+        <v>20.5</v>
       </c>
       <c r="G183" t="n">
-        <v>19.33333333333333</v>
+        <v>22</v>
       </c>
       <c r="H183" t="n">
-        <v>19.33333333333333</v>
+        <v>19.75</v>
       </c>
       <c r="I183" t="n">
-        <v>15</v>
+        <v>19.25</v>
       </c>
       <c r="J183" t="n">
-        <v>17.66666666666667</v>
+        <v>18</v>
       </c>
       <c r="K183" t="n">
-        <v>16</v>
+        <v>18.5</v>
       </c>
       <c r="L183" t="n">
-        <v>14.66666666666667</v>
+        <v>20.25</v>
       </c>
       <c r="M183" t="n">
-        <v>12.66666666666667</v>
+        <v>20.25</v>
       </c>
       <c r="N183" t="n">
-        <v>84.07333333333334</v>
+        <v>84.8775</v>
       </c>
       <c r="O183" t="n">
-        <v>75.34333333333335</v>
+        <v>78.3425</v>
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSM Ploiesti </t>
+          <t xml:space="preserve">Reyer Venezia </t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Csm Focsani</t>
+          <t xml:space="preserve"> Pallacanestro Reggiana</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="D184" t="n">
-        <v>3.6</v>
+        <v>3.37</v>
       </c>
       <c r="E184" t="n">
-        <v>2.36</v>
+        <v>1.99</v>
       </c>
       <c r="F184" t="n">
-        <v>19</v>
+        <v>22.5</v>
       </c>
       <c r="G184" t="n">
-        <v>15</v>
+        <v>24.5</v>
       </c>
       <c r="H184" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I184" t="n">
-        <v>15</v>
+        <v>28.5</v>
       </c>
       <c r="J184" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="K184" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="L184" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M184" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N184" t="n">
-        <v>78.95999999999999</v>
+        <v>83.12</v>
       </c>
       <c r="O184" t="n">
-        <v>76.38</v>
+        <v>86.14500000000001</v>
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Benfica Lisboa </t>
+          <t xml:space="preserve">Juvi Cremona 1952 </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vitoria Sport Clube</t>
+          <t xml:space="preserve"> APU Udine</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="D185" t="n">
-        <v>13</v>
+        <v>1.37</v>
       </c>
       <c r="E185" t="n">
-        <v>11.98</v>
+        <v>1.43</v>
       </c>
       <c r="F185" t="n">
-        <v>16</v>
+        <v>17.2</v>
       </c>
       <c r="G185" t="n">
-        <v>15</v>
+        <v>16.8</v>
       </c>
       <c r="H185" t="n">
-        <v>19</v>
+        <v>20.2</v>
       </c>
       <c r="I185" t="n">
-        <v>12.66666666666667</v>
+        <v>22.2</v>
       </c>
       <c r="J185" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="K185" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="L185" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="M185" t="n">
         <v>12</v>
       </c>
-      <c r="K185" t="n">
-        <v>9</v>
-      </c>
-      <c r="L185" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="M185" t="n">
-        <v>10</v>
-      </c>
       <c r="N185" t="n">
-        <v>77.81666666666668</v>
+        <v>79.554</v>
       </c>
       <c r="O185" t="n">
-        <v>70.62666666666667</v>
+        <v>68.506</v>
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">UD Oliveirense </t>
+          <t xml:space="preserve">Obera Tenis Club </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Povoa</t>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1.23</v>
+        <v>1.51</v>
       </c>
       <c r="D186" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E186" t="n">
-        <v>2.77</v>
+        <v>0.99</v>
       </c>
       <c r="F186" t="n">
-        <v>17.33333333333333</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="G186" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H186" t="n">
-        <v>23.33333333333333</v>
+        <v>14.5</v>
       </c>
       <c r="I186" t="n">
-        <v>14.66666666666667</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="J186" t="n">
-        <v>16.33333333333333</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="K186" t="n">
-        <v>18.33333333333333</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="L186" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M186" t="n">
-        <v>22</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="N186" t="n">
-        <v>81.19333333333333</v>
+        <v>82.86</v>
       </c>
       <c r="O186" t="n">
-        <v>81.7</v>
+        <v>74.31333333333333</v>
       </c>
       <c r="P186" t="inlineStr">
         <is>
@@ -10878,52 +10878,52 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rivers Hoopers </t>
+          <t xml:space="preserve">CD Las Animas </t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Armee Patriotique Rwandaise</t>
+          <t xml:space="preserve"> CD Atletico Puerto Varas</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.54</v>
+        <v>1.19</v>
       </c>
       <c r="D187" t="n">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="E187" t="n">
-        <v>0.71</v>
+        <v>2.91</v>
       </c>
       <c r="F187" t="n">
-        <v>19.75</v>
+        <v>22</v>
       </c>
       <c r="G187" t="n">
-        <v>18.5</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="H187" t="n">
-        <v>14</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="I187" t="n">
-        <v>19.75</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="J187" t="n">
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
       <c r="K187" t="n">
-        <v>20.75</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="L187" t="n">
-        <v>19.75</v>
+        <v>23.5</v>
       </c>
       <c r="M187" t="n">
-        <v>22</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="N187" t="n">
-        <v>74.80499999999999</v>
+        <v>85.50166666666667</v>
       </c>
       <c r="O187" t="n">
-        <v>81.55250000000001</v>
+        <v>83.64666666666666</v>
       </c>
       <c r="P187" t="inlineStr">
         <is>
@@ -10934,52 +10934,52 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">BK Levicki Patrioti </t>
+          <t xml:space="preserve">Minnesota Timberwolves </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BK 04 AC LB SNV Spisski Rytieri</t>
+          <t xml:space="preserve"> Denver Nuggets</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.22</v>
+        <v>1.72</v>
       </c>
       <c r="D188" t="n">
-        <v>3.9</v>
+        <v>2.28</v>
       </c>
       <c r="E188" t="n">
-        <v>2.68</v>
+        <v>0.5599999999999998</v>
       </c>
       <c r="F188" t="n">
-        <v>23</v>
+        <v>24.5</v>
       </c>
       <c r="G188" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="H188" t="n">
-        <v>39</v>
+        <v>26.75</v>
       </c>
       <c r="I188" t="n">
-        <v>22</v>
+        <v>27.25</v>
       </c>
       <c r="J188" t="n">
-        <v>19</v>
+        <v>29.75</v>
       </c>
       <c r="K188" t="n">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="L188" t="n">
-        <v>15</v>
+        <v>30.75</v>
       </c>
       <c r="M188" t="n">
-        <v>20</v>
+        <v>31.75</v>
       </c>
       <c r="N188" t="n">
-        <v>78.45999999999999</v>
+        <v>108.7775</v>
       </c>
       <c r="O188" t="n">
-        <v>82.78</v>
+        <v>107.2775</v>
       </c>
       <c r="P188" t="inlineStr">
         <is>
@@ -10990,52 +10990,52 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bursaspor </t>
+          <t xml:space="preserve">Atenas Cordoba </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fenerbahce Istanbul</t>
+          <t xml:space="preserve"> Deportivo Rivadavia Mendoza</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2.12</v>
+        <v>1.19</v>
       </c>
       <c r="D189" t="n">
-        <v>1.76</v>
+        <v>4</v>
       </c>
       <c r="E189" t="n">
-        <v>0.3600000000000001</v>
+        <v>2.81</v>
       </c>
       <c r="F189" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="G189" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H189" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I189" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J189" t="n">
-        <v>26.5</v>
+        <v>23</v>
       </c>
       <c r="K189" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="L189" t="n">
-        <v>23.5</v>
+        <v>20</v>
       </c>
       <c r="M189" t="n">
-        <v>20.5</v>
+        <v>19.5</v>
       </c>
       <c r="N189" t="n">
-        <v>80.425</v>
+        <v>80.955</v>
       </c>
       <c r="O189" t="n">
-        <v>93.175</v>
+        <v>87.965</v>
       </c>
       <c r="P189" t="inlineStr">
         <is>
@@ -11046,52 +11046,52 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tartu Ulikool </t>
+          <t xml:space="preserve">Penarol Mar Del Plata </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kk Parnu</t>
+          <t xml:space="preserve"> Ferro Carril Oeste</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="D190" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="E190" t="n">
-        <v>2.57</v>
+        <v>1.5</v>
       </c>
       <c r="F190" t="n">
-        <v>20.25</v>
+        <v>29</v>
       </c>
       <c r="G190" t="n">
-        <v>21.75</v>
+        <v>21</v>
       </c>
       <c r="H190" t="n">
-        <v>18</v>
+        <v>23.5</v>
       </c>
       <c r="I190" t="n">
-        <v>20.5</v>
+        <v>24.5</v>
       </c>
       <c r="J190" t="n">
-        <v>18.25</v>
+        <v>18.5</v>
       </c>
       <c r="K190" t="n">
-        <v>18.25</v>
+        <v>20</v>
       </c>
       <c r="L190" t="n">
-        <v>16.25</v>
+        <v>17</v>
       </c>
       <c r="M190" t="n">
-        <v>21.5</v>
+        <v>16</v>
       </c>
       <c r="N190" t="n">
-        <v>82.4075</v>
+        <v>94.55500000000001</v>
       </c>
       <c r="O190" t="n">
-        <v>75.2475</v>
+        <v>73.345</v>
       </c>
       <c r="P190" t="inlineStr">
         <is>
@@ -11102,52 +11102,52 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSM Targu Jiu </t>
+          <t xml:space="preserve">Motilones Del Norte </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Abc Laguna Bucuresti</t>
+          <t xml:space="preserve"> Piratas de Bogota</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.04</v>
+        <v>1.19</v>
       </c>
       <c r="D191" t="n">
-        <v>8.25</v>
+        <v>4</v>
       </c>
       <c r="E191" t="n">
-        <v>7.21</v>
+        <v>2.81</v>
       </c>
       <c r="F191" t="n">
-        <v>20.75</v>
+        <v>22.4</v>
       </c>
       <c r="G191" t="n">
-        <v>25.75</v>
+        <v>23.4</v>
       </c>
       <c r="H191" t="n">
-        <v>22.25</v>
+        <v>15.8</v>
       </c>
       <c r="I191" t="n">
-        <v>19.75</v>
+        <v>22.2</v>
       </c>
       <c r="J191" t="n">
-        <v>22.25</v>
+        <v>19.8</v>
       </c>
       <c r="K191" t="n">
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="L191" t="n">
-        <v>20.75</v>
+        <v>27.8</v>
       </c>
       <c r="M191" t="n">
-        <v>22.25</v>
+        <v>14</v>
       </c>
       <c r="N191" t="n">
-        <v>86.92500000000001</v>
+        <v>76.574</v>
       </c>
       <c r="O191" t="n">
-        <v>85.8275</v>
+        <v>70.88</v>
       </c>
       <c r="P191" t="inlineStr">
         <is>
@@ -11158,52 +11158,52 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sluneta Usti nad Labem </t>
+          <t xml:space="preserve">Taiwan Beer </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BK Decin</t>
+          <t xml:space="preserve"> Yulon Dinos</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="D192" t="n">
-        <v>2.85</v>
+        <v>2.25</v>
       </c>
       <c r="E192" t="n">
-        <v>1.44</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="F192" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G192" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="H192" t="n">
         <v>18.5</v>
       </c>
-      <c r="G192" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="H192" t="n">
-        <v>18.75</v>
-      </c>
       <c r="I192" t="n">
-        <v>22</v>
+        <v>13.75</v>
       </c>
       <c r="J192" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="K192" t="n">
+        <v>17</v>
+      </c>
+      <c r="L192" t="n">
         <v>21</v>
       </c>
-      <c r="K192" t="n">
-        <v>18</v>
-      </c>
-      <c r="L192" t="n">
-        <v>21.5</v>
-      </c>
       <c r="M192" t="n">
-        <v>17.25</v>
+        <v>18.5</v>
       </c>
       <c r="N192" t="n">
-        <v>77.5025</v>
+        <v>72.9375</v>
       </c>
       <c r="O192" t="n">
-        <v>80.74250000000001</v>
+        <v>77.0825</v>
       </c>
       <c r="P192" t="inlineStr">
         <is>
@@ -11214,52 +11214,52 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alba Fehervar </t>
+          <t xml:space="preserve">Bali United BC </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Zalakeramia ZTE</t>
+          <t xml:space="preserve"> Pacific Caesar Surabaya</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="D193" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="E193" t="n">
-        <v>4.91</v>
+        <v>5.22</v>
       </c>
       <c r="F193" t="n">
-        <v>20.8</v>
+        <v>21.14285714285714</v>
       </c>
       <c r="G193" t="n">
-        <v>24.2</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="H193" t="n">
-        <v>23.6</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="I193" t="n">
-        <v>22.6</v>
+        <v>19</v>
       </c>
       <c r="J193" t="n">
-        <v>20.4</v>
+        <v>21.14285714285714</v>
       </c>
       <c r="K193" t="n">
-        <v>17.2</v>
+        <v>19.57142857142857</v>
       </c>
       <c r="L193" t="n">
-        <v>17.4</v>
+        <v>20.57142857142857</v>
       </c>
       <c r="M193" t="n">
-        <v>19</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="N193" t="n">
-        <v>89.804</v>
+        <v>81.81571428571429</v>
       </c>
       <c r="O193" t="n">
-        <v>79.61800000000001</v>
+        <v>77.81285714285715</v>
       </c>
       <c r="P193" t="inlineStr">
         <is>
@@ -11270,52 +11270,52 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Spojnia Stargard </t>
+          <t xml:space="preserve">Helsinki Seagulls </t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Anwil Wroclawek</t>
+          <t xml:space="preserve"> BC Nokia</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="D194" t="n">
-        <v>1.58</v>
+        <v>2.2</v>
       </c>
       <c r="E194" t="n">
-        <v>0.77</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F194" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G194" t="n">
-        <v>23.33333333333333</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="H194" t="n">
-        <v>19.66666666666667</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="I194" t="n">
-        <v>21.33333333333333</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="J194" t="n">
-        <v>17.33333333333333</v>
+        <v>19.71428571428572</v>
       </c>
       <c r="K194" t="n">
-        <v>17.33333333333333</v>
+        <v>17</v>
       </c>
       <c r="L194" t="n">
-        <v>21.66666666666667</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="M194" t="n">
-        <v>18.33333333333333</v>
+        <v>18</v>
       </c>
       <c r="N194" t="n">
-        <v>83.59333333333332</v>
+        <v>77.42428571428572</v>
       </c>
       <c r="O194" t="n">
-        <v>80.85666666666667</v>
+        <v>76.92857142857143</v>
       </c>
       <c r="P194" t="inlineStr">
         <is>
@@ -11326,52 +11326,52 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cso Voluntari </t>
+          <t xml:space="preserve">London Lions </t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCMU Arges Pitesti</t>
+          <t xml:space="preserve"> Newcastle Eagles</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1.28</v>
+        <v>1.06</v>
       </c>
       <c r="D195" t="n">
-        <v>3.3</v>
+        <v>7.4</v>
       </c>
       <c r="E195" t="n">
-        <v>2.02</v>
+        <v>6.34</v>
       </c>
       <c r="F195" t="n">
-        <v>25.66666666666667</v>
+        <v>24.75</v>
       </c>
       <c r="G195" t="n">
-        <v>21.33333333333333</v>
+        <v>22.875</v>
       </c>
       <c r="H195" t="n">
-        <v>25.66666666666667</v>
+        <v>18.75</v>
       </c>
       <c r="I195" t="n">
         <v>18</v>
       </c>
       <c r="J195" t="n">
-        <v>17.66666666666667</v>
+        <v>22.125</v>
       </c>
       <c r="K195" t="n">
-        <v>16.66666666666667</v>
+        <v>24</v>
       </c>
       <c r="L195" t="n">
         <v>20</v>
       </c>
       <c r="M195" t="n">
-        <v>16.33333333333333</v>
+        <v>22.125</v>
       </c>
       <c r="N195" t="n">
-        <v>84.67</v>
+        <v>85.8</v>
       </c>
       <c r="O195" t="n">
-        <v>74.68333333333334</v>
+        <v>82.75500000000001</v>
       </c>
       <c r="P195" t="inlineStr">
         <is>
@@ -11382,52 +11382,52 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Igokea Aleksandrovac </t>
+          <t xml:space="preserve">CSKA Moscow </t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KK Bosna Royal Sarajevo</t>
+          <t xml:space="preserve"> Zenit Saint Petersburg</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="D196" t="n">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="E196" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="F196" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="G196" t="n">
-        <v>21</v>
+        <v>18.75</v>
       </c>
       <c r="H196" t="n">
-        <v>19.25</v>
+        <v>23</v>
       </c>
       <c r="I196" t="n">
         <v>23.25</v>
       </c>
       <c r="J196" t="n">
-        <v>21.25</v>
+        <v>15.75</v>
       </c>
       <c r="K196" t="n">
-        <v>18.25</v>
+        <v>24.75</v>
       </c>
       <c r="L196" t="n">
-        <v>19.75</v>
+        <v>17</v>
       </c>
       <c r="M196" t="n">
-        <v>23.5</v>
+        <v>20.5</v>
       </c>
       <c r="N196" t="n">
-        <v>73.7225</v>
+        <v>83.60499999999999</v>
       </c>
       <c r="O196" t="n">
-        <v>77.80499999999999</v>
+        <v>82.0025</v>
       </c>
       <c r="P196" t="inlineStr">
         <is>
@@ -11438,52 +11438,52 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">KK Borac Banja Luka </t>
+          <t xml:space="preserve">Donar Groningen </t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KK Siroki</t>
+          <t xml:space="preserve"> Basketball Academie Limburg</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1.96</v>
+        <v>1.22</v>
       </c>
       <c r="D197" t="n">
-        <v>1.75</v>
+        <v>3.7</v>
       </c>
       <c r="E197" t="n">
-        <v>0.21</v>
+        <v>2.48</v>
       </c>
       <c r="F197" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="G197" t="n">
-        <v>15.66666666666667</v>
+        <v>23.125</v>
       </c>
       <c r="H197" t="n">
-        <v>7.666666666666667</v>
+        <v>19.5</v>
       </c>
       <c r="I197" t="n">
-        <v>11.33333333333333</v>
+        <v>22</v>
       </c>
       <c r="J197" t="n">
-        <v>11.33333333333333</v>
+        <v>23</v>
       </c>
       <c r="K197" t="n">
-        <v>11.66666666666667</v>
+        <v>15.125</v>
       </c>
       <c r="L197" t="n">
-        <v>10.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="M197" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N197" t="n">
-        <v>51.54</v>
+        <v>83.62125</v>
       </c>
       <c r="O197" t="n">
-        <v>47.34</v>
+        <v>75.04124999999999</v>
       </c>
       <c r="P197" t="inlineStr">
         <is>
@@ -11494,52 +11494,52 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mladost Mrkonjic </t>
+          <t xml:space="preserve">Dewa United Surabaya </t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KK Sloboda Dita Tuzla</t>
+          <t xml:space="preserve"> Rans Pik Basketball Club</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>2.45</v>
+        <v>1.05</v>
       </c>
       <c r="D198" t="n">
-        <v>1.49</v>
+        <v>7.7</v>
       </c>
       <c r="E198" t="n">
-        <v>0.9600000000000002</v>
+        <v>6.65</v>
       </c>
       <c r="F198" t="n">
-        <v>11.85714285714286</v>
+        <v>25</v>
       </c>
       <c r="G198" t="n">
-        <v>13.85714285714286</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="H198" t="n">
-        <v>9.714285714285714</v>
+        <v>26.28571428571428</v>
       </c>
       <c r="I198" t="n">
-        <v>8.142857142857142</v>
+        <v>15.57142857142857</v>
       </c>
       <c r="J198" t="n">
-        <v>12.28571428571429</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="K198" t="n">
-        <v>11.14285714285714</v>
+        <v>21.28571428571428</v>
       </c>
       <c r="L198" t="n">
-        <v>9.285714285714286</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="M198" t="n">
-        <v>10.71428571428571</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="N198" t="n">
-        <v>43.42714285714286</v>
+        <v>86.27428571428571</v>
       </c>
       <c r="O198" t="n">
-        <v>43.26571428571429</v>
+        <v>81.96142857142857</v>
       </c>
       <c r="P198" t="inlineStr">
         <is>
@@ -11550,52 +11550,52 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ada Blois Basket 41 </t>
+          <t xml:space="preserve">Basketball Lowen Braunschweig </t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> AS Monaco</t>
+          <t xml:space="preserve"> Ratiopharm Ulm</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>2.14</v>
+        <v>4.35</v>
       </c>
       <c r="D199" t="n">
-        <v>1.74</v>
+        <v>1.25</v>
       </c>
       <c r="E199" t="n">
-        <v>0.4000000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="F199" t="n">
-        <v>21.75</v>
+        <v>24.42857142857143</v>
       </c>
       <c r="G199" t="n">
-        <v>23</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="H199" t="n">
-        <v>20</v>
+        <v>15.85714285714286</v>
       </c>
       <c r="I199" t="n">
-        <v>15.5</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="J199" t="n">
-        <v>16.75</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="K199" t="n">
-        <v>20.75</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="L199" t="n">
-        <v>23</v>
+        <v>20.14285714285714</v>
       </c>
       <c r="M199" t="n">
-        <v>23.25</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="N199" t="n">
-        <v>82.5425</v>
+        <v>80.45857142857143</v>
       </c>
       <c r="O199" t="n">
-        <v>84.535</v>
+        <v>81.39428571428572</v>
       </c>
       <c r="P199" t="inlineStr">
         <is>
@@ -11606,52 +11606,52 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cholet Basket </t>
+          <t xml:space="preserve">Baskets Bonn </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Elan Chalon</t>
+          <t xml:space="preserve"> Riesen Ludwigsburg</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="D200" t="n">
-        <v>4.62</v>
+        <v>2.57</v>
       </c>
       <c r="E200" t="n">
-        <v>3.41</v>
+        <v>1.01</v>
       </c>
       <c r="F200" t="n">
-        <v>24.2</v>
+        <v>20.94736842105263</v>
       </c>
       <c r="G200" t="n">
-        <v>22.8</v>
+        <v>22.10526315789474</v>
       </c>
       <c r="H200" t="n">
-        <v>20.4</v>
+        <v>20.26315789473684</v>
       </c>
       <c r="I200" t="n">
-        <v>15.8</v>
+        <v>19.26315789473684</v>
       </c>
       <c r="J200" t="n">
-        <v>21.6</v>
+        <v>19.94736842105263</v>
       </c>
       <c r="K200" t="n">
-        <v>22.2</v>
+        <v>21.84210526315789</v>
       </c>
       <c r="L200" t="n">
-        <v>15.4</v>
+        <v>22.42105263157895</v>
       </c>
       <c r="M200" t="n">
-        <v>25.4</v>
+        <v>20.57894736842105</v>
       </c>
       <c r="N200" t="n">
-        <v>89.25999999999999</v>
+        <v>80.53473684210526</v>
       </c>
       <c r="O200" t="n">
-        <v>83.508</v>
+        <v>83.19263157894737</v>
       </c>
       <c r="P200" t="inlineStr">
         <is>
@@ -11662,52 +11662,52 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">JDA Dijon Basket </t>
+          <t xml:space="preserve">Baskets Oldenburg </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Le Mans Sarthe Basket</t>
+          <t xml:space="preserve"> Brose Bamberg</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1.51</v>
+        <v>1.69</v>
       </c>
       <c r="D201" t="n">
-        <v>2.66</v>
+        <v>2.28</v>
       </c>
       <c r="E201" t="n">
-        <v>1.15</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="F201" t="n">
-        <v>19.2</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="G201" t="n">
-        <v>18</v>
+        <v>20.64285714285714</v>
       </c>
       <c r="H201" t="n">
-        <v>18</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="I201" t="n">
-        <v>19</v>
+        <v>22.92857142857143</v>
       </c>
       <c r="J201" t="n">
-        <v>19.8</v>
+        <v>21.21428571428572</v>
       </c>
       <c r="K201" t="n">
-        <v>21.6</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="L201" t="n">
-        <v>21.6</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="M201" t="n">
-        <v>19.2</v>
+        <v>21.35714285714286</v>
       </c>
       <c r="N201" t="n">
-        <v>75.50600000000001</v>
+        <v>88.985</v>
       </c>
       <c r="O201" t="n">
-        <v>78.53400000000001</v>
+        <v>87.65214285714285</v>
       </c>
       <c r="P201" t="inlineStr">
         <is>
@@ -11718,52 +11718,52 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le Portel </t>
+          <t xml:space="preserve">Bayern Munich </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Paris Basketball</t>
+          <t xml:space="preserve"> Rostock Seawolves</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3.25</v>
+        <v>1.1</v>
       </c>
       <c r="D202" t="n">
-        <v>1.37</v>
+        <v>8.23</v>
       </c>
       <c r="E202" t="n">
-        <v>1.88</v>
+        <v>7.130000000000001</v>
       </c>
       <c r="F202" t="n">
-        <v>19.2</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="G202" t="n">
-        <v>20.4</v>
+        <v>22</v>
       </c>
       <c r="H202" t="n">
-        <v>20.6</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="I202" t="n">
-        <v>18.4</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="J202" t="n">
-        <v>19.6</v>
+        <v>20</v>
       </c>
       <c r="K202" t="n">
-        <v>21.6</v>
+        <v>20</v>
       </c>
       <c r="L202" t="n">
-        <v>18.4</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="M202" t="n">
-        <v>17.8</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="N202" t="n">
-        <v>82.43199999999999</v>
+        <v>80.68666666666667</v>
       </c>
       <c r="O202" t="n">
-        <v>81.83199999999999</v>
+        <v>83.27444444444444</v>
       </c>
       <c r="P202" t="inlineStr">
         <is>
@@ -11774,52 +11774,52 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Limoges CSP </t>
+          <t xml:space="preserve">Crailsheim Merlins </t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JL Bourg Basket</t>
+          <t xml:space="preserve"> Alba Berlin</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3.09</v>
+        <v>3.93</v>
       </c>
       <c r="D203" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="E203" t="n">
-        <v>1.69</v>
+        <v>2.64</v>
       </c>
       <c r="F203" t="n">
-        <v>19.83333333333333</v>
+        <v>18.61538461538462</v>
       </c>
       <c r="G203" t="n">
-        <v>18.16666666666667</v>
+        <v>23.30769230769231</v>
       </c>
       <c r="H203" t="n">
-        <v>16.33333333333333</v>
+        <v>20.92307692307692</v>
       </c>
       <c r="I203" t="n">
-        <v>17.83333333333333</v>
+        <v>24.38461538461538</v>
       </c>
       <c r="J203" t="n">
-        <v>19.5</v>
+        <v>19.46153846153846</v>
       </c>
       <c r="K203" t="n">
-        <v>19</v>
+        <v>18.07692307692308</v>
       </c>
       <c r="L203" t="n">
-        <v>13</v>
+        <v>20.69230769230769</v>
       </c>
       <c r="M203" t="n">
-        <v>20.16666666666667</v>
+        <v>21</v>
       </c>
       <c r="N203" t="n">
-        <v>79.08999999999999</v>
+        <v>87.11461538461539</v>
       </c>
       <c r="O203" t="n">
-        <v>74.58666666666666</v>
+        <v>80.35923076923076</v>
       </c>
       <c r="P203" t="inlineStr">
         <is>
@@ -11830,52 +11830,52 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Metropolitans 92 </t>
+          <t xml:space="preserve">Rasta Vechta </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Nanterre 92</t>
+          <t xml:space="preserve"> Mitteldeutscher BC</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>2.7</v>
+        <v>1.15</v>
       </c>
       <c r="D204" t="n">
-        <v>1.49</v>
+        <v>6.22</v>
       </c>
       <c r="E204" t="n">
-        <v>1.21</v>
+        <v>5.07</v>
       </c>
       <c r="F204" t="n">
-        <v>28.33333333333333</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="G204" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="H204" t="n">
+        <v>20.55555555555556</v>
+      </c>
+      <c r="I204" t="n">
+        <v>21.77777777777778</v>
+      </c>
+      <c r="J204" t="n">
+        <v>21.22222222222222</v>
+      </c>
+      <c r="K204" t="n">
+        <v>16.44444444444444</v>
+      </c>
+      <c r="L204" t="n">
         <v>16</v>
       </c>
-      <c r="H204" t="n">
-        <v>28.66666666666667</v>
-      </c>
-      <c r="I204" t="n">
-        <v>25.33333333333333</v>
-      </c>
-      <c r="J204" t="n">
-        <v>24.33333333333333</v>
-      </c>
-      <c r="K204" t="n">
-        <v>28.33333333333333</v>
-      </c>
-      <c r="L204" t="n">
-        <v>22</v>
-      </c>
       <c r="M204" t="n">
-        <v>28.33333333333333</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="N204" t="n">
-        <v>83.67</v>
+        <v>84.0611111111111</v>
       </c>
       <c r="O204" t="n">
-        <v>94.67999999999999</v>
+        <v>76.60888888888888</v>
       </c>
       <c r="P204" t="inlineStr">
         <is>
@@ -11886,52 +11886,52 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Roanne Chorale </t>
+          <t xml:space="preserve">Phoenix Hagen </t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASVEL Lyon Villeurbanne</t>
+          <t xml:space="preserve"> VFL Kirchheim Knights</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>5.52</v>
+        <v>1.38</v>
       </c>
       <c r="D205" t="n">
-        <v>1.16</v>
+        <v>2.95</v>
       </c>
       <c r="E205" t="n">
-        <v>4.359999999999999</v>
+        <v>1.57</v>
       </c>
       <c r="F205" t="n">
-        <v>20</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G205" t="n">
-        <v>23.33333333333333</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="H205" t="n">
-        <v>20.83333333333333</v>
+        <v>19</v>
       </c>
       <c r="I205" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J205" t="n">
-        <v>20</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="K205" t="n">
-        <v>18.33333333333333</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="L205" t="n">
-        <v>20.33333333333333</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="M205" t="n">
-        <v>23.16666666666667</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="N205" t="n">
-        <v>87.65500000000002</v>
+        <v>79.10555555555555</v>
       </c>
       <c r="O205" t="n">
-        <v>83.23833333333333</v>
+        <v>78.47</v>
       </c>
       <c r="P205" t="inlineStr">
         <is>
@@ -11942,52 +11942,52 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saint Quentin </t>
+          <t xml:space="preserve">BC Juventus Utena </t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> SIG Strasbourg</t>
+          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="D206" t="n">
-        <v>2.36</v>
+        <v>1.78</v>
       </c>
       <c r="E206" t="n">
-        <v>0.7399999999999998</v>
+        <v>0.22</v>
       </c>
       <c r="F206" t="n">
-        <v>19.125</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="G206" t="n">
-        <v>24.25</v>
+        <v>22</v>
       </c>
       <c r="H206" t="n">
-        <v>16.125</v>
+        <v>23.5</v>
       </c>
       <c r="I206" t="n">
-        <v>21.25</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="J206" t="n">
-        <v>20</v>
+        <v>23.5</v>
       </c>
       <c r="K206" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="L206" t="n">
-        <v>19.25</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="M206" t="n">
-        <v>18.625</v>
+        <v>21.5</v>
       </c>
       <c r="N206" t="n">
-        <v>79.16125000000001</v>
+        <v>90.15833333333335</v>
       </c>
       <c r="O206" t="n">
-        <v>78.92</v>
+        <v>83.02999999999999</v>
       </c>
       <c r="P206" t="inlineStr">
         <is>
@@ -11998,52 +11998,52 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sluc Nancy Basket </t>
+          <t xml:space="preserve">CS Universitatea Cluj-Napoca </t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BCM Gravelines Dunkerque</t>
+          <t xml:space="preserve"> CSM CSU Oradea</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="D207" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="E207" t="n">
-        <v>1.82</v>
+        <v>2.91</v>
       </c>
       <c r="F207" t="n">
-        <v>22.28571428571428</v>
+        <v>21.90909090909091</v>
       </c>
       <c r="G207" t="n">
-        <v>23.57142857142857</v>
+        <v>21.63636363636364</v>
       </c>
       <c r="H207" t="n">
-        <v>16.57142857142857</v>
+        <v>21.63636363636364</v>
       </c>
       <c r="I207" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J207" t="n">
-        <v>20.14285714285714</v>
+        <v>21.72727272727273</v>
       </c>
       <c r="K207" t="n">
-        <v>19.57142857142857</v>
+        <v>20.54545454545455</v>
       </c>
       <c r="L207" t="n">
-        <v>20.57142857142857</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="M207" t="n">
-        <v>18.14285714285714</v>
+        <v>18.72727272727273</v>
       </c>
       <c r="N207" t="n">
-        <v>85.94571428571429</v>
+        <v>86.77181818181818</v>
       </c>
       <c r="O207" t="n">
-        <v>76.93142857142857</v>
+        <v>79.98</v>
       </c>
       <c r="P207" t="inlineStr">
         <is>
@@ -12054,52 +12054,52 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minas Tenis Clube MG </t>
+          <t xml:space="preserve">UCC Piacenza </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sao Paulo FC</t>
+          <t xml:space="preserve"> Pallacanestro Trapani</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>1.23</v>
+        <v>3</v>
       </c>
       <c r="D208" t="n">
-        <v>4.1</v>
+        <v>1.32</v>
       </c>
       <c r="E208" t="n">
-        <v>2.87</v>
+        <v>1.68</v>
       </c>
       <c r="F208" t="n">
-        <v>18</v>
+        <v>20.6</v>
       </c>
       <c r="G208" t="n">
-        <v>13.33333333333333</v>
+        <v>18.6</v>
       </c>
       <c r="H208" t="n">
-        <v>17.66666666666667</v>
+        <v>21.6</v>
       </c>
       <c r="I208" t="n">
-        <v>14</v>
+        <v>21.6</v>
       </c>
       <c r="J208" t="n">
-        <v>11</v>
+        <v>21.4</v>
       </c>
       <c r="K208" t="n">
-        <v>11.66666666666667</v>
+        <v>20.8</v>
       </c>
       <c r="L208" t="n">
-        <v>10</v>
+        <v>19.4</v>
       </c>
       <c r="M208" t="n">
-        <v>11.66666666666667</v>
+        <v>17.2</v>
       </c>
       <c r="N208" t="n">
-        <v>84.41000000000001</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="O208" t="n">
-        <v>68.09666666666668</v>
+        <v>74.928</v>
       </c>
       <c r="P208" t="inlineStr">
         <is>
@@ -12110,52 +12110,52 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maccabi Ironi Ramat Gan </t>
+          <t xml:space="preserve">UBSC Graz </t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hapoel Holon BC</t>
+          <t xml:space="preserve"> BK Dukes Klosterneuburg</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1.71</v>
+        <v>1.97</v>
       </c>
       <c r="D209" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="E209" t="n">
-        <v>0.3900000000000001</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="F209" t="n">
-        <v>18.55555555555556</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="G209" t="n">
-        <v>15.22222222222222</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="H209" t="n">
-        <v>21.44444444444444</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I209" t="n">
-        <v>22.44444444444444</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="J209" t="n">
-        <v>17.77777777777778</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="K209" t="n">
-        <v>25.33333333333333</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="L209" t="n">
-        <v>20.33333333333333</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="M209" t="n">
-        <v>20</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="N209" t="n">
-        <v>78.56999999999999</v>
+        <v>82.15777777777777</v>
       </c>
       <c r="O209" t="n">
-        <v>85.11777777777779</v>
+        <v>79.06555555555556</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
@@ -12166,52 +12166,52 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Falco KC Szombathely </t>
+          <t xml:space="preserve">Sheffield Sharks </t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Szolnoki Olaj Kk</t>
+          <t xml:space="preserve"> Cheshire Phoenix</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1.07</v>
+        <v>1.77</v>
       </c>
       <c r="D210" t="n">
-        <v>6.7</v>
+        <v>1.94</v>
       </c>
       <c r="E210" t="n">
-        <v>5.63</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="F210" t="n">
-        <v>20.5</v>
+        <v>24.625</v>
       </c>
       <c r="G210" t="n">
+        <v>21.875</v>
+      </c>
+      <c r="H210" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="I210" t="n">
+        <v>22.125</v>
+      </c>
+      <c r="J210" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="K210" t="n">
         <v>22</v>
       </c>
-      <c r="H210" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="I210" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J210" t="n">
-        <v>18</v>
-      </c>
-      <c r="K210" t="n">
-        <v>18.5</v>
-      </c>
       <c r="L210" t="n">
-        <v>20.25</v>
+        <v>18.25</v>
       </c>
       <c r="M210" t="n">
-        <v>20.25</v>
+        <v>24.375</v>
       </c>
       <c r="N210" t="n">
-        <v>84.8775</v>
+        <v>91.92375000000001</v>
       </c>
       <c r="O210" t="n">
-        <v>78.3425</v>
+        <v>87.96250000000001</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
@@ -12222,52 +12222,52 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reyer Venezia </t>
+          <t xml:space="preserve">Olimpia Milano </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pallacanestro Reggiana</t>
+          <t xml:space="preserve"> Aquila Basket Trento</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="D211" t="n">
-        <v>3.37</v>
+        <v>7.38</v>
       </c>
       <c r="E211" t="n">
-        <v>1.99</v>
+        <v>6.25</v>
       </c>
       <c r="F211" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="G211" t="n">
-        <v>24.5</v>
+        <v>20.9</v>
       </c>
       <c r="H211" t="n">
-        <v>16</v>
+        <v>20.5</v>
       </c>
       <c r="I211" t="n">
-        <v>28.5</v>
+        <v>20.8</v>
       </c>
       <c r="J211" t="n">
-        <v>19.5</v>
+        <v>21.3</v>
       </c>
       <c r="K211" t="n">
-        <v>19.5</v>
+        <v>22.2</v>
       </c>
       <c r="L211" t="n">
-        <v>21</v>
+        <v>18.1</v>
       </c>
       <c r="M211" t="n">
-        <v>24</v>
+        <v>20.4</v>
       </c>
       <c r="N211" t="n">
-        <v>83.12</v>
+        <v>83.30199999999999</v>
       </c>
       <c r="O211" t="n">
-        <v>86.14500000000001</v>
+        <v>83.84100000000001</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
@@ -12278,52 +12278,52 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Juvi Cremona 1952 </t>
+          <t xml:space="preserve">Benedetto Xiv Cento </t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> APU Udine</t>
+          <t xml:space="preserve"> San Giobbe Chiusi</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>2.8</v>
+        <v>1.52</v>
       </c>
       <c r="D212" t="n">
-        <v>1.37</v>
+        <v>2.4</v>
       </c>
       <c r="E212" t="n">
-        <v>1.43</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="F212" t="n">
-        <v>17.2</v>
+        <v>18</v>
       </c>
       <c r="G212" t="n">
-        <v>16.8</v>
+        <v>17.42857142857143</v>
       </c>
       <c r="H212" t="n">
-        <v>20.2</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="I212" t="n">
-        <v>22.2</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="J212" t="n">
-        <v>18.2</v>
+        <v>16</v>
       </c>
       <c r="K212" t="n">
-        <v>15.2</v>
+        <v>19.14285714285714</v>
       </c>
       <c r="L212" t="n">
-        <v>21.8</v>
+        <v>19.14285714285714</v>
       </c>
       <c r="M212" t="n">
-        <v>12</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="N212" t="n">
-        <v>79.554</v>
+        <v>75.27</v>
       </c>
       <c r="O212" t="n">
-        <v>68.506</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="P212" t="inlineStr">
         <is>
@@ -12334,52 +12334,52 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Urania Milano </t>
+          <t xml:space="preserve">Elachem Vigevano 1955 </t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Scaligera Basket Verona</t>
+          <t xml:space="preserve"> Pallacanestro 2.015 Forli</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>1.87</v>
+        <v>2.7</v>
       </c>
       <c r="D213" t="n">
-        <v>1.81</v>
+        <v>1.39</v>
       </c>
       <c r="E213" t="n">
-        <v>0.06000000000000005</v>
+        <v>1.31</v>
       </c>
       <c r="F213" t="n">
-        <v>19.66666666666667</v>
+        <v>24.5</v>
       </c>
       <c r="G213" t="n">
-        <v>21</v>
+        <v>24.5</v>
       </c>
       <c r="H213" t="n">
-        <v>16.33333333333333</v>
+        <v>21.75</v>
       </c>
       <c r="I213" t="n">
-        <v>21</v>
+        <v>19.25</v>
       </c>
       <c r="J213" t="n">
-        <v>20.16666666666667</v>
+        <v>17.25</v>
       </c>
       <c r="K213" t="n">
-        <v>18.16666666666667</v>
+        <v>14.75</v>
       </c>
       <c r="L213" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M213" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N213" t="n">
-        <v>80.36833333333334</v>
+        <v>85.5775</v>
       </c>
       <c r="O213" t="n">
-        <v>80.36666666666667</v>
+        <v>70.8</v>
       </c>
       <c r="P213" t="inlineStr">
         <is>
@@ -12390,54 +12390,3806 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Legia Warszawa </t>
+          <t xml:space="preserve">Frata Nardo </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Wilki Morskie Szczecin</t>
+          <t xml:space="preserve"> ASD Latina Basket</t>
         </is>
       </c>
       <c r="C214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F214" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G214" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="H214" t="n">
+        <v>18</v>
+      </c>
+      <c r="I214" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J214" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="K214" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="L214" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M214" t="n">
+        <v>20</v>
+      </c>
+      <c r="N214" t="n">
+        <v>83.93000000000001</v>
+      </c>
+      <c r="O214" t="n">
+        <v>79.4875</v>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Dinamo Bucuresti </t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSU Sibiu</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F215" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="G215" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H215" t="n">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="I215" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="J215" t="n">
+        <v>22.83333333333333</v>
+      </c>
+      <c r="K215" t="n">
+        <v>21</v>
+      </c>
+      <c r="L215" t="n">
+        <v>19</v>
+      </c>
+      <c r="M215" t="n">
+        <v>19</v>
+      </c>
+      <c r="N215" t="n">
+        <v>85.08166666666666</v>
+      </c>
+      <c r="O215" t="n">
+        <v>81.18833333333333</v>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Spartak Pleven </t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rilski Sportist</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F216" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G216" t="n">
+        <v>21</v>
+      </c>
+      <c r="H216" t="n">
+        <v>20.875</v>
+      </c>
+      <c r="I216" t="n">
+        <v>22.125</v>
+      </c>
+      <c r="J216" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="K216" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L216" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M216" t="n">
+        <v>19.625</v>
+      </c>
+      <c r="N216" t="n">
+        <v>83.8475</v>
+      </c>
+      <c r="O216" t="n">
+        <v>78.18875</v>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MKS Dabrowa Gornicza </t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trefl Sopot</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D217" t="n">
+        <v>2</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F217" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="G217" t="n">
+        <v>26</v>
+      </c>
+      <c r="H217" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="I217" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="J217" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="K217" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="L217" t="n">
+        <v>26</v>
+      </c>
+      <c r="M217" t="n">
+        <v>23</v>
+      </c>
+      <c r="N217" t="n">
+        <v>91.26333333333332</v>
+      </c>
+      <c r="O217" t="n">
+        <v>86.50666666666666</v>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oberwart Gunners </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Traiskirchen Lions</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D218" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F218" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="G218" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="H218" t="n">
+        <v>17.375</v>
+      </c>
+      <c r="I218" t="n">
+        <v>19</v>
+      </c>
+      <c r="J218" t="n">
+        <v>17.875</v>
+      </c>
+      <c r="K218" t="n">
+        <v>19.875</v>
+      </c>
+      <c r="L218" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M218" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N218" t="n">
+        <v>71.79124999999999</v>
+      </c>
+      <c r="O218" t="n">
+        <v>74.6425</v>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basket Golfo Piombino </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Talos Ruvo Di Puglia</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0.3499999999999999</v>
+      </c>
+      <c r="F219" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G219" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="H219" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I219" t="n">
+        <v>19</v>
+      </c>
+      <c r="J219" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="K219" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="L219" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="M219" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="N219" t="n">
+        <v>78.90666666666667</v>
+      </c>
+      <c r="O219" t="n">
+        <v>78.45166666666667</v>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raggisolaris Faenza </t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Libertas Livorno</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D220" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0.5299999999999998</v>
+      </c>
+      <c r="F220" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="G220" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H220" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="I220" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J220" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K220" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="L220" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M220" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N220" t="n">
+        <v>77.074</v>
+      </c>
+      <c r="O220" t="n">
+        <v>71.83799999999999</v>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basquet Girona </t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basket Zaragoza 2002</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D221" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F221" t="n">
+        <v>22.57142857142857</v>
+      </c>
+      <c r="G221" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="H221" t="n">
+        <v>16.85714285714286</v>
+      </c>
+      <c r="I221" t="n">
+        <v>21.28571428571428</v>
+      </c>
+      <c r="J221" t="n">
+        <v>15</v>
+      </c>
+      <c r="K221" t="n">
+        <v>15.71428571428571</v>
+      </c>
+      <c r="L221" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="M221" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="N221" t="n">
+        <v>78.23999999999999</v>
+      </c>
+      <c r="O221" t="n">
+        <v>68.31571428571429</v>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Andorra </t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valencia Basket</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E222" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F222" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="G222" t="n">
+        <v>20.91666666666667</v>
+      </c>
+      <c r="H222" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="I222" t="n">
+        <v>23.08333333333333</v>
+      </c>
+      <c r="J222" t="n">
+        <v>20.41666666666667</v>
+      </c>
+      <c r="K222" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="L222" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="M222" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="N222" t="n">
+        <v>89.86499999999999</v>
+      </c>
+      <c r="O222" t="n">
+        <v>78.15333333333334</v>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bilbao Basket </t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Barcelona</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F223" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="G223" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="H223" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="I223" t="n">
+        <v>23</v>
+      </c>
+      <c r="J223" t="n">
+        <v>20</v>
+      </c>
+      <c r="K223" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="L223" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M223" t="n">
+        <v>22</v>
+      </c>
+      <c r="N223" t="n">
+        <v>81.69800000000001</v>
+      </c>
+      <c r="O223" t="n">
+        <v>82.82599999999999</v>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB 1939 Canarias </t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basquet Manresa</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D224" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F224" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="G224" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="H224" t="n">
+        <v>19</v>
+      </c>
+      <c r="I224" t="n">
+        <v>27.83333333333333</v>
+      </c>
+      <c r="J224" t="n">
+        <v>15.83333333333333</v>
+      </c>
+      <c r="K224" t="n">
+        <v>16.16666666666667</v>
+      </c>
+      <c r="L224" t="n">
+        <v>21</v>
+      </c>
+      <c r="M224" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="N224" t="n">
+        <v>86.87666666666668</v>
+      </c>
+      <c r="O224" t="n">
+        <v>84.105</v>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB Malaga </t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Maristas Palencia</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D225" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="E225" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F225" t="n">
+        <v>18</v>
+      </c>
+      <c r="G225" t="n">
+        <v>18</v>
+      </c>
+      <c r="H225" t="n">
+        <v>22.8</v>
+      </c>
+      <c r="I225" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="J225" t="n">
+        <v>19</v>
+      </c>
+      <c r="K225" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="L225" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="M225" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="N225" t="n">
+        <v>81.916</v>
+      </c>
+      <c r="O225" t="n">
+        <v>85.81399999999999</v>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB Murcia </t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Breogan</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D226" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E226" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F226" t="n">
+        <v>16.71428571428572</v>
+      </c>
+      <c r="G226" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="H226" t="n">
+        <v>17.71428571428572</v>
+      </c>
+      <c r="I226" t="n">
+        <v>13.14285714285714</v>
+      </c>
+      <c r="J226" t="n">
+        <v>14</v>
+      </c>
+      <c r="K226" t="n">
+        <v>13.42857142857143</v>
+      </c>
+      <c r="L226" t="n">
+        <v>13.85714285714286</v>
+      </c>
+      <c r="M226" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="N226" t="n">
+        <v>65.84</v>
+      </c>
+      <c r="O226" t="n">
+        <v>59.57142857142858</v>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GRANADA </t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Gran Canaria</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D227" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="F227" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="G227" t="n">
+        <v>19.42857142857143</v>
+      </c>
+      <c r="H227" t="n">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="I227" t="n">
+        <v>22.57142857142857</v>
+      </c>
+      <c r="J227" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="K227" t="n">
+        <v>18.71428571428572</v>
+      </c>
+      <c r="L227" t="n">
+        <v>21.14285714285714</v>
+      </c>
+      <c r="M227" t="n">
+        <v>18.57142857142857</v>
+      </c>
+      <c r="N227" t="n">
+        <v>85.28</v>
+      </c>
+      <c r="O227" t="n">
+        <v>78.73428571428572</v>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obradoiro CAB </t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Joventut Badalona</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D228" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E228" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F228" t="n">
+        <v>24</v>
+      </c>
+      <c r="G228" t="n">
+        <v>19.36363636363636</v>
+      </c>
+      <c r="H228" t="n">
+        <v>21.81818181818182</v>
+      </c>
+      <c r="I228" t="n">
+        <v>21.09090909090909</v>
+      </c>
+      <c r="J228" t="n">
+        <v>18.72727272727273</v>
+      </c>
+      <c r="K228" t="n">
+        <v>19</v>
+      </c>
+      <c r="L228" t="n">
+        <v>22.72727272727273</v>
+      </c>
+      <c r="M228" t="n">
+        <v>23.63636363636364</v>
+      </c>
+      <c r="N228" t="n">
+        <v>88.64545454545454</v>
+      </c>
+      <c r="O228" t="n">
+        <v>85.16090909090909</v>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vasco Da Gama </t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bauru Basket SP</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F229" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G229" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="H229" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="I229" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="J229" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K229" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="L229" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="M229" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="N229" t="n">
+        <v>77.47500000000001</v>
+      </c>
+      <c r="O229" t="n">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kk Split </t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KK Cibona</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D230" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E230" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F230" t="n">
+        <v>20</v>
+      </c>
+      <c r="G230" t="n">
+        <v>23.14285714285714</v>
+      </c>
+      <c r="H230" t="n">
+        <v>21.57142857142857</v>
+      </c>
+      <c r="I230" t="n">
+        <v>21</v>
+      </c>
+      <c r="J230" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="K230" t="n">
+        <v>22.28571428571428</v>
+      </c>
+      <c r="L230" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="M230" t="n">
+        <v>15.71428571428571</v>
+      </c>
+      <c r="N230" t="n">
+        <v>86.36857142857143</v>
+      </c>
+      <c r="O230" t="n">
+        <v>76.41428571428571</v>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Slask Wroclaw </t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stal Ostrow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="F231" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="G231" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="H231" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="I231" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="J231" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="K231" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="L231" t="n">
+        <v>19</v>
+      </c>
+      <c r="M231" t="n">
+        <v>22</v>
+      </c>
+      <c r="N231" t="n">
+        <v>88.83</v>
+      </c>
+      <c r="O231" t="n">
+        <v>85.21666666666667</v>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indiana Pacers </t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York Knicks</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D232" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E232" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F232" t="n">
+        <v>29</v>
+      </c>
+      <c r="G232" t="n">
+        <v>29</v>
+      </c>
+      <c r="H232" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="I232" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="J232" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="K232" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="L232" t="n">
+        <v>31</v>
+      </c>
+      <c r="M232" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N232" t="n">
+        <v>114.82</v>
+      </c>
+      <c r="O232" t="n">
+        <v>107.4075</v>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obera Tenis Club </t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
         <v>1.51</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D233" t="n">
         <v>2.5</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E233" t="n">
         <v>0.99</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F233" t="n">
+        <v>21</v>
+      </c>
+      <c r="G233" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="H233" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="I233" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="J233" t="n">
+        <v>19</v>
+      </c>
+      <c r="K233" t="n">
+        <v>21</v>
+      </c>
+      <c r="L233" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M233" t="n">
+        <v>16</v>
+      </c>
+      <c r="N233" t="n">
+        <v>80.31</v>
+      </c>
+      <c r="O233" t="n">
+        <v>69.495</v>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CD Las Animas </t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Atletico Puerto Varas</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D234" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F234" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="G234" t="n">
+        <v>15.85714285714286</v>
+      </c>
+      <c r="H234" t="n">
+        <v>22.57142857142857</v>
+      </c>
+      <c r="I234" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="J234" t="n">
+        <v>20.42857142857143</v>
+      </c>
+      <c r="K234" t="n">
+        <v>22</v>
+      </c>
+      <c r="L234" t="n">
+        <v>20.42857142857143</v>
+      </c>
+      <c r="M234" t="n">
+        <v>14.42857142857143</v>
+      </c>
+      <c r="N234" t="n">
+        <v>81.53571428571431</v>
+      </c>
+      <c r="O234" t="n">
+        <v>83.42857142857143</v>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Minnesota Timberwolves </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Denver Nuggets</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="D235" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0.5599999999999998</v>
+      </c>
+      <c r="F235" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G235" t="n">
+        <v>29</v>
+      </c>
+      <c r="H235" t="n">
+        <v>26.75</v>
+      </c>
+      <c r="I235" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="J235" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="K235" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="L235" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="M235" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="N235" t="n">
+        <v>108.7775</v>
+      </c>
+      <c r="O235" t="n">
+        <v>107.2775</v>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atenas Cordoba </t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Deportivo Rivadavia Mendoza</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D236" t="n">
+        <v>4</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F236" t="n">
+        <v>21</v>
+      </c>
+      <c r="G236" t="n">
+        <v>11</v>
+      </c>
+      <c r="H236" t="n">
+        <v>23</v>
+      </c>
+      <c r="I236" t="n">
+        <v>23</v>
+      </c>
+      <c r="J236" t="n">
+        <v>23</v>
+      </c>
+      <c r="K236" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L236" t="n">
+        <v>20</v>
+      </c>
+      <c r="M236" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="N236" t="n">
+        <v>80.955</v>
+      </c>
+      <c r="O236" t="n">
+        <v>87.965</v>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penarol Mar Del Plata </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ferro Carril Oeste</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="D237" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E237" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F237" t="n">
+        <v>29</v>
+      </c>
+      <c r="G237" t="n">
+        <v>21</v>
+      </c>
+      <c r="H237" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I237" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="J237" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K237" t="n">
+        <v>20</v>
+      </c>
+      <c r="L237" t="n">
+        <v>17</v>
+      </c>
+      <c r="M237" t="n">
+        <v>16</v>
+      </c>
+      <c r="N237" t="n">
+        <v>94.55500000000001</v>
+      </c>
+      <c r="O237" t="n">
+        <v>73.345</v>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Motilones Del Norte </t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Piratas de Bogota</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D238" t="n">
+        <v>4</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="F238" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="G238" t="n">
+        <v>23.4</v>
+      </c>
+      <c r="H238" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="I238" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="J238" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="K238" t="n">
         <v>24</v>
       </c>
-      <c r="G214" t="n">
+      <c r="L238" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="M238" t="n">
+        <v>14</v>
+      </c>
+      <c r="N238" t="n">
+        <v>76.574</v>
+      </c>
+      <c r="O238" t="n">
+        <v>70.88</v>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Taiwan Beer </t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Yulon Dinos</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D239" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="F239" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="G239" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="H239" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I239" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="J239" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="K239" t="n">
+        <v>17</v>
+      </c>
+      <c r="L239" t="n">
+        <v>21</v>
+      </c>
+      <c r="M239" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N239" t="n">
+        <v>72.9375</v>
+      </c>
+      <c r="O239" t="n">
+        <v>77.0825</v>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bali United BC </t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pacific Caesar Surabaya</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D240" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="E240" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="F240" t="n">
+        <v>25.14285714285714</v>
+      </c>
+      <c r="G240" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="H240" t="n">
+        <v>26.14285714285714</v>
+      </c>
+      <c r="I240" t="n">
+        <v>21</v>
+      </c>
+      <c r="J240" t="n">
+        <v>21.28571428571428</v>
+      </c>
+      <c r="K240" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="L240" t="n">
+        <v>18.71428571428572</v>
+      </c>
+      <c r="M240" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="N240" t="n">
+        <v>90.28571428571429</v>
+      </c>
+      <c r="O240" t="n">
+        <v>76.94428571428571</v>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Helsinki Seagulls </t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Nokia</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="D241" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="F241" t="n">
+        <v>16</v>
+      </c>
+      <c r="G241" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="H241" t="n">
+        <v>16.42857142857143</v>
+      </c>
+      <c r="I241" t="n">
+        <v>23.71428571428572</v>
+      </c>
+      <c r="J241" t="n">
+        <v>19.71428571428572</v>
+      </c>
+      <c r="K241" t="n">
+        <v>17</v>
+      </c>
+      <c r="L241" t="n">
+        <v>22.28571428571428</v>
+      </c>
+      <c r="M241" t="n">
+        <v>18</v>
+      </c>
+      <c r="N241" t="n">
+        <v>77.42428571428572</v>
+      </c>
+      <c r="O241" t="n">
+        <v>76.92857142857143</v>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">London Lions </t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Newcastle Eagles</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="D242" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E242" t="n">
+        <v>6.34</v>
+      </c>
+      <c r="F242" t="n">
+        <v>23.375</v>
+      </c>
+      <c r="G242" t="n">
+        <v>22</v>
+      </c>
+      <c r="H242" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="I242" t="n">
+        <v>22.625</v>
+      </c>
+      <c r="J242" t="n">
+        <v>21.625</v>
+      </c>
+      <c r="K242" t="n">
+        <v>24</v>
+      </c>
+      <c r="L242" t="n">
+        <v>17.625</v>
+      </c>
+      <c r="M242" t="n">
+        <v>27.125</v>
+      </c>
+      <c r="N242" t="n">
+        <v>90.09625</v>
+      </c>
+      <c r="O242" t="n">
+        <v>88.55624999999999</v>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CSKA Moscow </t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Zenit Saint Petersburg</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D243" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="E243" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F243" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G243" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="H243" t="n">
+        <v>23</v>
+      </c>
+      <c r="I243" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="J243" t="n">
+        <v>15.75</v>
+      </c>
+      <c r="K243" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="L243" t="n">
+        <v>17</v>
+      </c>
+      <c r="M243" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N243" t="n">
+        <v>83.60499999999999</v>
+      </c>
+      <c r="O243" t="n">
+        <v>82.0025</v>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Donar Groningen </t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basketball Academie Limburg</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F244" t="n">
+        <v>23</v>
+      </c>
+      <c r="G244" t="n">
+        <v>23.125</v>
+      </c>
+      <c r="H244" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I244" t="n">
+        <v>22</v>
+      </c>
+      <c r="J244" t="n">
+        <v>23</v>
+      </c>
+      <c r="K244" t="n">
+        <v>15.125</v>
+      </c>
+      <c r="L244" t="n">
+        <v>20</v>
+      </c>
+      <c r="M244" t="n">
+        <v>19</v>
+      </c>
+      <c r="N244" t="n">
+        <v>83.62125</v>
+      </c>
+      <c r="O244" t="n">
+        <v>75.04124999999999</v>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dewa United Surabaya </t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rans Pik Basketball Club</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D245" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E245" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="F245" t="n">
+        <v>25</v>
+      </c>
+      <c r="G245" t="n">
+        <v>21.85714285714286</v>
+      </c>
+      <c r="H245" t="n">
+        <v>26.28571428571428</v>
+      </c>
+      <c r="I245" t="n">
+        <v>15.57142857142857</v>
+      </c>
+      <c r="J245" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="K245" t="n">
+        <v>21.28571428571428</v>
+      </c>
+      <c r="L245" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="M245" t="n">
+        <v>20.85714285714286</v>
+      </c>
+      <c r="N245" t="n">
+        <v>86.27428571428571</v>
+      </c>
+      <c r="O245" t="n">
+        <v>81.96142857142857</v>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basketball Lowen Braunschweig </t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ratiopharm Ulm</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="E246" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F246" t="n">
+        <v>20</v>
+      </c>
+      <c r="G246" t="n">
+        <v>23.11111111111111</v>
+      </c>
+      <c r="H246" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="I246" t="n">
+        <v>20</v>
+      </c>
+      <c r="J246" t="n">
+        <v>20.22222222222222</v>
+      </c>
+      <c r="K246" t="n">
+        <v>19.77777777777778</v>
+      </c>
+      <c r="L246" t="n">
+        <v>17.22222222222222</v>
+      </c>
+      <c r="M246" t="n">
+        <v>18.55555555555556</v>
+      </c>
+      <c r="N246" t="n">
+        <v>84.25333333333333</v>
+      </c>
+      <c r="O246" t="n">
+        <v>77.08444444444444</v>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baskets Bonn </t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Riesen Ludwigsburg</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="D247" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="E247" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F247" t="n">
+        <v>19.68</v>
+      </c>
+      <c r="G247" t="n">
+        <v>23.36</v>
+      </c>
+      <c r="H247" t="n">
+        <v>20.04</v>
+      </c>
+      <c r="I247" t="n">
+        <v>19.56</v>
+      </c>
+      <c r="J247" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="K247" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="L247" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="M247" t="n">
+        <v>20.08</v>
+      </c>
+      <c r="N247" t="n">
+        <v>81.63079999999999</v>
+      </c>
+      <c r="O247" t="n">
+        <v>78.8244</v>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baskets Oldenburg </t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Brose Bamberg</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="D248" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E248" t="n">
+        <v>0.5899999999999999</v>
+      </c>
+      <c r="F248" t="n">
+        <v>23.46666666666667</v>
+      </c>
+      <c r="G248" t="n">
+        <v>20.73333333333333</v>
+      </c>
+      <c r="H248" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="I248" t="n">
+        <v>21.46666666666667</v>
+      </c>
+      <c r="J248" t="n">
+        <v>20.46666666666667</v>
+      </c>
+      <c r="K248" t="n">
+        <v>19.93333333333333</v>
+      </c>
+      <c r="L248" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="M248" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="N248" t="n">
+        <v>90.07000000000001</v>
+      </c>
+      <c r="O248" t="n">
+        <v>83.84933333333332</v>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bayern Munich </t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rostock Seawolves</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D249" t="n">
+        <v>8.23</v>
+      </c>
+      <c r="E249" t="n">
+        <v>7.130000000000001</v>
+      </c>
+      <c r="F249" t="n">
+        <v>22</v>
+      </c>
+      <c r="G249" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H249" t="n">
+        <v>22</v>
+      </c>
+      <c r="I249" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J249" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="K249" t="n">
         <v>20.6</v>
       </c>
-      <c r="H214" t="n">
+      <c r="L249" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="M249" t="n">
+        <v>18.9</v>
+      </c>
+      <c r="N249" t="n">
+        <v>83.83699999999999</v>
+      </c>
+      <c r="O249" t="n">
+        <v>80.111</v>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crailsheim Merlins </t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alba Berlin</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="F250" t="n">
+        <v>20.76923076923077</v>
+      </c>
+      <c r="G250" t="n">
+        <v>22.76923076923077</v>
+      </c>
+      <c r="H250" t="n">
+        <v>22.15384615384615</v>
+      </c>
+      <c r="I250" t="n">
+        <v>22.53846153846154</v>
+      </c>
+      <c r="J250" t="n">
+        <v>20.15384615384615</v>
+      </c>
+      <c r="K250" t="n">
+        <v>20.92307692307692</v>
+      </c>
+      <c r="L250" t="n">
+        <v>22.30769230769231</v>
+      </c>
+      <c r="M250" t="n">
+        <v>22.61538461538462</v>
+      </c>
+      <c r="N250" t="n">
+        <v>88.51307692307692</v>
+      </c>
+      <c r="O250" t="n">
+        <v>86.08769230769229</v>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rasta Vechta </t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Mitteldeutscher BC</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D251" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="E251" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="F251" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="G251" t="n">
+        <v>24.22222222222222</v>
+      </c>
+      <c r="H251" t="n">
+        <v>21.11111111111111</v>
+      </c>
+      <c r="I251" t="n">
+        <v>24.11111111111111</v>
+      </c>
+      <c r="J251" t="n">
+        <v>23.77777777777778</v>
+      </c>
+      <c r="K251" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="L251" t="n">
+        <v>20</v>
+      </c>
+      <c r="M251" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="N251" t="n">
+        <v>91.71555555555557</v>
+      </c>
+      <c r="O251" t="n">
+        <v>84.97999999999999</v>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phoenix Hagen </t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> VFL Kirchheim Knights</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D252" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="E252" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="F252" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="G252" t="n">
+        <v>21.88888888888889</v>
+      </c>
+      <c r="H252" t="n">
+        <v>19</v>
+      </c>
+      <c r="I252" t="n">
+        <v>19</v>
+      </c>
+      <c r="J252" t="n">
+        <v>16.88888888888889</v>
+      </c>
+      <c r="K252" t="n">
+        <v>20.55555555555556</v>
+      </c>
+      <c r="L252" t="n">
+        <v>19.22222222222222</v>
+      </c>
+      <c r="M252" t="n">
+        <v>21.88888888888889</v>
+      </c>
+      <c r="N252" t="n">
+        <v>79.10555555555555</v>
+      </c>
+      <c r="O252" t="n">
+        <v>78.47</v>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Juventus Utena </t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>2</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E253" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F253" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="G253" t="n">
+        <v>22</v>
+      </c>
+      <c r="H253" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="I253" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="J253" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="K253" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="L253" t="n">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="M253" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="N253" t="n">
+        <v>90.15833333333335</v>
+      </c>
+      <c r="O253" t="n">
+        <v>83.02999999999999</v>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Universitatea Cluj-Napoca </t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSM CSU Oradea</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D254" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="F254" t="n">
+        <v>21.28571428571428</v>
+      </c>
+      <c r="G254" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H254" t="n">
+        <v>20.07142857142857</v>
+      </c>
+      <c r="I254" t="n">
+        <v>20.92857142857143</v>
+      </c>
+      <c r="J254" t="n">
+        <v>19.78571428571428</v>
+      </c>
+      <c r="K254" t="n">
+        <v>21.35714285714286</v>
+      </c>
+      <c r="L254" t="n">
+        <v>18.71428571428572</v>
+      </c>
+      <c r="M254" t="n">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="N254" t="n">
+        <v>79.35000000000001</v>
+      </c>
+      <c r="O254" t="n">
+        <v>80.39142857142858</v>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UCC Piacenza </t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pallacanestro Trapani</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>3</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="E255" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="F255" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="G255" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="H255" t="n">
         <v>23</v>
       </c>
-      <c r="I214" t="n">
+      <c r="I255" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J255" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="K255" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="L255" t="n">
+        <v>16</v>
+      </c>
+      <c r="M255" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="N255" t="n">
+        <v>82.95666666666666</v>
+      </c>
+      <c r="O255" t="n">
+        <v>76.81166666666665</v>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UBSC Graz </t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BK Dukes Klosterneuburg</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="E256" t="n">
+        <v>0.1599999999999999</v>
+      </c>
+      <c r="F256" t="n">
+        <v>18.44444444444444</v>
+      </c>
+      <c r="G256" t="n">
+        <v>20.77777777777778</v>
+      </c>
+      <c r="H256" t="n">
+        <v>22</v>
+      </c>
+      <c r="I256" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="J256" t="n">
+        <v>17.77777777777778</v>
+      </c>
+      <c r="K256" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="L256" t="n">
+        <v>19.11111111111111</v>
+      </c>
+      <c r="M256" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="N256" t="n">
+        <v>85.17444444444443</v>
+      </c>
+      <c r="O256" t="n">
+        <v>81.18222222222224</v>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sheffield Sharks </t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cheshire Phoenix</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="E257" t="n">
+        <v>0.1699999999999999</v>
+      </c>
+      <c r="F257" t="n">
+        <v>24.625</v>
+      </c>
+      <c r="G257" t="n">
+        <v>21.875</v>
+      </c>
+      <c r="H257" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="I257" t="n">
+        <v>22.125</v>
+      </c>
+      <c r="J257" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="K257" t="n">
+        <v>22</v>
+      </c>
+      <c r="L257" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="M257" t="n">
+        <v>24.375</v>
+      </c>
+      <c r="N257" t="n">
+        <v>91.92375000000001</v>
+      </c>
+      <c r="O257" t="n">
+        <v>87.96250000000001</v>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olimpia Milano </t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Aquila Basket Trento</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="E258" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="F258" t="n">
+        <v>22.63636363636364</v>
+      </c>
+      <c r="G258" t="n">
+        <v>21.72727272727273</v>
+      </c>
+      <c r="H258" t="n">
+        <v>20.09090909090909</v>
+      </c>
+      <c r="I258" t="n">
+        <v>19.45454545454545</v>
+      </c>
+      <c r="J258" t="n">
+        <v>21</v>
+      </c>
+      <c r="K258" t="n">
+        <v>22.54545454545455</v>
+      </c>
+      <c r="L258" t="n">
+        <v>18.81818181818182</v>
+      </c>
+      <c r="M258" t="n">
+        <v>20.63636363636364</v>
+      </c>
+      <c r="N258" t="n">
+        <v>82.62363636363636</v>
+      </c>
+      <c r="O258" t="n">
+        <v>84.73454545454545</v>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benedetto Xiv Cento </t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> San Giobbe Chiusi</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="D259" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E259" t="n">
+        <v>0.8799999999999999</v>
+      </c>
+      <c r="F259" t="n">
+        <v>18.875</v>
+      </c>
+      <c r="G259" t="n">
+        <v>17</v>
+      </c>
+      <c r="H259" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I259" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="J259" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="K259" t="n">
+        <v>22.25</v>
+      </c>
+      <c r="L259" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="M259" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N259" t="n">
+        <v>74.3875</v>
+      </c>
+      <c r="O259" t="n">
+        <v>77.94</v>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elachem Vigevano 1955 </t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pallacanestro 2.015 Forli</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="E260" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F260" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G260" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="H260" t="n">
+        <v>21.75</v>
+      </c>
+      <c r="I260" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J260" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="K260" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="L260" t="n">
+        <v>16</v>
+      </c>
+      <c r="M260" t="n">
+        <v>19</v>
+      </c>
+      <c r="N260" t="n">
+        <v>85.5775</v>
+      </c>
+      <c r="O260" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frata Nardo </t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ASD Latina Basket</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="D261" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E261" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="F261" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G261" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="H261" t="n">
+        <v>18</v>
+      </c>
+      <c r="I261" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="J261" t="n">
+        <v>23.75</v>
+      </c>
+      <c r="K261" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="L261" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="M261" t="n">
+        <v>20</v>
+      </c>
+      <c r="N261" t="n">
+        <v>83.93000000000001</v>
+      </c>
+      <c r="O261" t="n">
+        <v>79.4875</v>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Luiss Roma </t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fortitudo Agrigento</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="D262" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E262" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="F262" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>20</v>
+      </c>
+      <c r="H262" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I262" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="J262" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="K262" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="L262" t="n">
         <v>21.6</v>
       </c>
-      <c r="J214" t="n">
+      <c r="M262" t="n">
+        <v>17.9</v>
+      </c>
+      <c r="N262" t="n">
+        <v>77.20599999999999</v>
+      </c>
+      <c r="O262" t="n">
+        <v>76.212</v>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CS Dinamo Bucuresti </t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CSU Sibiu</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D263" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E263" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F263" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="G263" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="H263" t="n">
+        <v>21.83333333333333</v>
+      </c>
+      <c r="I263" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="J263" t="n">
+        <v>22.83333333333333</v>
+      </c>
+      <c r="K263" t="n">
         <v>21</v>
       </c>
-      <c r="K214" t="n">
+      <c r="L263" t="n">
+        <v>19</v>
+      </c>
+      <c r="M263" t="n">
+        <v>19</v>
+      </c>
+      <c r="N263" t="n">
+        <v>85.08166666666666</v>
+      </c>
+      <c r="O263" t="n">
+        <v>81.18833333333333</v>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Spartak Pleven </t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Rilski Sportist</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="E264" t="n">
+        <v>0.1499999999999999</v>
+      </c>
+      <c r="F264" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="G264" t="n">
+        <v>21</v>
+      </c>
+      <c r="H264" t="n">
+        <v>20.875</v>
+      </c>
+      <c r="I264" t="n">
+        <v>22.125</v>
+      </c>
+      <c r="J264" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="K264" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L264" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="M264" t="n">
+        <v>19.625</v>
+      </c>
+      <c r="N264" t="n">
+        <v>83.8475</v>
+      </c>
+      <c r="O264" t="n">
+        <v>78.18875</v>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MKS Dabrowa Gornicza </t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trefl Sopot</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D265" t="n">
+        <v>2</v>
+      </c>
+      <c r="E265" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F265" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="G265" t="n">
+        <v>26</v>
+      </c>
+      <c r="H265" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="I265" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="J265" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="K265" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="L265" t="n">
+        <v>26</v>
+      </c>
+      <c r="M265" t="n">
+        <v>23</v>
+      </c>
+      <c r="N265" t="n">
+        <v>91.26333333333332</v>
+      </c>
+      <c r="O265" t="n">
+        <v>86.50666666666666</v>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oberwart Gunners </t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Traiskirchen Lions</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D266" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F266" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="G266" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="H266" t="n">
+        <v>17.375</v>
+      </c>
+      <c r="I266" t="n">
+        <v>19</v>
+      </c>
+      <c r="J266" t="n">
+        <v>17.875</v>
+      </c>
+      <c r="K266" t="n">
+        <v>19.875</v>
+      </c>
+      <c r="L266" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M266" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N266" t="n">
+        <v>71.79124999999999</v>
+      </c>
+      <c r="O266" t="n">
+        <v>74.6425</v>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NKA Universitas Pecs </t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Budapesti Honved SE</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="D267" t="n">
+        <v>3</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F267" t="n">
+        <v>20.11111111111111</v>
+      </c>
+      <c r="G267" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="H267" t="n">
+        <v>20.88888888888889</v>
+      </c>
+      <c r="I267" t="n">
+        <v>19.88888888888889</v>
+      </c>
+      <c r="J267" t="n">
+        <v>21.11111111111111</v>
+      </c>
+      <c r="K267" t="n">
+        <v>18.55555555555556</v>
+      </c>
+      <c r="L267" t="n">
+        <v>19.88888888888889</v>
+      </c>
+      <c r="M267" t="n">
+        <v>18.77777777777778</v>
+      </c>
+      <c r="N267" t="n">
+        <v>81.68222222222222</v>
+      </c>
+      <c r="O267" t="n">
+        <v>77.86888888888888</v>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basket Golfo Piombino </t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Talos Ruvo Di Puglia</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="E268" t="n">
+        <v>0.3499999999999999</v>
+      </c>
+      <c r="F268" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="G268" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="H268" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I268" t="n">
+        <v>19</v>
+      </c>
+      <c r="J268" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="K268" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="L268" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="M268" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="N268" t="n">
+        <v>78.90666666666667</v>
+      </c>
+      <c r="O268" t="n">
+        <v>78.45166666666667</v>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Raggisolaris Faenza </t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Libertas Livorno</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D269" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="E269" t="n">
+        <v>0.5299999999999998</v>
+      </c>
+      <c r="F269" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="G269" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="H269" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="I269" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="J269" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="K269" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="L269" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="M269" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="N269" t="n">
+        <v>77.074</v>
+      </c>
+      <c r="O269" t="n">
+        <v>71.83799999999999</v>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basquet Girona </t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basket Zaragoza 2002</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D270" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="F270" t="n">
+        <v>18.11111111111111</v>
+      </c>
+      <c r="G270" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="H270" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="I270" t="n">
+        <v>14.22222222222222</v>
+      </c>
+      <c r="J270" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="K270" t="n">
+        <v>15.11111111111111</v>
+      </c>
+      <c r="L270" t="n">
+        <v>14.88888888888889</v>
+      </c>
+      <c r="M270" t="n">
+        <v>15.88888888888889</v>
+      </c>
+      <c r="N270" t="n">
+        <v>66.38666666666667</v>
+      </c>
+      <c r="O270" t="n">
+        <v>61.24222222222223</v>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Andorra </t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Valencia Basket</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F271" t="n">
+        <v>21.86666666666667</v>
+      </c>
+      <c r="G271" t="n">
+        <v>22.86666666666667</v>
+      </c>
+      <c r="H271" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="I271" t="n">
+        <v>22.46666666666667</v>
+      </c>
+      <c r="J271" t="n">
+        <v>20.2</v>
+      </c>
+      <c r="K271" t="n">
+        <v>18.46666666666667</v>
+      </c>
+      <c r="L271" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="M271" t="n">
+        <v>21.26666666666667</v>
+      </c>
+      <c r="N271" t="n">
+        <v>90.02333333333333</v>
+      </c>
+      <c r="O271" t="n">
+        <v>81.97533333333332</v>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bilbao Basket </t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> FC Barcelona</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F272" t="n">
+        <v>18.14285714285714</v>
+      </c>
+      <c r="G272" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="H272" t="n">
+        <v>20.85714285714286</v>
+      </c>
+      <c r="I272" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="J272" t="n">
+        <v>18.42857142857143</v>
+      </c>
+      <c r="K272" t="n">
+        <v>17.71428571428572</v>
+      </c>
+      <c r="L272" t="n">
+        <v>19.71428571428572</v>
+      </c>
+      <c r="M272" t="n">
+        <v>21.57142857142857</v>
+      </c>
+      <c r="N272" t="n">
+        <v>80.24285714285715</v>
+      </c>
+      <c r="O272" t="n">
+        <v>77</v>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB 1939 Canarias </t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basquet Manresa</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D273" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="E273" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F273" t="n">
+        <v>23.85714285714286</v>
+      </c>
+      <c r="G273" t="n">
+        <v>19</v>
+      </c>
+      <c r="H273" t="n">
+        <v>16.57142857142857</v>
+      </c>
+      <c r="I273" t="n">
+        <v>26</v>
+      </c>
+      <c r="J273" t="n">
+        <v>17</v>
+      </c>
+      <c r="K273" t="n">
+        <v>17.28571428571428</v>
+      </c>
+      <c r="L273" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="M273" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="N273" t="n">
+        <v>84.73285714285714</v>
+      </c>
+      <c r="O273" t="n">
+        <v>82.53571428571429</v>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB Malaga </t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CD Maristas Palencia</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="D274" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="E274" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="F274" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="G274" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="H274" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="I274" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="J274" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="K274" t="n">
         <v>24.8</v>
       </c>
-      <c r="L214" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="M214" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="N214" t="n">
-        <v>83.15600000000001</v>
-      </c>
-      <c r="O214" t="n">
-        <v>91.066</v>
-      </c>
-      <c r="P214" t="inlineStr">
+      <c r="L274" t="n">
+        <v>23</v>
+      </c>
+      <c r="M274" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="N274" t="n">
+        <v>85.22799999999999</v>
+      </c>
+      <c r="O274" t="n">
+        <v>89.71799999999999</v>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t xml:space="preserve">CB Murcia </t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Breogan</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D275" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="E275" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="F275" t="n">
+        <v>23</v>
+      </c>
+      <c r="G275" t="n">
+        <v>18.625</v>
+      </c>
+      <c r="H275" t="n">
+        <v>22</v>
+      </c>
+      <c r="I275" t="n">
+        <v>22.375</v>
+      </c>
+      <c r="J275" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K275" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="L275" t="n">
+        <v>23.375</v>
+      </c>
+      <c r="M275" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="N275" t="n">
+        <v>84.73625000000001</v>
+      </c>
+      <c r="O275" t="n">
+        <v>78.7975</v>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t xml:space="preserve">GRANADA </t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Gran Canaria</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="D276" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E276" t="n">
+        <v>0.3300000000000001</v>
+      </c>
+      <c r="F276" t="n">
+        <v>20.14285714285714</v>
+      </c>
+      <c r="G276" t="n">
+        <v>19.28571428571428</v>
+      </c>
+      <c r="H276" t="n">
+        <v>17.57142857142857</v>
+      </c>
+      <c r="I276" t="n">
+        <v>23.85714285714286</v>
+      </c>
+      <c r="J276" t="n">
+        <v>22.28571428571428</v>
+      </c>
+      <c r="K276" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="L276" t="n">
+        <v>19.85714285714286</v>
+      </c>
+      <c r="M276" t="n">
+        <v>20.28571428571428</v>
+      </c>
+      <c r="N276" t="n">
+        <v>88.09571428571429</v>
+      </c>
+      <c r="O276" t="n">
+        <v>79.05142857142856</v>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Obradoiro CAB </t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Joventut Badalona</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D277" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="F277" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="G277" t="n">
+        <v>20.25</v>
+      </c>
+      <c r="H277" t="n">
+        <v>19.91666666666667</v>
+      </c>
+      <c r="I277" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J277" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="K277" t="n">
+        <v>18.41666666666667</v>
+      </c>
+      <c r="L277" t="n">
+        <v>23.16666666666667</v>
+      </c>
+      <c r="M277" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="N277" t="n">
+        <v>85.27083333333334</v>
+      </c>
+      <c r="O277" t="n">
+        <v>81.58749999999999</v>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vasco Da Gama </t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bauru Basket SP</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0.04999999999999982</v>
+      </c>
+      <c r="F278" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G278" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="H278" t="n">
+        <v>21.16666666666667</v>
+      </c>
+      <c r="I278" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="J278" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K278" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="L278" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="M278" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="N278" t="n">
+        <v>77.47500000000001</v>
+      </c>
+      <c r="O278" t="n">
+        <v>74.51000000000001</v>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kk Split </t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> KK Cibona</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D279" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E279" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="F279" t="n">
+        <v>20</v>
+      </c>
+      <c r="G279" t="n">
+        <v>23.14285714285714</v>
+      </c>
+      <c r="H279" t="n">
+        <v>21.57142857142857</v>
+      </c>
+      <c r="I279" t="n">
+        <v>21</v>
+      </c>
+      <c r="J279" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="K279" t="n">
+        <v>22.28571428571428</v>
+      </c>
+      <c r="L279" t="n">
+        <v>21.42857142857143</v>
+      </c>
+      <c r="M279" t="n">
+        <v>15.71428571428571</v>
+      </c>
+      <c r="N279" t="n">
+        <v>86.36857142857143</v>
+      </c>
+      <c r="O279" t="n">
+        <v>76.41428571428571</v>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Slask Wroclaw </t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Stal Ostrow Wielkopolski</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="E280" t="n">
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="F280" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="G280" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="H280" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="I280" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="J280" t="n">
+        <v>20.33333333333333</v>
+      </c>
+      <c r="K280" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="L280" t="n">
+        <v>19</v>
+      </c>
+      <c r="M280" t="n">
+        <v>22</v>
+      </c>
+      <c r="N280" t="n">
+        <v>88.83</v>
+      </c>
+      <c r="O280" t="n">
+        <v>85.21666666666667</v>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indiana Pacers </t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> New York Knicks</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="D281" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E281" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F281" t="n">
+        <v>29</v>
+      </c>
+      <c r="G281" t="n">
+        <v>29</v>
+      </c>
+      <c r="H281" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="I281" t="n">
+        <v>29.25</v>
+      </c>
+      <c r="J281" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="K281" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="L281" t="n">
+        <v>31</v>
+      </c>
+      <c r="M281" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="N281" t="n">
+        <v>114.82</v>
+      </c>
+      <c r="O281" t="n">
+        <v>107.4075</v>
+      </c>
+      <c r="P281" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/bak/ml_bb.xlsx
+++ b/bak/ml_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P281"/>
+  <dimension ref="A1:P305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>H</t>
         </is>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6111,7 +6111,7 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -6503,7 +6503,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -7735,7 +7735,7 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -9247,7 +9247,7 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -10822,4588 +10822,4588 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obera Tenis Club </t>
+          <t xml:space="preserve">Bali United BC </t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+          <t xml:space="preserve"> Pacific Caesar Surabaya</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1.51</v>
+        <v>1.08</v>
       </c>
       <c r="D186" t="n">
-        <v>2.5</v>
+        <v>6.3</v>
       </c>
       <c r="E186" t="n">
-        <v>0.99</v>
+        <v>5.22</v>
       </c>
       <c r="F186" t="n">
-        <v>18.83333333333333</v>
+        <v>21.14285714285714</v>
       </c>
       <c r="G186" t="n">
-        <v>20</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="H186" t="n">
-        <v>14.5</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="I186" t="n">
-        <v>19.16666666666667</v>
+        <v>19</v>
       </c>
       <c r="J186" t="n">
-        <v>17.83333333333333</v>
+        <v>21.14285714285714</v>
       </c>
       <c r="K186" t="n">
-        <v>19.16666666666667</v>
+        <v>19.57142857142857</v>
       </c>
       <c r="L186" t="n">
-        <v>14</v>
+        <v>20.57142857142857</v>
       </c>
       <c r="M186" t="n">
-        <v>15.66666666666667</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="N186" t="n">
-        <v>82.86</v>
+        <v>81.81571428571429</v>
       </c>
       <c r="O186" t="n">
-        <v>74.31333333333333</v>
+        <v>77.81285714285715</v>
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Las Animas </t>
+          <t xml:space="preserve">London Lions </t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Atletico Puerto Varas</t>
+          <t xml:space="preserve"> Newcastle Eagles</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="D187" t="n">
-        <v>4.1</v>
+        <v>7.4</v>
       </c>
       <c r="E187" t="n">
-        <v>2.91</v>
+        <v>6.34</v>
       </c>
       <c r="F187" t="n">
-        <v>22</v>
+        <v>24.75</v>
       </c>
       <c r="G187" t="n">
-        <v>19.83333333333333</v>
+        <v>22.875</v>
       </c>
       <c r="H187" t="n">
-        <v>23.33333333333333</v>
+        <v>18.75</v>
       </c>
       <c r="I187" t="n">
-        <v>21.33333333333333</v>
+        <v>18</v>
       </c>
       <c r="J187" t="n">
-        <v>20.5</v>
+        <v>22.125</v>
       </c>
       <c r="K187" t="n">
-        <v>23.83333333333333</v>
+        <v>24</v>
       </c>
       <c r="L187" t="n">
-        <v>23.5</v>
+        <v>20</v>
       </c>
       <c r="M187" t="n">
-        <v>16.33333333333333</v>
+        <v>22.125</v>
       </c>
       <c r="N187" t="n">
-        <v>85.50166666666667</v>
+        <v>85.8</v>
       </c>
       <c r="O187" t="n">
-        <v>83.64666666666666</v>
+        <v>82.75500000000001</v>
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minnesota Timberwolves </t>
+          <t xml:space="preserve">CSKA Moscow </t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Denver Nuggets</t>
+          <t xml:space="preserve"> Zenit Saint Petersburg</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="D188" t="n">
-        <v>2.28</v>
+        <v>2.85</v>
       </c>
       <c r="E188" t="n">
-        <v>0.5599999999999998</v>
+        <v>1.48</v>
       </c>
       <c r="F188" t="n">
-        <v>24.5</v>
+        <v>16.5</v>
       </c>
       <c r="G188" t="n">
-        <v>29</v>
+        <v>18.75</v>
       </c>
       <c r="H188" t="n">
-        <v>26.75</v>
+        <v>23</v>
       </c>
       <c r="I188" t="n">
-        <v>27.25</v>
+        <v>23.25</v>
       </c>
       <c r="J188" t="n">
-        <v>29.75</v>
+        <v>15.75</v>
       </c>
       <c r="K188" t="n">
-        <v>22.5</v>
+        <v>24.75</v>
       </c>
       <c r="L188" t="n">
-        <v>30.75</v>
+        <v>17</v>
       </c>
       <c r="M188" t="n">
-        <v>31.75</v>
+        <v>20.5</v>
       </c>
       <c r="N188" t="n">
-        <v>108.7775</v>
+        <v>83.60499999999999</v>
       </c>
       <c r="O188" t="n">
-        <v>107.2775</v>
+        <v>82.0025</v>
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atenas Cordoba </t>
+          <t xml:space="preserve">Dewa United Surabaya </t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Deportivo Rivadavia Mendoza</t>
+          <t xml:space="preserve"> Rans Pik Basketball Club</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="D189" t="n">
-        <v>4</v>
+        <v>7.7</v>
       </c>
       <c r="E189" t="n">
-        <v>2.81</v>
+        <v>6.65</v>
       </c>
       <c r="F189" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G189" t="n">
-        <v>11</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="H189" t="n">
-        <v>23</v>
+        <v>26.28571428571428</v>
       </c>
       <c r="I189" t="n">
-        <v>23</v>
+        <v>15.57142857142857</v>
       </c>
       <c r="J189" t="n">
-        <v>23</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="K189" t="n">
-        <v>19.5</v>
+        <v>21.28571428571428</v>
       </c>
       <c r="L189" t="n">
-        <v>20</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="M189" t="n">
-        <v>19.5</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="N189" t="n">
-        <v>80.955</v>
+        <v>86.27428571428571</v>
       </c>
       <c r="O189" t="n">
-        <v>87.965</v>
+        <v>81.96142857142857</v>
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Penarol Mar Del Plata </t>
+          <t xml:space="preserve">Basketball Lowen Braunschweig </t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ferro Carril Oeste</t>
+          <t xml:space="preserve"> Ratiopharm Ulm</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>1.4</v>
+        <v>4.35</v>
       </c>
       <c r="D190" t="n">
-        <v>2.9</v>
+        <v>1.25</v>
       </c>
       <c r="E190" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="F190" t="n">
-        <v>29</v>
+        <v>24.42857142857143</v>
       </c>
       <c r="G190" t="n">
-        <v>21</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="H190" t="n">
-        <v>23.5</v>
+        <v>15.85714285714286</v>
       </c>
       <c r="I190" t="n">
-        <v>24.5</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="J190" t="n">
-        <v>18.5</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="K190" t="n">
-        <v>20</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="L190" t="n">
-        <v>17</v>
+        <v>20.14285714285714</v>
       </c>
       <c r="M190" t="n">
-        <v>16</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="N190" t="n">
-        <v>94.55500000000001</v>
+        <v>80.45857142857143</v>
       </c>
       <c r="O190" t="n">
-        <v>73.345</v>
+        <v>81.39428571428572</v>
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motilones Del Norte </t>
+          <t xml:space="preserve">Baskets Bonn </t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Piratas de Bogota</t>
+          <t xml:space="preserve"> Riesen Ludwigsburg</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="D191" t="n">
-        <v>4</v>
+        <v>2.57</v>
       </c>
       <c r="E191" t="n">
-        <v>2.81</v>
+        <v>1.01</v>
       </c>
       <c r="F191" t="n">
-        <v>22.4</v>
+        <v>20.94736842105263</v>
       </c>
       <c r="G191" t="n">
-        <v>23.4</v>
+        <v>22.10526315789474</v>
       </c>
       <c r="H191" t="n">
-        <v>15.8</v>
+        <v>20.26315789473684</v>
       </c>
       <c r="I191" t="n">
-        <v>22.2</v>
+        <v>19.26315789473684</v>
       </c>
       <c r="J191" t="n">
-        <v>19.8</v>
+        <v>19.94736842105263</v>
       </c>
       <c r="K191" t="n">
-        <v>24</v>
+        <v>21.84210526315789</v>
       </c>
       <c r="L191" t="n">
-        <v>27.8</v>
+        <v>22.42105263157895</v>
       </c>
       <c r="M191" t="n">
-        <v>14</v>
+        <v>20.57894736842105</v>
       </c>
       <c r="N191" t="n">
-        <v>76.574</v>
+        <v>80.53473684210526</v>
       </c>
       <c r="O191" t="n">
-        <v>70.88</v>
+        <v>83.19263157894737</v>
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taiwan Beer </t>
+          <t xml:space="preserve">Baskets Oldenburg </t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yulon Dinos</t>
+          <t xml:space="preserve"> Brose Bamberg</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="D192" t="n">
-        <v>2.25</v>
+        <v>2.28</v>
       </c>
       <c r="E192" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.5899999999999999</v>
       </c>
       <c r="F192" t="n">
-        <v>20.75</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="G192" t="n">
-        <v>17.75</v>
+        <v>20.64285714285714</v>
       </c>
       <c r="H192" t="n">
-        <v>18.5</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="I192" t="n">
-        <v>13.75</v>
+        <v>22.92857142857143</v>
       </c>
       <c r="J192" t="n">
-        <v>23.75</v>
+        <v>21.21428571428572</v>
       </c>
       <c r="K192" t="n">
-        <v>17</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="L192" t="n">
-        <v>21</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="M192" t="n">
-        <v>18.5</v>
+        <v>21.35714285714286</v>
       </c>
       <c r="N192" t="n">
-        <v>72.9375</v>
+        <v>88.985</v>
       </c>
       <c r="O192" t="n">
-        <v>77.0825</v>
+        <v>87.65214285714285</v>
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bali United BC </t>
+          <t xml:space="preserve">Bayern Munich </t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pacific Caesar Surabaya</t>
+          <t xml:space="preserve"> Rostock Seawolves</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="D193" t="n">
-        <v>6.3</v>
+        <v>8.23</v>
       </c>
       <c r="E193" t="n">
-        <v>5.22</v>
+        <v>7.130000000000001</v>
       </c>
       <c r="F193" t="n">
-        <v>21.14285714285714</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="G193" t="n">
-        <v>18.14285714285714</v>
+        <v>22</v>
       </c>
       <c r="H193" t="n">
-        <v>22.28571428571428</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="I193" t="n">
-        <v>19</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="J193" t="n">
-        <v>21.14285714285714</v>
+        <v>20</v>
       </c>
       <c r="K193" t="n">
-        <v>19.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L193" t="n">
-        <v>20.57142857142857</v>
+        <v>19.44444444444444</v>
       </c>
       <c r="M193" t="n">
-        <v>17.14285714285714</v>
+        <v>20.77777777777778</v>
       </c>
       <c r="N193" t="n">
-        <v>81.81571428571429</v>
+        <v>80.68666666666667</v>
       </c>
       <c r="O193" t="n">
-        <v>77.81285714285715</v>
+        <v>83.27444444444444</v>
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Helsinki Seagulls </t>
+          <t xml:space="preserve">Crailsheim Merlins </t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BC Nokia</t>
+          <t xml:space="preserve"> Alba Berlin</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>1.6</v>
+        <v>3.93</v>
       </c>
       <c r="D194" t="n">
-        <v>2.2</v>
+        <v>1.29</v>
       </c>
       <c r="E194" t="n">
-        <v>0.6000000000000001</v>
+        <v>2.64</v>
       </c>
       <c r="F194" t="n">
-        <v>16</v>
+        <v>18.61538461538462</v>
       </c>
       <c r="G194" t="n">
-        <v>20.28571428571428</v>
+        <v>23.30769230769231</v>
       </c>
       <c r="H194" t="n">
-        <v>16.42857142857143</v>
+        <v>20.92307692307692</v>
       </c>
       <c r="I194" t="n">
-        <v>23.71428571428572</v>
+        <v>24.38461538461538</v>
       </c>
       <c r="J194" t="n">
-        <v>19.71428571428572</v>
+        <v>19.46153846153846</v>
       </c>
       <c r="K194" t="n">
-        <v>17</v>
+        <v>18.07692307692308</v>
       </c>
       <c r="L194" t="n">
-        <v>22.28571428571428</v>
+        <v>20.69230769230769</v>
       </c>
       <c r="M194" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N194" t="n">
-        <v>77.42428571428572</v>
+        <v>87.11461538461539</v>
       </c>
       <c r="O194" t="n">
-        <v>76.92857142857143</v>
+        <v>80.35923076923076</v>
       </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">London Lions </t>
+          <t xml:space="preserve">Rasta Vechta </t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Newcastle Eagles</t>
+          <t xml:space="preserve"> Mitteldeutscher BC</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>1.06</v>
+        <v>1.15</v>
       </c>
       <c r="D195" t="n">
-        <v>7.4</v>
+        <v>6.22</v>
       </c>
       <c r="E195" t="n">
-        <v>6.34</v>
+        <v>5.07</v>
       </c>
       <c r="F195" t="n">
-        <v>24.75</v>
+        <v>21.11111111111111</v>
       </c>
       <c r="G195" t="n">
-        <v>22.875</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="H195" t="n">
-        <v>18.75</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="I195" t="n">
-        <v>18</v>
+        <v>21.77777777777778</v>
       </c>
       <c r="J195" t="n">
-        <v>22.125</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="K195" t="n">
-        <v>24</v>
+        <v>16.44444444444444</v>
       </c>
       <c r="L195" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M195" t="n">
-        <v>22.125</v>
+        <v>18.55555555555556</v>
       </c>
       <c r="N195" t="n">
-        <v>85.8</v>
+        <v>84.0611111111111</v>
       </c>
       <c r="O195" t="n">
-        <v>82.75500000000001</v>
+        <v>76.60888888888888</v>
       </c>
       <c r="P195" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSKA Moscow </t>
+          <t xml:space="preserve">Phoenix Hagen </t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Zenit Saint Petersburg</t>
+          <t xml:space="preserve"> VFL Kirchheim Knights</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="D196" t="n">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="E196" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="F196" t="n">
-        <v>16.5</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="G196" t="n">
-        <v>18.75</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="H196" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="I196" t="n">
-        <v>23.25</v>
+        <v>19</v>
       </c>
       <c r="J196" t="n">
-        <v>15.75</v>
+        <v>16.88888888888889</v>
       </c>
       <c r="K196" t="n">
-        <v>24.75</v>
+        <v>20.55555555555556</v>
       </c>
       <c r="L196" t="n">
-        <v>17</v>
+        <v>19.22222222222222</v>
       </c>
       <c r="M196" t="n">
-        <v>20.5</v>
+        <v>21.88888888888889</v>
       </c>
       <c r="N196" t="n">
-        <v>83.60499999999999</v>
+        <v>79.10555555555555</v>
       </c>
       <c r="O196" t="n">
-        <v>82.0025</v>
+        <v>78.47</v>
       </c>
       <c r="P196" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Donar Groningen </t>
+          <t xml:space="preserve">CS Universitatea Cluj-Napoca </t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basketball Academie Limburg</t>
+          <t xml:space="preserve"> CSM CSU Oradea</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="D197" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="E197" t="n">
-        <v>2.48</v>
+        <v>2.91</v>
       </c>
       <c r="F197" t="n">
-        <v>23</v>
+        <v>21.90909090909091</v>
       </c>
       <c r="G197" t="n">
-        <v>23.125</v>
+        <v>21.63636363636364</v>
       </c>
       <c r="H197" t="n">
-        <v>19.5</v>
+        <v>21.63636363636364</v>
       </c>
       <c r="I197" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J197" t="n">
-        <v>23</v>
+        <v>21.72727272727273</v>
       </c>
       <c r="K197" t="n">
-        <v>15.125</v>
+        <v>20.54545454545455</v>
       </c>
       <c r="L197" t="n">
-        <v>20</v>
+        <v>19.09090909090909</v>
       </c>
       <c r="M197" t="n">
-        <v>19</v>
+        <v>18.72727272727273</v>
       </c>
       <c r="N197" t="n">
-        <v>83.62125</v>
+        <v>86.77181818181818</v>
       </c>
       <c r="O197" t="n">
-        <v>75.04124999999999</v>
+        <v>79.98</v>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dewa United Surabaya </t>
+          <t xml:space="preserve">UCC Piacenza </t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rans Pik Basketball Club</t>
+          <t xml:space="preserve"> Pallacanestro Trapani</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>1.05</v>
+        <v>3</v>
       </c>
       <c r="D198" t="n">
-        <v>7.7</v>
+        <v>1.32</v>
       </c>
       <c r="E198" t="n">
-        <v>6.65</v>
+        <v>1.68</v>
       </c>
       <c r="F198" t="n">
-        <v>25</v>
+        <v>20.6</v>
       </c>
       <c r="G198" t="n">
-        <v>21.85714285714286</v>
+        <v>18.6</v>
       </c>
       <c r="H198" t="n">
-        <v>26.28571428571428</v>
+        <v>21.6</v>
       </c>
       <c r="I198" t="n">
-        <v>15.57142857142857</v>
+        <v>21.6</v>
       </c>
       <c r="J198" t="n">
-        <v>20.28571428571428</v>
+        <v>21.4</v>
       </c>
       <c r="K198" t="n">
-        <v>21.28571428571428</v>
+        <v>20.8</v>
       </c>
       <c r="L198" t="n">
-        <v>19.85714285714286</v>
+        <v>19.4</v>
       </c>
       <c r="M198" t="n">
-        <v>20.85714285714286</v>
+        <v>17.2</v>
       </c>
       <c r="N198" t="n">
-        <v>86.27428571428571</v>
+        <v>81.73999999999999</v>
       </c>
       <c r="O198" t="n">
-        <v>81.96142857142857</v>
+        <v>74.928</v>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Basketball Lowen Braunschweig </t>
+          <t xml:space="preserve">UBSC Graz </t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ratiopharm Ulm</t>
+          <t xml:space="preserve"> BK Dukes Klosterneuburg</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>4.35</v>
+        <v>1.97</v>
       </c>
       <c r="D199" t="n">
-        <v>1.25</v>
+        <v>1.81</v>
       </c>
       <c r="E199" t="n">
-        <v>3.1</v>
+        <v>0.1599999999999999</v>
       </c>
       <c r="F199" t="n">
-        <v>24.42857142857143</v>
+        <v>20.22222222222222</v>
       </c>
       <c r="G199" t="n">
-        <v>19.28571428571428</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="H199" t="n">
-        <v>15.85714285714286</v>
+        <v>21.22222222222222</v>
       </c>
       <c r="I199" t="n">
-        <v>21.42857142857143</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="J199" t="n">
-        <v>22.28571428571428</v>
+        <v>15.77777777777778</v>
       </c>
       <c r="K199" t="n">
-        <v>19.42857142857143</v>
+        <v>20.44444444444444</v>
       </c>
       <c r="L199" t="n">
-        <v>20.14285714285714</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="M199" t="n">
-        <v>20.28571428571428</v>
+        <v>23.22222222222222</v>
       </c>
       <c r="N199" t="n">
-        <v>80.45857142857143</v>
+        <v>82.15777777777777</v>
       </c>
       <c r="O199" t="n">
-        <v>81.39428571428572</v>
+        <v>79.06555555555556</v>
       </c>
       <c r="P199" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baskets Bonn </t>
+          <t xml:space="preserve">Sheffield Sharks </t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Riesen Ludwigsburg</t>
+          <t xml:space="preserve"> Cheshire Phoenix</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>1.56</v>
+        <v>1.77</v>
       </c>
       <c r="D200" t="n">
-        <v>2.57</v>
+        <v>1.94</v>
       </c>
       <c r="E200" t="n">
-        <v>1.01</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="F200" t="n">
-        <v>20.94736842105263</v>
+        <v>24.625</v>
       </c>
       <c r="G200" t="n">
-        <v>22.10526315789474</v>
+        <v>21.875</v>
       </c>
       <c r="H200" t="n">
-        <v>20.26315789473684</v>
+        <v>20.75</v>
       </c>
       <c r="I200" t="n">
-        <v>19.26315789473684</v>
+        <v>22.125</v>
       </c>
       <c r="J200" t="n">
-        <v>19.94736842105263</v>
+        <v>21.25</v>
       </c>
       <c r="K200" t="n">
-        <v>21.84210526315789</v>
+        <v>22</v>
       </c>
       <c r="L200" t="n">
-        <v>22.42105263157895</v>
+        <v>18.25</v>
       </c>
       <c r="M200" t="n">
-        <v>20.57894736842105</v>
+        <v>24.375</v>
       </c>
       <c r="N200" t="n">
-        <v>80.53473684210526</v>
+        <v>91.92375000000001</v>
       </c>
       <c r="O200" t="n">
-        <v>83.19263157894737</v>
+        <v>87.96250000000001</v>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baskets Oldenburg </t>
+          <t xml:space="preserve">Olimpia Milano </t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brose Bamberg</t>
+          <t xml:space="preserve"> Aquila Basket Trento</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>1.69</v>
+        <v>1.13</v>
       </c>
       <c r="D201" t="n">
-        <v>2.28</v>
+        <v>7.38</v>
       </c>
       <c r="E201" t="n">
-        <v>0.5899999999999999</v>
+        <v>6.25</v>
       </c>
       <c r="F201" t="n">
-        <v>22.14285714285714</v>
+        <v>22.2</v>
       </c>
       <c r="G201" t="n">
-        <v>20.64285714285714</v>
+        <v>20.9</v>
       </c>
       <c r="H201" t="n">
-        <v>22.14285714285714</v>
+        <v>20.5</v>
       </c>
       <c r="I201" t="n">
-        <v>22.92857142857143</v>
+        <v>20.8</v>
       </c>
       <c r="J201" t="n">
-        <v>21.21428571428572</v>
+        <v>21.3</v>
       </c>
       <c r="K201" t="n">
-        <v>20.28571428571428</v>
+        <v>22.2</v>
       </c>
       <c r="L201" t="n">
-        <v>19.42857142857143</v>
+        <v>18.1</v>
       </c>
       <c r="M201" t="n">
-        <v>21.35714285714286</v>
+        <v>20.4</v>
       </c>
       <c r="N201" t="n">
-        <v>88.985</v>
+        <v>83.30199999999999</v>
       </c>
       <c r="O201" t="n">
-        <v>87.65214285714285</v>
+        <v>83.84100000000001</v>
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bayern Munich </t>
+          <t xml:space="preserve">Benedetto Xiv Cento </t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rostock Seawolves</t>
+          <t xml:space="preserve"> San Giobbe Chiusi</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1.1</v>
+        <v>1.52</v>
       </c>
       <c r="D202" t="n">
-        <v>8.23</v>
+        <v>2.4</v>
       </c>
       <c r="E202" t="n">
-        <v>7.130000000000001</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="F202" t="n">
-        <v>20.55555555555556</v>
+        <v>18</v>
       </c>
       <c r="G202" t="n">
-        <v>22</v>
+        <v>17.42857142857143</v>
       </c>
       <c r="H202" t="n">
-        <v>18.66666666666667</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="I202" t="n">
-        <v>19.44444444444444</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="J202" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K202" t="n">
-        <v>20</v>
+        <v>19.14285714285714</v>
       </c>
       <c r="L202" t="n">
-        <v>19.44444444444444</v>
+        <v>19.14285714285714</v>
       </c>
       <c r="M202" t="n">
-        <v>20.77777777777778</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="N202" t="n">
-        <v>80.68666666666667</v>
+        <v>75.27</v>
       </c>
       <c r="O202" t="n">
-        <v>83.27444444444444</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crailsheim Merlins </t>
+          <t xml:space="preserve">Frata Nardo </t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alba Berlin</t>
+          <t xml:space="preserve"> ASD Latina Basket</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3.93</v>
+        <v>1.36</v>
       </c>
       <c r="D203" t="n">
-        <v>1.29</v>
+        <v>2.9</v>
       </c>
       <c r="E203" t="n">
-        <v>2.64</v>
+        <v>1.54</v>
       </c>
       <c r="F203" t="n">
-        <v>18.61538461538462</v>
+        <v>24.5</v>
       </c>
       <c r="G203" t="n">
-        <v>23.30769230769231</v>
+        <v>20.25</v>
       </c>
       <c r="H203" t="n">
-        <v>20.92307692307692</v>
+        <v>18</v>
       </c>
       <c r="I203" t="n">
-        <v>24.38461538461538</v>
+        <v>17.5</v>
       </c>
       <c r="J203" t="n">
-        <v>19.46153846153846</v>
+        <v>23.75</v>
       </c>
       <c r="K203" t="n">
-        <v>18.07692307692308</v>
+        <v>15.25</v>
       </c>
       <c r="L203" t="n">
-        <v>20.69230769230769</v>
+        <v>16.5</v>
       </c>
       <c r="M203" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N203" t="n">
-        <v>87.11461538461539</v>
+        <v>83.93000000000001</v>
       </c>
       <c r="O203" t="n">
-        <v>80.35923076923076</v>
+        <v>79.4875</v>
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rasta Vechta </t>
+          <t xml:space="preserve">CS Dinamo Bucuresti </t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitteldeutscher BC</t>
+          <t xml:space="preserve"> CSU Sibiu</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1.15</v>
+        <v>1.48</v>
       </c>
       <c r="D204" t="n">
-        <v>6.22</v>
+        <v>2.5</v>
       </c>
       <c r="E204" t="n">
-        <v>5.07</v>
+        <v>1.02</v>
       </c>
       <c r="F204" t="n">
-        <v>21.11111111111111</v>
+        <v>24.25</v>
       </c>
       <c r="G204" t="n">
-        <v>22.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="H204" t="n">
-        <v>20.55555555555556</v>
+        <v>21.83333333333333</v>
       </c>
       <c r="I204" t="n">
-        <v>21.77777777777778</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="J204" t="n">
-        <v>21.22222222222222</v>
+        <v>22.83333333333333</v>
       </c>
       <c r="K204" t="n">
-        <v>16.44444444444444</v>
+        <v>21</v>
       </c>
       <c r="L204" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M204" t="n">
-        <v>18.55555555555556</v>
+        <v>19</v>
       </c>
       <c r="N204" t="n">
-        <v>84.0611111111111</v>
+        <v>85.08166666666666</v>
       </c>
       <c r="O204" t="n">
-        <v>76.60888888888888</v>
+        <v>81.18833333333333</v>
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phoenix Hagen </t>
+          <t xml:space="preserve">BC Spartak Pleven </t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VFL Kirchheim Knights</t>
+          <t xml:space="preserve"> Rilski Sportist</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>1.38</v>
+        <v>1.93</v>
       </c>
       <c r="D205" t="n">
-        <v>2.95</v>
+        <v>1.78</v>
       </c>
       <c r="E205" t="n">
-        <v>1.57</v>
+        <v>0.1499999999999999</v>
       </c>
       <c r="F205" t="n">
-        <v>19.66666666666667</v>
+        <v>18.5</v>
       </c>
       <c r="G205" t="n">
-        <v>21.88888888888889</v>
+        <v>21</v>
       </c>
       <c r="H205" t="n">
-        <v>19</v>
+        <v>20.875</v>
       </c>
       <c r="I205" t="n">
-        <v>19</v>
+        <v>22.125</v>
       </c>
       <c r="J205" t="n">
-        <v>16.88888888888889</v>
+        <v>19.25</v>
       </c>
       <c r="K205" t="n">
-        <v>20.55555555555556</v>
+        <v>19.25</v>
       </c>
       <c r="L205" t="n">
-        <v>19.22222222222222</v>
+        <v>18.5</v>
       </c>
       <c r="M205" t="n">
-        <v>21.88888888888889</v>
+        <v>19.625</v>
       </c>
       <c r="N205" t="n">
-        <v>79.10555555555555</v>
+        <v>83.8475</v>
       </c>
       <c r="O205" t="n">
-        <v>78.47</v>
+        <v>78.18875</v>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Juventus Utena </t>
+          <t xml:space="preserve">Raggisolaris Faenza </t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
+          <t xml:space="preserve"> Libertas Livorno</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="D206" t="n">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="E206" t="n">
-        <v>0.22</v>
+        <v>0.5299999999999998</v>
       </c>
       <c r="F206" t="n">
-        <v>24.33333333333333</v>
+        <v>19.8</v>
       </c>
       <c r="G206" t="n">
-        <v>22</v>
+        <v>16.8</v>
       </c>
       <c r="H206" t="n">
-        <v>23.5</v>
+        <v>23.2</v>
       </c>
       <c r="I206" t="n">
-        <v>19.83333333333333</v>
+        <v>16.4</v>
       </c>
       <c r="J206" t="n">
-        <v>23.5</v>
+        <v>17.8</v>
       </c>
       <c r="K206" t="n">
-        <v>21.66666666666667</v>
+        <v>19.8</v>
       </c>
       <c r="L206" t="n">
-        <v>21.83333333333333</v>
+        <v>13.2</v>
       </c>
       <c r="M206" t="n">
-        <v>21.5</v>
+        <v>17.6</v>
       </c>
       <c r="N206" t="n">
-        <v>90.15833333333335</v>
+        <v>77.074</v>
       </c>
       <c r="O206" t="n">
-        <v>83.02999999999999</v>
+        <v>71.83799999999999</v>
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Universitatea Cluj-Napoca </t>
+          <t xml:space="preserve">Basquet Girona </t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CSM CSU Oradea</t>
+          <t xml:space="preserve"> Basket Zaragoza 2002</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>1.19</v>
+        <v>1.48</v>
       </c>
       <c r="D207" t="n">
-        <v>4.1</v>
+        <v>2.81</v>
       </c>
       <c r="E207" t="n">
-        <v>2.91</v>
+        <v>1.33</v>
       </c>
       <c r="F207" t="n">
-        <v>21.90909090909091</v>
+        <v>22.57142857142857</v>
       </c>
       <c r="G207" t="n">
-        <v>21.63636363636364</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="H207" t="n">
-        <v>21.63636363636364</v>
+        <v>16.85714285714286</v>
       </c>
       <c r="I207" t="n">
-        <v>21</v>
+        <v>21.28571428571428</v>
       </c>
       <c r="J207" t="n">
-        <v>21.72727272727273</v>
+        <v>15</v>
       </c>
       <c r="K207" t="n">
-        <v>20.54545454545455</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="L207" t="n">
-        <v>19.09090909090909</v>
+        <v>17.85714285714286</v>
       </c>
       <c r="M207" t="n">
-        <v>18.72727272727273</v>
+        <v>18.85714285714286</v>
       </c>
       <c r="N207" t="n">
-        <v>86.77181818181818</v>
+        <v>78.23999999999999</v>
       </c>
       <c r="O207" t="n">
-        <v>79.98</v>
+        <v>68.31571428571429</v>
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">UCC Piacenza </t>
+          <t xml:space="preserve">BC Andorra </t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pallacanestro Trapani</t>
+          <t xml:space="preserve"> Valencia Basket</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3</v>
+        <v>2.93</v>
       </c>
       <c r="D208" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="E208" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="F208" t="n">
-        <v>20.6</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="G208" t="n">
-        <v>18.6</v>
+        <v>20.91666666666667</v>
       </c>
       <c r="H208" t="n">
-        <v>21.6</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="I208" t="n">
-        <v>21.6</v>
+        <v>23.08333333333333</v>
       </c>
       <c r="J208" t="n">
-        <v>21.4</v>
+        <v>20.41666666666667</v>
       </c>
       <c r="K208" t="n">
-        <v>20.8</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="L208" t="n">
-        <v>19.4</v>
+        <v>20.25</v>
       </c>
       <c r="M208" t="n">
-        <v>17.2</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="N208" t="n">
-        <v>81.73999999999999</v>
+        <v>89.86499999999999</v>
       </c>
       <c r="O208" t="n">
-        <v>74.928</v>
+        <v>78.15333333333334</v>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">UBSC Graz </t>
+          <t xml:space="preserve">Bilbao Basket </t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BK Dukes Klosterneuburg</t>
+          <t xml:space="preserve"> FC Barcelona</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1.97</v>
+        <v>3.95</v>
       </c>
       <c r="D209" t="n">
-        <v>1.81</v>
+        <v>1.29</v>
       </c>
       <c r="E209" t="n">
-        <v>0.1599999999999999</v>
+        <v>2.66</v>
       </c>
       <c r="F209" t="n">
-        <v>20.22222222222222</v>
+        <v>15.4</v>
       </c>
       <c r="G209" t="n">
-        <v>21.33333333333333</v>
+        <v>22.4</v>
       </c>
       <c r="H209" t="n">
-        <v>21.22222222222222</v>
+        <v>21.2</v>
       </c>
       <c r="I209" t="n">
-        <v>19.66666666666667</v>
+        <v>23</v>
       </c>
       <c r="J209" t="n">
-        <v>15.77777777777778</v>
+        <v>20</v>
       </c>
       <c r="K209" t="n">
-        <v>20.44444444444444</v>
+        <v>23.4</v>
       </c>
       <c r="L209" t="n">
-        <v>18.88888888888889</v>
+        <v>19.8</v>
       </c>
       <c r="M209" t="n">
-        <v>23.22222222222222</v>
+        <v>22</v>
       </c>
       <c r="N209" t="n">
-        <v>82.15777777777777</v>
+        <v>81.69800000000001</v>
       </c>
       <c r="O209" t="n">
-        <v>79.06555555555556</v>
+        <v>82.82599999999999</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sheffield Sharks </t>
+          <t xml:space="preserve">CB 1939 Canarias </t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cheshire Phoenix</t>
+          <t xml:space="preserve"> Basquet Manresa</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>1.77</v>
+        <v>1.62</v>
       </c>
       <c r="D210" t="n">
-        <v>1.94</v>
+        <v>2.43</v>
       </c>
       <c r="E210" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F210" t="n">
-        <v>24.625</v>
+        <v>23.83333333333333</v>
       </c>
       <c r="G210" t="n">
-        <v>21.875</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="H210" t="n">
-        <v>20.75</v>
+        <v>19</v>
       </c>
       <c r="I210" t="n">
-        <v>22.125</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="J210" t="n">
-        <v>21.25</v>
+        <v>15.83333333333333</v>
       </c>
       <c r="K210" t="n">
-        <v>22</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="L210" t="n">
-        <v>18.25</v>
+        <v>21</v>
       </c>
       <c r="M210" t="n">
-        <v>24.375</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="N210" t="n">
-        <v>91.92375000000001</v>
+        <v>86.87666666666668</v>
       </c>
       <c r="O210" t="n">
-        <v>87.96250000000001</v>
+        <v>84.105</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Olimpia Milano </t>
+          <t xml:space="preserve">CB Malaga </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aquila Basket Trento</t>
+          <t xml:space="preserve"> CD Maristas Palencia</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="D211" t="n">
-        <v>7.38</v>
+        <v>13.63</v>
       </c>
       <c r="E211" t="n">
-        <v>6.25</v>
+        <v>12.58</v>
       </c>
       <c r="F211" t="n">
-        <v>22.2</v>
+        <v>18</v>
       </c>
       <c r="G211" t="n">
-        <v>20.9</v>
+        <v>18</v>
       </c>
       <c r="H211" t="n">
-        <v>20.5</v>
+        <v>22.8</v>
       </c>
       <c r="I211" t="n">
-        <v>20.8</v>
+        <v>24.6</v>
       </c>
       <c r="J211" t="n">
-        <v>21.3</v>
+        <v>19</v>
       </c>
       <c r="K211" t="n">
-        <v>22.2</v>
+        <v>24.6</v>
       </c>
       <c r="L211" t="n">
-        <v>18.1</v>
+        <v>19.8</v>
       </c>
       <c r="M211" t="n">
-        <v>20.4</v>
+        <v>23.6</v>
       </c>
       <c r="N211" t="n">
-        <v>83.30199999999999</v>
+        <v>81.916</v>
       </c>
       <c r="O211" t="n">
-        <v>83.84100000000001</v>
+        <v>85.81399999999999</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Benedetto Xiv Cento </t>
+          <t xml:space="preserve">CB Murcia </t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t xml:space="preserve"> San Giobbe Chiusi</t>
+          <t xml:space="preserve"> CB Breogan</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="D212" t="n">
-        <v>2.4</v>
+        <v>4.65</v>
       </c>
       <c r="E212" t="n">
-        <v>0.8799999999999999</v>
+        <v>3.42</v>
       </c>
       <c r="F212" t="n">
-        <v>18</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="G212" t="n">
-        <v>17.42857142857143</v>
+        <v>14.85714285714286</v>
       </c>
       <c r="H212" t="n">
-        <v>16.71428571428572</v>
+        <v>17.71428571428572</v>
       </c>
       <c r="I212" t="n">
-        <v>20.85714285714286</v>
+        <v>13.14285714285714</v>
       </c>
       <c r="J212" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K212" t="n">
-        <v>19.14285714285714</v>
+        <v>13.42857142857143</v>
       </c>
       <c r="L212" t="n">
-        <v>19.14285714285714</v>
+        <v>13.85714285714286</v>
       </c>
       <c r="M212" t="n">
-        <v>19.28571428571428</v>
+        <v>14.85714285714286</v>
       </c>
       <c r="N212" t="n">
-        <v>75.27</v>
+        <v>65.84</v>
       </c>
       <c r="O212" t="n">
-        <v>80.98999999999999</v>
+        <v>59.57142857142858</v>
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elachem Vigevano 1955 </t>
+          <t xml:space="preserve">GRANADA </t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pallacanestro 2.015 Forli</t>
+          <t xml:space="preserve"> CB Gran Canaria</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>2.7</v>
+        <v>1.79</v>
       </c>
       <c r="D213" t="n">
-        <v>1.39</v>
+        <v>2.12</v>
       </c>
       <c r="E213" t="n">
-        <v>1.31</v>
+        <v>0.3300000000000001</v>
       </c>
       <c r="F213" t="n">
-        <v>24.5</v>
+        <v>20.57142857142857</v>
       </c>
       <c r="G213" t="n">
-        <v>24.5</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="H213" t="n">
-        <v>21.75</v>
+        <v>17.42857142857143</v>
       </c>
       <c r="I213" t="n">
-        <v>19.25</v>
+        <v>22.57142857142857</v>
       </c>
       <c r="J213" t="n">
-        <v>17.25</v>
+        <v>20.14285714285714</v>
       </c>
       <c r="K213" t="n">
-        <v>14.75</v>
+        <v>18.71428571428572</v>
       </c>
       <c r="L213" t="n">
-        <v>16</v>
+        <v>21.14285714285714</v>
       </c>
       <c r="M213" t="n">
-        <v>19</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="N213" t="n">
-        <v>85.5775</v>
+        <v>85.28</v>
       </c>
       <c r="O213" t="n">
-        <v>70.8</v>
+        <v>78.73428571428572</v>
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frata Nardo </t>
+          <t xml:space="preserve">Obradoiro CAB </t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASD Latina Basket</t>
+          <t xml:space="preserve"> Club Joventut Badalona</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="D214" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="E214" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="F214" t="n">
-        <v>24.5</v>
+        <v>24</v>
       </c>
       <c r="G214" t="n">
-        <v>20.25</v>
+        <v>19.36363636363636</v>
       </c>
       <c r="H214" t="n">
-        <v>18</v>
+        <v>21.81818181818182</v>
       </c>
       <c r="I214" t="n">
-        <v>17.5</v>
+        <v>21.09090909090909</v>
       </c>
       <c r="J214" t="n">
-        <v>23.75</v>
+        <v>18.72727272727273</v>
       </c>
       <c r="K214" t="n">
-        <v>15.25</v>
+        <v>19</v>
       </c>
       <c r="L214" t="n">
-        <v>16.5</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="M214" t="n">
-        <v>20</v>
+        <v>23.63636363636364</v>
       </c>
       <c r="N214" t="n">
-        <v>83.93000000000001</v>
+        <v>88.64545454545454</v>
       </c>
       <c r="O214" t="n">
-        <v>79.4875</v>
+        <v>85.16090909090909</v>
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Dinamo Bucuresti </t>
+          <t xml:space="preserve">Vasco Da Gama </t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CSU Sibiu</t>
+          <t xml:space="preserve"> Bauru Basket SP</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="D215" t="n">
-        <v>2.5</v>
+        <v>1.86</v>
       </c>
       <c r="E215" t="n">
-        <v>1.02</v>
+        <v>0.04999999999999982</v>
       </c>
       <c r="F215" t="n">
-        <v>24.25</v>
+        <v>17.5</v>
       </c>
       <c r="G215" t="n">
-        <v>19.5</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="H215" t="n">
-        <v>21.83333333333333</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="I215" t="n">
-        <v>19.66666666666667</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="J215" t="n">
-        <v>22.83333333333333</v>
+        <v>20.5</v>
       </c>
       <c r="K215" t="n">
-        <v>21</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="L215" t="n">
-        <v>19</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="M215" t="n">
-        <v>19</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="N215" t="n">
-        <v>85.08166666666666</v>
+        <v>77.47500000000001</v>
       </c>
       <c r="O215" t="n">
-        <v>81.18833333333333</v>
+        <v>74.51000000000001</v>
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Spartak Pleven </t>
+          <t xml:space="preserve">Kk Split </t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rilski Sportist</t>
+          <t xml:space="preserve"> KK Cibona</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>1.93</v>
+        <v>1.19</v>
       </c>
       <c r="D216" t="n">
-        <v>1.78</v>
+        <v>4.2</v>
       </c>
       <c r="E216" t="n">
-        <v>0.1499999999999999</v>
+        <v>3.01</v>
       </c>
       <c r="F216" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="G216" t="n">
+        <v>23.14285714285714</v>
+      </c>
+      <c r="H216" t="n">
+        <v>21.57142857142857</v>
+      </c>
+      <c r="I216" t="n">
         <v>21</v>
       </c>
-      <c r="H216" t="n">
-        <v>20.875</v>
-      </c>
-      <c r="I216" t="n">
-        <v>22.125</v>
-      </c>
       <c r="J216" t="n">
-        <v>19.25</v>
+        <v>17.14285714285714</v>
       </c>
       <c r="K216" t="n">
-        <v>19.25</v>
+        <v>22.28571428571428</v>
       </c>
       <c r="L216" t="n">
-        <v>18.5</v>
+        <v>21.42857142857143</v>
       </c>
       <c r="M216" t="n">
-        <v>19.625</v>
+        <v>15.71428571428571</v>
       </c>
       <c r="N216" t="n">
-        <v>83.8475</v>
+        <v>86.36857142857143</v>
       </c>
       <c r="O216" t="n">
-        <v>78.18875</v>
+        <v>76.41428571428571</v>
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t xml:space="preserve">MKS Dabrowa Gornicza </t>
+          <t xml:space="preserve">Indiana Pacers </t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trefl Sopot</t>
+          <t xml:space="preserve"> New York Knicks</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="D217" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="E217" t="n">
-        <v>0.22</v>
+        <v>1.42</v>
       </c>
       <c r="F217" t="n">
-        <v>15.66666666666667</v>
+        <v>29</v>
       </c>
       <c r="G217" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H217" t="n">
-        <v>24.33333333333333</v>
+        <v>27.25</v>
       </c>
       <c r="I217" t="n">
-        <v>21.66666666666667</v>
+        <v>29.25</v>
       </c>
       <c r="J217" t="n">
-        <v>25.33333333333333</v>
+        <v>24.75</v>
       </c>
       <c r="K217" t="n">
-        <v>17.66666666666667</v>
+        <v>26.25</v>
       </c>
       <c r="L217" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M217" t="n">
-        <v>23</v>
+        <v>26.5</v>
       </c>
       <c r="N217" t="n">
-        <v>91.26333333333332</v>
+        <v>114.82</v>
       </c>
       <c r="O217" t="n">
-        <v>86.50666666666666</v>
+        <v>107.4075</v>
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oberwart Gunners </t>
+          <t xml:space="preserve">BC Aris Thessaloniki </t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Traiskirchen Lions</t>
+          <t xml:space="preserve"> Panathinaikos BC</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>1.65</v>
+        <v>4.4</v>
       </c>
       <c r="D218" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="E218" t="n">
-        <v>0.5500000000000003</v>
+        <v>3.2</v>
       </c>
       <c r="F218" t="n">
-        <v>17.75</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="G218" t="n">
-        <v>15.25</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="H218" t="n">
-        <v>17.375</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="I218" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="J218" t="n">
-        <v>17.875</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="K218" t="n">
-        <v>19.875</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="L218" t="n">
-        <v>16.25</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="M218" t="n">
-        <v>17.5</v>
+        <v>12.83333333333333</v>
       </c>
       <c r="N218" t="n">
-        <v>71.79124999999999</v>
+        <v>72.99166666666667</v>
       </c>
       <c r="O218" t="n">
-        <v>74.6425</v>
+        <v>57.25333333333333</v>
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Basket Golfo Piombino </t>
+          <t xml:space="preserve">Fenerbahce Istanbul </t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Talos Ruvo Di Puglia</t>
+          <t xml:space="preserve"> Buyukcekmece Basketbol</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>2.05</v>
+        <v>1.13</v>
       </c>
       <c r="D219" t="n">
-        <v>1.7</v>
+        <v>6.89</v>
       </c>
       <c r="E219" t="n">
-        <v>0.3499999999999999</v>
+        <v>5.76</v>
       </c>
       <c r="F219" t="n">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="G219" t="n">
-        <v>19.83333333333333</v>
+        <v>22</v>
       </c>
       <c r="H219" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="I219" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J219" t="n">
-        <v>18.66666666666667</v>
+        <v>12</v>
       </c>
       <c r="K219" t="n">
-        <v>19.33333333333333</v>
+        <v>5</v>
       </c>
       <c r="L219" t="n">
-        <v>21.16666666666667</v>
+        <v>14</v>
       </c>
       <c r="M219" t="n">
-        <v>19.16666666666667</v>
+        <v>14</v>
       </c>
       <c r="N219" t="n">
-        <v>78.90666666666667</v>
+        <v>59.53</v>
       </c>
       <c r="O219" t="n">
-        <v>78.45166666666667</v>
+        <v>55.02</v>
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raggisolaris Faenza </t>
+          <t xml:space="preserve">BC Rytas Vilnius </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Libertas Livorno</t>
+          <t xml:space="preserve"> BC Jonava</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>1.62</v>
+        <v>1.03</v>
       </c>
       <c r="D220" t="n">
-        <v>2.15</v>
+        <v>11.5</v>
       </c>
       <c r="E220" t="n">
-        <v>0.5299999999999998</v>
+        <v>10.47</v>
       </c>
       <c r="F220" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="G220" t="n">
-        <v>16.8</v>
+        <v>18.125</v>
       </c>
       <c r="H220" t="n">
-        <v>23.2</v>
+        <v>18.25</v>
       </c>
       <c r="I220" t="n">
-        <v>16.4</v>
+        <v>18.75</v>
       </c>
       <c r="J220" t="n">
-        <v>17.8</v>
+        <v>23.875</v>
       </c>
       <c r="K220" t="n">
-        <v>19.8</v>
+        <v>26.875</v>
       </c>
       <c r="L220" t="n">
-        <v>13.2</v>
+        <v>20.625</v>
       </c>
       <c r="M220" t="n">
-        <v>17.6</v>
+        <v>20.375</v>
       </c>
       <c r="N220" t="n">
-        <v>77.074</v>
+        <v>74.75</v>
       </c>
       <c r="O220" t="n">
-        <v>71.83799999999999</v>
+        <v>88.75375</v>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Basquet Girona </t>
+          <t xml:space="preserve">CSM Targu Jiu </t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basket Zaragoza 2002</t>
+          <t xml:space="preserve"> Abc Laguna Bucuresti</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1.48</v>
+        <v>1.06</v>
       </c>
       <c r="D221" t="n">
-        <v>2.81</v>
+        <v>7.4</v>
       </c>
       <c r="E221" t="n">
-        <v>1.33</v>
+        <v>6.34</v>
       </c>
       <c r="F221" t="n">
-        <v>22.57142857142857</v>
+        <v>20.75</v>
       </c>
       <c r="G221" t="n">
-        <v>19.85714285714286</v>
+        <v>25.75</v>
       </c>
       <c r="H221" t="n">
-        <v>16.85714285714286</v>
+        <v>22.25</v>
       </c>
       <c r="I221" t="n">
-        <v>21.28571428571428</v>
+        <v>19.75</v>
       </c>
       <c r="J221" t="n">
-        <v>15</v>
+        <v>22.25</v>
       </c>
       <c r="K221" t="n">
-        <v>15.71428571428571</v>
+        <v>22.5</v>
       </c>
       <c r="L221" t="n">
-        <v>17.85714285714286</v>
+        <v>20.75</v>
       </c>
       <c r="M221" t="n">
-        <v>18.85714285714286</v>
+        <v>22.25</v>
       </c>
       <c r="N221" t="n">
-        <v>78.23999999999999</v>
+        <v>86.92500000000001</v>
       </c>
       <c r="O221" t="n">
-        <v>68.31571428571429</v>
+        <v>85.8275</v>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Andorra </t>
+          <t xml:space="preserve">Balkan Botevgrad </t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valencia Basket</t>
+          <t xml:space="preserve"> Chernomorets Burgas</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>2.93</v>
+        <v>1.6</v>
       </c>
       <c r="D222" t="n">
-        <v>1.45</v>
+        <v>2.2</v>
       </c>
       <c r="E222" t="n">
-        <v>1.48</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="F222" t="n">
-        <v>21.16666666666667</v>
+        <v>23.71428571428572</v>
       </c>
       <c r="G222" t="n">
-        <v>20.91666666666667</v>
+        <v>23.28571428571428</v>
       </c>
       <c r="H222" t="n">
-        <v>22.66666666666667</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="I222" t="n">
-        <v>23.08333333333333</v>
+        <v>17.28571428571428</v>
       </c>
       <c r="J222" t="n">
-        <v>20.41666666666667</v>
+        <v>21</v>
       </c>
       <c r="K222" t="n">
-        <v>16.33333333333333</v>
+        <v>16.28571428571428</v>
       </c>
       <c r="L222" t="n">
-        <v>20.25</v>
+        <v>21</v>
       </c>
       <c r="M222" t="n">
-        <v>19.16666666666667</v>
+        <v>19.14285714285714</v>
       </c>
       <c r="N222" t="n">
-        <v>89.86499999999999</v>
+        <v>86.15428571428572</v>
       </c>
       <c r="O222" t="n">
-        <v>78.15333333333334</v>
+        <v>77.10142857142856</v>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bilbao Basket </t>
+          <t xml:space="preserve">BC Wolves </t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Barcelona</t>
+          <t xml:space="preserve"> BC Neptunas Klaipeda</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3.95</v>
+        <v>1.2</v>
       </c>
       <c r="D223" t="n">
-        <v>1.29</v>
+        <v>4.4</v>
       </c>
       <c r="E223" t="n">
-        <v>2.66</v>
+        <v>3.2</v>
       </c>
       <c r="F223" t="n">
-        <v>15.4</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="G223" t="n">
-        <v>22.4</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="H223" t="n">
-        <v>21.2</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="I223" t="n">
-        <v>23</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="J223" t="n">
-        <v>20</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="K223" t="n">
-        <v>23.4</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="L223" t="n">
-        <v>19.8</v>
+        <v>21.16666666666667</v>
       </c>
       <c r="M223" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="N223" t="n">
-        <v>81.69800000000001</v>
+        <v>93.07833333333333</v>
       </c>
       <c r="O223" t="n">
-        <v>82.82599999999999</v>
+        <v>80.98999999999999</v>
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">CB 1939 Canarias </t>
+          <t xml:space="preserve">Team Fog Naestved </t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basquet Manresa</t>
+          <t xml:space="preserve"> Bakken Bears</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>1.62</v>
+        <v>3.25</v>
       </c>
       <c r="D224" t="n">
-        <v>2.43</v>
+        <v>1.33</v>
       </c>
       <c r="E224" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="F224" t="n">
-        <v>23.83333333333333</v>
+        <v>19.25</v>
       </c>
       <c r="G224" t="n">
-        <v>17.66666666666667</v>
+        <v>17.25</v>
       </c>
       <c r="H224" t="n">
-        <v>19</v>
+        <v>25.5</v>
       </c>
       <c r="I224" t="n">
-        <v>27.83333333333333</v>
+        <v>25</v>
       </c>
       <c r="J224" t="n">
-        <v>15.83333333333333</v>
+        <v>21.25</v>
       </c>
       <c r="K224" t="n">
-        <v>16.16666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="L224" t="n">
-        <v>21</v>
+        <v>23.25</v>
       </c>
       <c r="M224" t="n">
-        <v>21.16666666666667</v>
+        <v>24.25</v>
       </c>
       <c r="N224" t="n">
-        <v>86.87666666666668</v>
+        <v>89.95250000000001</v>
       </c>
       <c r="O224" t="n">
-        <v>84.105</v>
+        <v>91.905</v>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">CB Malaga </t>
+          <t xml:space="preserve">BC Lietkabelis Panevezys </t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Maristas Palencia</t>
+          <t xml:space="preserve"> BC Juventus Utena</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="D225" t="n">
-        <v>13.63</v>
+        <v>2.7</v>
       </c>
       <c r="E225" t="n">
-        <v>12.58</v>
+        <v>1.25</v>
       </c>
       <c r="F225" t="n">
-        <v>18</v>
+        <v>23.18181818181818</v>
       </c>
       <c r="G225" t="n">
-        <v>18</v>
+        <v>24.36363636363636</v>
       </c>
       <c r="H225" t="n">
-        <v>22.8</v>
+        <v>22.18181818181818</v>
       </c>
       <c r="I225" t="n">
-        <v>24.6</v>
+        <v>20.54545454545455</v>
       </c>
       <c r="J225" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K225" t="n">
-        <v>24.6</v>
+        <v>21.54545454545455</v>
       </c>
       <c r="L225" t="n">
-        <v>19.8</v>
+        <v>21.27272727272727</v>
       </c>
       <c r="M225" t="n">
-        <v>23.6</v>
+        <v>21.63636363636364</v>
       </c>
       <c r="N225" t="n">
-        <v>81.916</v>
+        <v>88.54000000000001</v>
       </c>
       <c r="O225" t="n">
-        <v>85.81399999999999</v>
+        <v>87.71909090909091</v>
       </c>
       <c r="P225" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">CB Murcia </t>
+          <t xml:space="preserve">BK 04 AC LB SNV Spisski Rytieri </t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CB Breogan</t>
+          <t xml:space="preserve"> BK Levicki Patrioti</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>1.23</v>
+        <v>1.73</v>
       </c>
       <c r="D226" t="n">
-        <v>4.65</v>
+        <v>2</v>
       </c>
       <c r="E226" t="n">
-        <v>3.42</v>
+        <v>0.27</v>
       </c>
       <c r="F226" t="n">
-        <v>16.71428571428572</v>
+        <v>12</v>
       </c>
       <c r="G226" t="n">
-        <v>14.85714285714286</v>
+        <v>18</v>
       </c>
       <c r="H226" t="n">
-        <v>17.71428571428572</v>
+        <v>18</v>
       </c>
       <c r="I226" t="n">
-        <v>13.14285714285714</v>
+        <v>9</v>
       </c>
       <c r="J226" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K226" t="n">
-        <v>13.42857142857143</v>
+        <v>20</v>
       </c>
       <c r="L226" t="n">
-        <v>13.85714285714286</v>
+        <v>22</v>
       </c>
       <c r="M226" t="n">
-        <v>14.85714285714286</v>
+        <v>24</v>
       </c>
       <c r="N226" t="n">
-        <v>65.84</v>
+        <v>68.63</v>
       </c>
       <c r="O226" t="n">
-        <v>59.57142857142858</v>
+        <v>85.3</v>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">GRANADA </t>
+          <t xml:space="preserve">Anwil Wroclawek </t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CB Gran Canaria</t>
+          <t xml:space="preserve"> Spojnia Stargard</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>1.79</v>
+        <v>1.18</v>
       </c>
       <c r="D227" t="n">
-        <v>2.12</v>
+        <v>4.6</v>
       </c>
       <c r="E227" t="n">
-        <v>0.3300000000000001</v>
+        <v>3.42</v>
       </c>
       <c r="F227" t="n">
-        <v>20.57142857142857</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="G227" t="n">
-        <v>19.42857142857143</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="H227" t="n">
-        <v>17.42857142857143</v>
+        <v>22</v>
       </c>
       <c r="I227" t="n">
-        <v>22.57142857142857</v>
+        <v>21.5</v>
       </c>
       <c r="J227" t="n">
-        <v>20.14285714285714</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="K227" t="n">
-        <v>18.71428571428572</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="L227" t="n">
-        <v>21.14285714285714</v>
+        <v>24.83333333333333</v>
       </c>
       <c r="M227" t="n">
-        <v>18.57142857142857</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="N227" t="n">
-        <v>85.28</v>
+        <v>81.15666666666668</v>
       </c>
       <c r="O227" t="n">
-        <v>78.73428571428572</v>
+        <v>81.72500000000001</v>
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obradoiro CAB </t>
+          <t xml:space="preserve">Szolnoki Olaj Kk </t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Club Joventut Badalona</t>
+          <t xml:space="preserve"> Falco KC Szombathely</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1.42</v>
+        <v>3.5</v>
       </c>
       <c r="D228" t="n">
-        <v>3.09</v>
+        <v>1.26</v>
       </c>
       <c r="E228" t="n">
-        <v>1.67</v>
+        <v>2.24</v>
       </c>
       <c r="F228" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G228" t="n">
-        <v>19.36363636363636</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="H228" t="n">
-        <v>21.81818181818182</v>
+        <v>27.16666666666667</v>
       </c>
       <c r="I228" t="n">
-        <v>21.09090909090909</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="J228" t="n">
-        <v>18.72727272727273</v>
+        <v>16.83333333333333</v>
       </c>
       <c r="K228" t="n">
-        <v>19</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="L228" t="n">
-        <v>22.72727272727273</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="M228" t="n">
-        <v>23.63636363636364</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="N228" t="n">
-        <v>88.64545454545454</v>
+        <v>95.36333333333334</v>
       </c>
       <c r="O228" t="n">
-        <v>85.16090909090909</v>
+        <v>69.29333333333334</v>
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vasco Da Gama </t>
+          <t xml:space="preserve">Zalakeramia ZTE </t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bauru Basket SP</t>
+          <t xml:space="preserve"> Alba Fehervar</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="D229" t="n">
-        <v>1.86</v>
+        <v>1.29</v>
       </c>
       <c r="E229" t="n">
-        <v>0.04999999999999982</v>
+        <v>2.01</v>
       </c>
       <c r="F229" t="n">
-        <v>17.5</v>
+        <v>22.81818181818182</v>
       </c>
       <c r="G229" t="n">
-        <v>18.33333333333333</v>
+        <v>22</v>
       </c>
       <c r="H229" t="n">
-        <v>21.16666666666667</v>
+        <v>18.09090909090909</v>
       </c>
       <c r="I229" t="n">
-        <v>17.16666666666667</v>
+        <v>20</v>
       </c>
       <c r="J229" t="n">
-        <v>20.5</v>
+        <v>17.54545454545455</v>
       </c>
       <c r="K229" t="n">
-        <v>15.66666666666667</v>
+        <v>17.45454545454545</v>
       </c>
       <c r="L229" t="n">
-        <v>17.33333333333333</v>
+        <v>18.09090909090909</v>
       </c>
       <c r="M229" t="n">
-        <v>20.16666666666667</v>
+        <v>19.18181818181818</v>
       </c>
       <c r="N229" t="n">
-        <v>77.47500000000001</v>
+        <v>87.54909090909091</v>
       </c>
       <c r="O229" t="n">
-        <v>74.51000000000001</v>
+        <v>75.06363636363636</v>
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kk Split </t>
+          <t xml:space="preserve">Baskets Oldenburg </t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KK Cibona</t>
+          <t xml:space="preserve"> Hamburg Towers</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="D230" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="E230" t="n">
-        <v>3.01</v>
+        <v>2.43</v>
       </c>
       <c r="F230" t="n">
-        <v>20</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="G230" t="n">
-        <v>23.14285714285714</v>
+        <v>21.41666666666667</v>
       </c>
       <c r="H230" t="n">
-        <v>21.57142857142857</v>
+        <v>22.91666666666667</v>
       </c>
       <c r="I230" t="n">
-        <v>21</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="J230" t="n">
-        <v>17.14285714285714</v>
+        <v>19.83333333333333</v>
       </c>
       <c r="K230" t="n">
-        <v>22.28571428571428</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="L230" t="n">
-        <v>21.42857142857143</v>
+        <v>20.08333333333333</v>
       </c>
       <c r="M230" t="n">
-        <v>15.71428571428571</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="N230" t="n">
-        <v>86.36857142857143</v>
+        <v>82.92166666666667</v>
       </c>
       <c r="O230" t="n">
-        <v>76.41428571428571</v>
+        <v>84.98833333333333</v>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Slask Wroclaw </t>
+          <t xml:space="preserve">KK Siroki </t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stal Ostrow Wielkopolski</t>
+          <t xml:space="preserve"> Igokea Aleksandrovac</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="D231" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="E231" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="F231" t="n">
-        <v>20.66666666666667</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="G231" t="n">
-        <v>25.33333333333333</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="H231" t="n">
-        <v>18.66666666666667</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="I231" t="n">
-        <v>17.33333333333333</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="J231" t="n">
-        <v>20.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="K231" t="n">
-        <v>22.66666666666667</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="L231" t="n">
-        <v>19</v>
+        <v>12.16666666666667</v>
       </c>
       <c r="M231" t="n">
-        <v>22</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="N231" t="n">
-        <v>88.83</v>
+        <v>45.46333333333333</v>
       </c>
       <c r="O231" t="n">
-        <v>85.21666666666667</v>
+        <v>46.85999999999999</v>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Indiana Pacers </t>
+          <t xml:space="preserve">Washington Mystics </t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New York Knicks</t>
+          <t xml:space="preserve"> New York Liberty</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1.48</v>
+        <v>6.04</v>
       </c>
       <c r="D232" t="n">
-        <v>2.9</v>
+        <v>1.16</v>
       </c>
       <c r="E232" t="n">
-        <v>1.42</v>
+        <v>4.88</v>
       </c>
       <c r="F232" t="n">
-        <v>29</v>
+        <v>22.5</v>
       </c>
       <c r="G232" t="n">
-        <v>29</v>
+        <v>20.75</v>
       </c>
       <c r="H232" t="n">
-        <v>27.25</v>
+        <v>21.25</v>
       </c>
       <c r="I232" t="n">
-        <v>29.25</v>
+        <v>22.25</v>
       </c>
       <c r="J232" t="n">
-        <v>24.75</v>
+        <v>18.75</v>
       </c>
       <c r="K232" t="n">
-        <v>26.25</v>
+        <v>14.75</v>
       </c>
       <c r="L232" t="n">
-        <v>31</v>
+        <v>19.25</v>
       </c>
       <c r="M232" t="n">
-        <v>26.5</v>
+        <v>14</v>
       </c>
       <c r="N232" t="n">
-        <v>114.82</v>
+        <v>84.485</v>
       </c>
       <c r="O232" t="n">
-        <v>107.4075</v>
+        <v>82.3775</v>
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obera Tenis Club </t>
+          <t xml:space="preserve">Marinos de Anzoategui </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
+          <t xml:space="preserve"> Heroes de Falcon</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>1.51</v>
+        <v>1.12</v>
       </c>
       <c r="D233" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E233" t="n">
-        <v>0.99</v>
+        <v>3.88</v>
       </c>
       <c r="F233" t="n">
-        <v>21</v>
+        <v>19.8</v>
       </c>
       <c r="G233" t="n">
-        <v>19.83333333333333</v>
+        <v>15.8</v>
       </c>
       <c r="H233" t="n">
-        <v>18.33333333333333</v>
+        <v>16.6</v>
       </c>
       <c r="I233" t="n">
-        <v>21.16666666666667</v>
+        <v>16.2</v>
       </c>
       <c r="J233" t="n">
-        <v>19</v>
+        <v>12.8</v>
       </c>
       <c r="K233" t="n">
-        <v>21</v>
+        <v>19.2</v>
       </c>
       <c r="L233" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="M233" t="n">
-        <v>16</v>
+        <v>14.4</v>
       </c>
       <c r="N233" t="n">
-        <v>80.31</v>
+        <v>81.7616</v>
       </c>
       <c r="O233" t="n">
-        <v>69.495</v>
+        <v>73.98886666666667</v>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">CD Las Animas </t>
+          <t xml:space="preserve">Ituano </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Atletico Puerto Varas</t>
+          <t xml:space="preserve"> Unisociesc / Blumenau</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="D234" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="E234" t="n">
-        <v>2.91</v>
+        <v>3.88</v>
       </c>
       <c r="F234" t="n">
-        <v>21.42857142857143</v>
+        <v>10.83333333333333</v>
       </c>
       <c r="G234" t="n">
-        <v>15.85714285714286</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="H234" t="n">
-        <v>22.57142857142857</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="I234" t="n">
-        <v>18.85714285714286</v>
+        <v>10</v>
       </c>
       <c r="J234" t="n">
-        <v>20.42857142857143</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="K234" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="L234" t="n">
-        <v>20.42857142857143</v>
+        <v>11.33333333333333</v>
       </c>
       <c r="M234" t="n">
-        <v>14.42857142857143</v>
+        <v>11.5</v>
       </c>
       <c r="N234" t="n">
-        <v>81.53571428571431</v>
+        <v>46.58166666666667</v>
       </c>
       <c r="O234" t="n">
-        <v>83.42857142857143</v>
+        <v>46.26333333333333</v>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Minnesota Timberwolves </t>
+          <t xml:space="preserve">Connecticut Sun </t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Denver Nuggets</t>
+          <t xml:space="preserve"> Indiana Fever</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1.72</v>
+        <v>1.28</v>
       </c>
       <c r="D235" t="n">
-        <v>2.28</v>
+        <v>4.06</v>
       </c>
       <c r="E235" t="n">
-        <v>0.5599999999999998</v>
+        <v>2.779999999999999</v>
       </c>
       <c r="F235" t="n">
-        <v>24.5</v>
+        <v>23</v>
       </c>
       <c r="G235" t="n">
-        <v>29</v>
+        <v>19.4</v>
       </c>
       <c r="H235" t="n">
-        <v>26.75</v>
+        <v>13.8</v>
       </c>
       <c r="I235" t="n">
-        <v>27.25</v>
+        <v>23.4</v>
       </c>
       <c r="J235" t="n">
-        <v>29.75</v>
+        <v>22.6</v>
       </c>
       <c r="K235" t="n">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="L235" t="n">
-        <v>30.75</v>
+        <v>18.8</v>
       </c>
       <c r="M235" t="n">
-        <v>31.75</v>
+        <v>19</v>
       </c>
       <c r="N235" t="n">
-        <v>108.7775</v>
+        <v>79.96400000000001</v>
       </c>
       <c r="O235" t="n">
-        <v>107.2775</v>
+        <v>83.654</v>
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atenas Cordoba </t>
+          <t xml:space="preserve">Capitanes de Arecibo </t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Deportivo Rivadavia Mendoza</t>
+          <t xml:space="preserve"> Leones de Ponce</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="D236" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="E236" t="n">
-        <v>2.81</v>
+        <v>3.61</v>
       </c>
       <c r="F236" t="n">
-        <v>21</v>
+        <v>26.8</v>
       </c>
       <c r="G236" t="n">
-        <v>11</v>
+        <v>19.6</v>
       </c>
       <c r="H236" t="n">
-        <v>23</v>
+        <v>22.6</v>
       </c>
       <c r="I236" t="n">
-        <v>23</v>
+        <v>23.8</v>
       </c>
       <c r="J236" t="n">
-        <v>23</v>
+        <v>19.2</v>
       </c>
       <c r="K236" t="n">
-        <v>19.5</v>
+        <v>16.4</v>
       </c>
       <c r="L236" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="M236" t="n">
-        <v>19.5</v>
+        <v>21.6</v>
       </c>
       <c r="N236" t="n">
-        <v>80.955</v>
+        <v>91.16400000000002</v>
       </c>
       <c r="O236" t="n">
-        <v>87.965</v>
+        <v>78.474</v>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Penarol Mar Del Plata </t>
+          <t xml:space="preserve">Gigantes de Carolina </t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ferro Carril Oeste</t>
+          <t xml:space="preserve"> Atleticos de San German</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="D237" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="E237" t="n">
-        <v>1.5</v>
+        <v>1.12</v>
       </c>
       <c r="F237" t="n">
-        <v>29</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="G237" t="n">
         <v>21</v>
       </c>
       <c r="H237" t="n">
-        <v>23.5</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="I237" t="n">
-        <v>24.5</v>
+        <v>21</v>
       </c>
       <c r="J237" t="n">
-        <v>18.5</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="K237" t="n">
+        <v>33.33333333333334</v>
+      </c>
+      <c r="L237" t="n">
+        <v>24</v>
+      </c>
+      <c r="M237" t="n">
         <v>20</v>
       </c>
-      <c r="L237" t="n">
-        <v>17</v>
-      </c>
-      <c r="M237" t="n">
-        <v>16</v>
-      </c>
       <c r="N237" t="n">
-        <v>94.55500000000001</v>
+        <v>98.03666666666668</v>
       </c>
       <c r="O237" t="n">
-        <v>73.345</v>
+        <v>97.83</v>
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motilones Del Norte </t>
+          <t xml:space="preserve">Atenas Cordoba </t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Piratas de Bogota</t>
+          <t xml:space="preserve"> Deportivo Rivadavia Mendoza</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="D238" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="E238" t="n">
-        <v>2.81</v>
+        <v>2.92</v>
       </c>
       <c r="F238" t="n">
-        <v>22.4</v>
+        <v>10</v>
       </c>
       <c r="G238" t="n">
-        <v>23.4</v>
+        <v>12</v>
       </c>
       <c r="H238" t="n">
-        <v>15.8</v>
+        <v>11</v>
       </c>
       <c r="I238" t="n">
-        <v>22.2</v>
+        <v>8.5</v>
       </c>
       <c r="J238" t="n">
-        <v>19.8</v>
+        <v>9</v>
       </c>
       <c r="K238" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="L238" t="n">
-        <v>27.8</v>
+        <v>8.5</v>
       </c>
       <c r="M238" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N238" t="n">
-        <v>76.574</v>
+        <v>80.755</v>
       </c>
       <c r="O238" t="n">
-        <v>70.88</v>
+        <v>77.64</v>
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taiwan Beer </t>
+          <t xml:space="preserve">Regatas Corrientes </t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Yulon Dinos</t>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="D239" t="n">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="E239" t="n">
-        <v>0.6799999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="F239" t="n">
-        <v>20.75</v>
+        <v>20.8</v>
       </c>
       <c r="G239" t="n">
-        <v>17.75</v>
+        <v>17.8</v>
       </c>
       <c r="H239" t="n">
-        <v>18.5</v>
+        <v>20.8</v>
       </c>
       <c r="I239" t="n">
-        <v>13.75</v>
+        <v>20.8</v>
       </c>
       <c r="J239" t="n">
-        <v>23.75</v>
+        <v>18</v>
       </c>
       <c r="K239" t="n">
-        <v>17</v>
+        <v>16.8</v>
       </c>
       <c r="L239" t="n">
-        <v>21</v>
+        <v>16.8</v>
       </c>
       <c r="M239" t="n">
-        <v>18.5</v>
+        <v>20.2</v>
       </c>
       <c r="N239" t="n">
-        <v>72.9375</v>
+        <v>79.20800000000001</v>
       </c>
       <c r="O239" t="n">
-        <v>77.0825</v>
+        <v>74.562</v>
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bali United BC </t>
+          <t xml:space="preserve">Broncos De Caracas </t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pacific Caesar Surabaya</t>
+          <t xml:space="preserve"> Cancrejeros de Monagas</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="D240" t="n">
-        <v>6.3</v>
+        <v>3.25</v>
       </c>
       <c r="E240" t="n">
-        <v>5.22</v>
+        <v>1.97</v>
       </c>
       <c r="F240" t="n">
-        <v>25.14285714285714</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="G240" t="n">
-        <v>21.42857142857143</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="H240" t="n">
-        <v>26.14285714285714</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="I240" t="n">
-        <v>21</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="J240" t="n">
-        <v>21.28571428571428</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="K240" t="n">
-        <v>18.85714285714286</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="L240" t="n">
-        <v>18.71428571428572</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="M240" t="n">
-        <v>21.42857142857143</v>
+        <v>7</v>
       </c>
       <c r="N240" t="n">
-        <v>90.28571428571429</v>
+        <v>77.11766666666666</v>
       </c>
       <c r="O240" t="n">
-        <v>76.94428571428571</v>
+        <v>76.42933333333333</v>
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Helsinki Seagulls </t>
+          <t xml:space="preserve">Aguada </t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BC Nokia</t>
+          <t xml:space="preserve"> Club Nacional</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>1.6</v>
+        <v>1.28</v>
       </c>
       <c r="D241" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="E241" t="n">
-        <v>0.6000000000000001</v>
+        <v>2.02</v>
       </c>
       <c r="F241" t="n">
-        <v>16</v>
+        <v>22.25</v>
       </c>
       <c r="G241" t="n">
-        <v>20.28571428571428</v>
+        <v>18.875</v>
       </c>
       <c r="H241" t="n">
-        <v>16.42857142857143</v>
+        <v>20.25</v>
       </c>
       <c r="I241" t="n">
-        <v>23.71428571428572</v>
+        <v>20</v>
       </c>
       <c r="J241" t="n">
-        <v>19.71428571428572</v>
+        <v>21.5</v>
       </c>
       <c r="K241" t="n">
-        <v>17</v>
+        <v>23.5</v>
       </c>
       <c r="L241" t="n">
-        <v>22.28571428571428</v>
+        <v>18</v>
       </c>
       <c r="M241" t="n">
-        <v>18</v>
+        <v>17.25</v>
       </c>
       <c r="N241" t="n">
-        <v>77.42428571428572</v>
+        <v>87.205</v>
       </c>
       <c r="O241" t="n">
-        <v>76.92857142857143</v>
+        <v>80.80499999999999</v>
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">London Lions </t>
+          <t xml:space="preserve">Bucaros de Bucaramanga </t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Newcastle Eagles</t>
+          <t xml:space="preserve"> Caribbean Storm Islands</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>1.06</v>
+        <v>2.4</v>
       </c>
       <c r="D242" t="n">
-        <v>7.4</v>
+        <v>1.48</v>
       </c>
       <c r="E242" t="n">
-        <v>6.34</v>
+        <v>0.9199999999999999</v>
       </c>
       <c r="F242" t="n">
-        <v>23.375</v>
+        <v>15.25</v>
       </c>
       <c r="G242" t="n">
-        <v>22</v>
+        <v>20.75</v>
       </c>
       <c r="H242" t="n">
-        <v>21.75</v>
+        <v>20</v>
       </c>
       <c r="I242" t="n">
-        <v>22.625</v>
+        <v>23</v>
       </c>
       <c r="J242" t="n">
-        <v>21.625</v>
+        <v>20.5</v>
       </c>
       <c r="K242" t="n">
-        <v>24</v>
+        <v>13.75</v>
       </c>
       <c r="L242" t="n">
-        <v>17.625</v>
+        <v>19.75</v>
       </c>
       <c r="M242" t="n">
-        <v>27.125</v>
+        <v>21</v>
       </c>
       <c r="N242" t="n">
-        <v>90.09625</v>
+        <v>84.57250000000001</v>
       </c>
       <c r="O242" t="n">
-        <v>88.55624999999999</v>
+        <v>75.9675</v>
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve">CSKA Moscow </t>
+          <t xml:space="preserve">CB Cojute </t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Zenit Saint Petersburg</t>
+          <t xml:space="preserve"> Salvadorenos BC</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="D243" t="n">
-        <v>2.85</v>
+        <v>2.7</v>
       </c>
       <c r="E243" t="n">
-        <v>1.48</v>
+        <v>1.31</v>
       </c>
       <c r="F243" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="G243" t="n">
-        <v>18.75</v>
+        <v>20.25</v>
       </c>
       <c r="H243" t="n">
-        <v>23</v>
+        <v>20.25</v>
       </c>
       <c r="I243" t="n">
-        <v>23.25</v>
+        <v>24</v>
       </c>
       <c r="J243" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="K243" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L243" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="M243" t="n">
         <v>15.75</v>
       </c>
-      <c r="K243" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="L243" t="n">
-        <v>17</v>
-      </c>
-      <c r="M243" t="n">
-        <v>20.5</v>
-      </c>
       <c r="N243" t="n">
-        <v>83.60499999999999</v>
+        <v>81.105</v>
       </c>
       <c r="O243" t="n">
-        <v>82.0025</v>
+        <v>69.2325</v>
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Donar Groningen </t>
+          <t xml:space="preserve">Santa Ana BC </t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basketball Academie Limburg</t>
+          <t xml:space="preserve"> Brujos Izalco</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>1.22</v>
+        <v>1.07</v>
       </c>
       <c r="D244" t="n">
-        <v>3.7</v>
+        <v>6.6</v>
       </c>
       <c r="E244" t="n">
-        <v>2.48</v>
+        <v>5.529999999999999</v>
       </c>
       <c r="F244" t="n">
-        <v>23</v>
+        <v>20.2</v>
       </c>
       <c r="G244" t="n">
-        <v>23.125</v>
+        <v>16.6</v>
       </c>
       <c r="H244" t="n">
-        <v>19.5</v>
+        <v>19.2</v>
       </c>
       <c r="I244" t="n">
-        <v>22</v>
+        <v>20.6</v>
       </c>
       <c r="J244" t="n">
-        <v>23</v>
+        <v>15.6</v>
       </c>
       <c r="K244" t="n">
-        <v>15.125</v>
+        <v>18.6</v>
       </c>
       <c r="L244" t="n">
-        <v>20</v>
+        <v>14.6</v>
       </c>
       <c r="M244" t="n">
-        <v>19</v>
+        <v>15.8</v>
       </c>
       <c r="N244" t="n">
-        <v>83.62125</v>
+        <v>72.44799999999999</v>
       </c>
       <c r="O244" t="n">
-        <v>75.04124999999999</v>
+        <v>64.88200000000001</v>
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dewa United Surabaya </t>
+          <t xml:space="preserve">Sampaio Basquete </t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rans Pik Basketball Club</t>
+          <t xml:space="preserve"> SC Corinthians SP</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D245" t="n">
-        <v>7.7</v>
+        <v>7.75</v>
       </c>
       <c r="E245" t="n">
-        <v>6.65</v>
+        <v>6.71</v>
       </c>
       <c r="F245" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G245" t="n">
-        <v>21.85714285714286</v>
+        <v>21.8</v>
       </c>
       <c r="H245" t="n">
-        <v>26.28571428571428</v>
+        <v>17</v>
       </c>
       <c r="I245" t="n">
-        <v>15.57142857142857</v>
+        <v>15.8</v>
       </c>
       <c r="J245" t="n">
-        <v>20.28571428571428</v>
+        <v>21.2</v>
       </c>
       <c r="K245" t="n">
-        <v>21.28571428571428</v>
+        <v>19.6</v>
       </c>
       <c r="L245" t="n">
-        <v>19.85714285714286</v>
+        <v>17.8</v>
       </c>
       <c r="M245" t="n">
-        <v>20.85714285714286</v>
+        <v>17</v>
       </c>
       <c r="N245" t="n">
-        <v>86.27428571428571</v>
+        <v>74.89000000000001</v>
       </c>
       <c r="O245" t="n">
-        <v>81.96142857142857</v>
+        <v>72.95599999999999</v>
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Basketball Lowen Braunschweig </t>
+          <t xml:space="preserve">Hawke's Bay Hawks </t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ratiopharm Ulm</t>
+          <t xml:space="preserve"> Franklin Bulls</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>4.35</v>
+        <v>2.7</v>
       </c>
       <c r="D246" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="E246" t="n">
-        <v>3.1</v>
+        <v>1.29</v>
       </c>
       <c r="F246" t="n">
-        <v>20</v>
+        <v>30.2</v>
       </c>
       <c r="G246" t="n">
-        <v>23.11111111111111</v>
+        <v>25.6</v>
       </c>
       <c r="H246" t="n">
-        <v>21.66666666666667</v>
+        <v>25</v>
       </c>
       <c r="I246" t="n">
-        <v>20</v>
+        <v>27.8</v>
       </c>
       <c r="J246" t="n">
-        <v>20.22222222222222</v>
+        <v>28.2</v>
       </c>
       <c r="K246" t="n">
-        <v>19.77777777777778</v>
+        <v>24</v>
       </c>
       <c r="L246" t="n">
-        <v>17.22222222222222</v>
+        <v>23.4</v>
       </c>
       <c r="M246" t="n">
-        <v>18.55555555555556</v>
+        <v>21.4</v>
       </c>
       <c r="N246" t="n">
-        <v>84.25333333333333</v>
+        <v>98.694</v>
       </c>
       <c r="O246" t="n">
-        <v>77.08444444444444</v>
+        <v>89.152</v>
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baskets Bonn </t>
+          <t xml:space="preserve">San Miguel Beermen </t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Riesen Ludwigsburg</t>
+          <t xml:space="preserve"> Dyip</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>1.56</v>
+        <v>1.19</v>
       </c>
       <c r="D247" t="n">
-        <v>2.57</v>
+        <v>4.2</v>
       </c>
       <c r="E247" t="n">
-        <v>1.01</v>
+        <v>3.01</v>
       </c>
       <c r="F247" t="n">
-        <v>19.68</v>
+        <v>23.25</v>
       </c>
       <c r="G247" t="n">
-        <v>23.36</v>
+        <v>31.75</v>
       </c>
       <c r="H247" t="n">
-        <v>20.04</v>
+        <v>26.75</v>
       </c>
       <c r="I247" t="n">
-        <v>19.56</v>
+        <v>25.25</v>
       </c>
       <c r="J247" t="n">
-        <v>18.92</v>
+        <v>27.5</v>
       </c>
       <c r="K247" t="n">
-        <v>18.8</v>
+        <v>25.5</v>
       </c>
       <c r="L247" t="n">
-        <v>19.16</v>
+        <v>26.25</v>
       </c>
       <c r="M247" t="n">
-        <v>20.08</v>
+        <v>28.75</v>
       </c>
       <c r="N247" t="n">
-        <v>81.63079999999999</v>
+        <v>104.945</v>
       </c>
       <c r="O247" t="n">
-        <v>78.8244</v>
+        <v>100.45</v>
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baskets Oldenburg </t>
+          <t xml:space="preserve">Taoyuan Pilots </t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brose Bamberg</t>
+          <t xml:space="preserve"> New Taipei Kings</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="D248" t="n">
-        <v>2.28</v>
+        <v>2.95</v>
       </c>
       <c r="E248" t="n">
-        <v>0.5899999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="F248" t="n">
-        <v>23.46666666666667</v>
+        <v>24</v>
       </c>
       <c r="G248" t="n">
-        <v>20.73333333333333</v>
+        <v>24.25</v>
       </c>
       <c r="H248" t="n">
-        <v>23.66666666666667</v>
+        <v>22.75</v>
       </c>
       <c r="I248" t="n">
-        <v>21.46666666666667</v>
+        <v>25.5</v>
       </c>
       <c r="J248" t="n">
-        <v>20.46666666666667</v>
+        <v>26.25</v>
       </c>
       <c r="K248" t="n">
-        <v>19.93333333333333</v>
+        <v>31</v>
       </c>
       <c r="L248" t="n">
-        <v>22.33333333333333</v>
+        <v>23.75</v>
       </c>
       <c r="M248" t="n">
-        <v>20.2</v>
+        <v>23</v>
       </c>
       <c r="N248" t="n">
-        <v>90.07000000000001</v>
+        <v>92.19</v>
       </c>
       <c r="O248" t="n">
-        <v>83.84933333333332</v>
+        <v>97.49249999999999</v>
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bayern Munich </t>
+          <t xml:space="preserve">Tropang Giga </t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rostock Seawolves</t>
+          <t xml:space="preserve"> Rain or Shine Elasto Painters</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>1.1</v>
+        <v>1.74</v>
       </c>
       <c r="D249" t="n">
-        <v>8.23</v>
+        <v>1.97</v>
       </c>
       <c r="E249" t="n">
-        <v>7.130000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="F249" t="n">
-        <v>22</v>
+        <v>23.66666666666667</v>
       </c>
       <c r="G249" t="n">
-        <v>18.2</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="H249" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I249" t="n">
-        <v>19.5</v>
+        <v>31</v>
       </c>
       <c r="J249" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="K249" t="n">
-        <v>20.6</v>
+        <v>30</v>
       </c>
       <c r="L249" t="n">
-        <v>20.8</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="M249" t="n">
-        <v>18.9</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="N249" t="n">
-        <v>83.83699999999999</v>
+        <v>110.5833333333333</v>
       </c>
       <c r="O249" t="n">
-        <v>80.111</v>
+        <v>106.3133333333333</v>
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Crailsheim Merlins </t>
+          <t xml:space="preserve">Liaoning Flying Leopards </t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alba Berlin</t>
+          <t xml:space="preserve"> Xinjiang Flying Tigers</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>3.93</v>
+        <v>1.4</v>
       </c>
       <c r="D250" t="n">
-        <v>1.29</v>
+        <v>2.9</v>
       </c>
       <c r="E250" t="n">
-        <v>2.64</v>
+        <v>1.5</v>
       </c>
       <c r="F250" t="n">
-        <v>20.76923076923077</v>
+        <v>25.28571428571428</v>
       </c>
       <c r="G250" t="n">
-        <v>22.76923076923077</v>
+        <v>24.57142857142857</v>
       </c>
       <c r="H250" t="n">
-        <v>22.15384615384615</v>
+        <v>26.14285714285714</v>
       </c>
       <c r="I250" t="n">
-        <v>22.53846153846154</v>
+        <v>28.28571428571428</v>
       </c>
       <c r="J250" t="n">
-        <v>20.15384615384615</v>
+        <v>27.85714285714286</v>
       </c>
       <c r="K250" t="n">
-        <v>20.92307692307692</v>
+        <v>24.71428571428572</v>
       </c>
       <c r="L250" t="n">
-        <v>22.30769230769231</v>
+        <v>24.14285714285714</v>
       </c>
       <c r="M250" t="n">
-        <v>22.61538461538462</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="N250" t="n">
-        <v>88.51307692307692</v>
+        <v>102.85</v>
       </c>
       <c r="O250" t="n">
-        <v>86.08769230769229</v>
+        <v>96.94714285714288</v>
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rasta Vechta </t>
+          <t xml:space="preserve">Fenerbahce Istanbul </t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Mitteldeutscher BC</t>
+          <t xml:space="preserve"> Petkim Spor Aliaga</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="D251" t="n">
-        <v>6.22</v>
+        <v>10.12</v>
       </c>
       <c r="E251" t="n">
-        <v>5.07</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="F251" t="n">
-        <v>20.33333333333333</v>
+        <v>11</v>
       </c>
       <c r="G251" t="n">
-        <v>24.22222222222222</v>
+        <v>20.5</v>
       </c>
       <c r="H251" t="n">
-        <v>21.11111111111111</v>
+        <v>16.5</v>
       </c>
       <c r="I251" t="n">
-        <v>24.11111111111111</v>
+        <v>20.5</v>
       </c>
       <c r="J251" t="n">
-        <v>23.77777777777778</v>
+        <v>23.5</v>
       </c>
       <c r="K251" t="n">
-        <v>19.66666666666667</v>
+        <v>16</v>
       </c>
       <c r="L251" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="M251" t="n">
-        <v>22.66666666666667</v>
+        <v>27.5</v>
       </c>
       <c r="N251" t="n">
-        <v>91.71555555555557</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="O251" t="n">
-        <v>84.97999999999999</v>
+        <v>78.035</v>
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phoenix Hagen </t>
+          <t xml:space="preserve">Panathinaikos BC </t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t xml:space="preserve"> VFL Kirchheim Knights</t>
+          <t xml:space="preserve"> PAOK BC</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>1.38</v>
+        <v>1.05</v>
       </c>
       <c r="D252" t="n">
-        <v>2.95</v>
+        <v>14.38</v>
       </c>
       <c r="E252" t="n">
-        <v>1.57</v>
+        <v>13.33</v>
       </c>
       <c r="F252" t="n">
-        <v>19.66666666666667</v>
+        <v>21.28571428571428</v>
       </c>
       <c r="G252" t="n">
-        <v>21.88888888888889</v>
+        <v>24.85714285714286</v>
       </c>
       <c r="H252" t="n">
-        <v>19</v>
+        <v>23.85714285714286</v>
       </c>
       <c r="I252" t="n">
-        <v>19</v>
+        <v>22.71428571428572</v>
       </c>
       <c r="J252" t="n">
-        <v>16.88888888888889</v>
+        <v>24.57142857142857</v>
       </c>
       <c r="K252" t="n">
-        <v>20.55555555555556</v>
+        <v>16.71428571428572</v>
       </c>
       <c r="L252" t="n">
-        <v>19.22222222222222</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="M252" t="n">
-        <v>21.88888888888889</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="N252" t="n">
-        <v>79.10555555555555</v>
+        <v>86.86571428571428</v>
       </c>
       <c r="O252" t="n">
-        <v>78.47</v>
+        <v>81.82714285714287</v>
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Juventus Utena </t>
+          <t xml:space="preserve">Indiana Fever </t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
+          <t xml:space="preserve"> New York Liberty</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>2</v>
+        <v>3.83</v>
       </c>
       <c r="D253" t="n">
-        <v>1.78</v>
+        <v>1.3</v>
       </c>
       <c r="E253" t="n">
-        <v>0.22</v>
+        <v>2.53</v>
       </c>
       <c r="F253" t="n">
-        <v>24.33333333333333</v>
+        <v>22</v>
       </c>
       <c r="G253" t="n">
-        <v>22</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="H253" t="n">
-        <v>23.5</v>
+        <v>15.85714285714286</v>
       </c>
       <c r="I253" t="n">
-        <v>19.83333333333333</v>
+        <v>22.57142857142857</v>
       </c>
       <c r="J253" t="n">
-        <v>23.5</v>
+        <v>20.57142857142857</v>
       </c>
       <c r="K253" t="n">
-        <v>21.66666666666667</v>
+        <v>19.28571428571428</v>
       </c>
       <c r="L253" t="n">
-        <v>21.83333333333333</v>
+        <v>18</v>
       </c>
       <c r="M253" t="n">
-        <v>21.5</v>
+        <v>20.14285714285714</v>
       </c>
       <c r="N253" t="n">
-        <v>90.15833333333335</v>
+        <v>84.66714285714286</v>
       </c>
       <c r="O253" t="n">
-        <v>83.02999999999999</v>
+        <v>82.59714285714286</v>
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Universitatea Cluj-Napoca </t>
+          <t xml:space="preserve">Atleticos de San German </t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CSM CSU Oradea</t>
+          <t xml:space="preserve"> Gigantes de Carolina</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1.19</v>
+        <v>1.58</v>
       </c>
       <c r="D254" t="n">
-        <v>4.1</v>
+        <v>2.2</v>
       </c>
       <c r="E254" t="n">
-        <v>2.91</v>
+        <v>0.6200000000000001</v>
       </c>
       <c r="F254" t="n">
-        <v>21.28571428571428</v>
+        <v>23.8</v>
       </c>
       <c r="G254" t="n">
-        <v>18.5</v>
+        <v>20.6</v>
       </c>
       <c r="H254" t="n">
-        <v>20.07142857142857</v>
+        <v>26.8</v>
       </c>
       <c r="I254" t="n">
-        <v>20.92857142857143</v>
+        <v>26</v>
       </c>
       <c r="J254" t="n">
-        <v>19.78571428571428</v>
+        <v>22</v>
       </c>
       <c r="K254" t="n">
-        <v>21.35714285714286</v>
+        <v>21.4</v>
       </c>
       <c r="L254" t="n">
-        <v>18.71428571428572</v>
+        <v>21.8</v>
       </c>
       <c r="M254" t="n">
-        <v>19.14285714285714</v>
+        <v>26.6</v>
       </c>
       <c r="N254" t="n">
-        <v>79.35000000000001</v>
+        <v>96.476</v>
       </c>
       <c r="O254" t="n">
-        <v>80.39142857142858</v>
+        <v>92.64000000000001</v>
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">UCC Piacenza </t>
+          <t xml:space="preserve">Indios de Mayaguez </t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pallacanestro Trapani</t>
+          <t xml:space="preserve"> Mets de Guaynabo</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>3</v>
+        <v>1.51</v>
       </c>
       <c r="D255" t="n">
-        <v>1.32</v>
+        <v>2.35</v>
       </c>
       <c r="E255" t="n">
-        <v>1.68</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="F255" t="n">
-        <v>20.66666666666667</v>
+        <v>24.85714285714286</v>
       </c>
       <c r="G255" t="n">
-        <v>18.66666666666667</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="H255" t="n">
-        <v>23</v>
+        <v>26.42857142857143</v>
       </c>
       <c r="I255" t="n">
-        <v>16.5</v>
+        <v>23.57142857142857</v>
       </c>
       <c r="J255" t="n">
-        <v>17.5</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="K255" t="n">
-        <v>22.66666666666667</v>
+        <v>22</v>
       </c>
       <c r="L255" t="n">
-        <v>16</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="M255" t="n">
-        <v>16.33333333333333</v>
+        <v>23.28571428571428</v>
       </c>
       <c r="N255" t="n">
-        <v>82.95666666666666</v>
+        <v>92.77142857142857</v>
       </c>
       <c r="O255" t="n">
-        <v>76.81166666666665</v>
+        <v>85.55857142857144</v>
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">UBSC Graz </t>
+          <t xml:space="preserve">Defensor Sporting </t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BK Dukes Klosterneuburg</t>
+          <t xml:space="preserve"> CA Penarol</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1.97</v>
+        <v>2.3</v>
       </c>
       <c r="D256" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="E256" t="n">
-        <v>0.1599999999999999</v>
+        <v>0.7399999999999998</v>
       </c>
       <c r="F256" t="n">
-        <v>18.44444444444444</v>
+        <v>20.5</v>
       </c>
       <c r="G256" t="n">
-        <v>20.77777777777778</v>
+        <v>16.25</v>
       </c>
       <c r="H256" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I256" t="n">
-        <v>23.66666666666667</v>
+        <v>11.5</v>
       </c>
       <c r="J256" t="n">
-        <v>17.77777777777778</v>
+        <v>22.25</v>
       </c>
       <c r="K256" t="n">
-        <v>24.33333333333333</v>
+        <v>16.75</v>
       </c>
       <c r="L256" t="n">
-        <v>19.11111111111111</v>
+        <v>14.5</v>
       </c>
       <c r="M256" t="n">
-        <v>22.66666666666667</v>
+        <v>17.5</v>
       </c>
       <c r="N256" t="n">
-        <v>85.17444444444443</v>
+        <v>72.83500000000001</v>
       </c>
       <c r="O256" t="n">
-        <v>81.18222222222224</v>
+        <v>73.1525</v>
       </c>
       <c r="P256" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sheffield Sharks </t>
+          <t xml:space="preserve">Minnesota Timberwolves </t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cheshire Phoenix</t>
+          <t xml:space="preserve"> Denver Nuggets</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="D257" t="n">
-        <v>1.94</v>
+        <v>2.16</v>
       </c>
       <c r="E257" t="n">
-        <v>0.1699999999999999</v>
+        <v>0.3600000000000001</v>
       </c>
       <c r="F257" t="n">
-        <v>24.625</v>
+        <v>25</v>
       </c>
       <c r="G257" t="n">
-        <v>21.875</v>
+        <v>23.25</v>
       </c>
       <c r="H257" t="n">
-        <v>20.75</v>
+        <v>25.75</v>
       </c>
       <c r="I257" t="n">
-        <v>22.125</v>
+        <v>28.75</v>
       </c>
       <c r="J257" t="n">
-        <v>21.25</v>
+        <v>28</v>
       </c>
       <c r="K257" t="n">
-        <v>22</v>
+        <v>29.5</v>
       </c>
       <c r="L257" t="n">
-        <v>18.25</v>
+        <v>29.75</v>
       </c>
       <c r="M257" t="n">
-        <v>24.375</v>
+        <v>25.5</v>
       </c>
       <c r="N257" t="n">
-        <v>91.92375000000001</v>
+        <v>101.7925</v>
       </c>
       <c r="O257" t="n">
-        <v>87.96250000000001</v>
+        <v>111.0025</v>
       </c>
       <c r="P257" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Olimpia Milano </t>
+          <t xml:space="preserve">La Union Formosa </t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Aquila Basket Trento</t>
+          <t xml:space="preserve"> CA San Lorenzo de Almagro</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>1.13</v>
+        <v>1.78</v>
       </c>
       <c r="D258" t="n">
-        <v>7.38</v>
+        <v>2</v>
       </c>
       <c r="E258" t="n">
-        <v>6.25</v>
+        <v>0.22</v>
       </c>
       <c r="F258" t="n">
-        <v>22.63636363636364</v>
+        <v>20.25</v>
       </c>
       <c r="G258" t="n">
-        <v>21.72727272727273</v>
+        <v>19</v>
       </c>
       <c r="H258" t="n">
-        <v>20.09090909090909</v>
+        <v>18.25</v>
       </c>
       <c r="I258" t="n">
-        <v>19.45454545454545</v>
+        <v>23.25</v>
       </c>
       <c r="J258" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="K258" t="n">
-        <v>22.54545454545455</v>
+        <v>19.75</v>
       </c>
       <c r="L258" t="n">
-        <v>18.81818181818182</v>
+        <v>17</v>
       </c>
       <c r="M258" t="n">
-        <v>20.63636363636364</v>
+        <v>20.25</v>
       </c>
       <c r="N258" t="n">
-        <v>82.62363636363636</v>
+        <v>79.46250000000001</v>
       </c>
       <c r="O258" t="n">
-        <v>84.73454545454545</v>
+        <v>75.18000000000001</v>
       </c>
       <c r="P258" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Benedetto Xiv Cento </t>
+          <t xml:space="preserve">Canterbury Rams </t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t xml:space="preserve"> San Giobbe Chiusi</t>
+          <t xml:space="preserve"> Whai</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1.52</v>
+        <v>1.03</v>
       </c>
       <c r="D259" t="n">
-        <v>2.4</v>
+        <v>9.4</v>
       </c>
       <c r="E259" t="n">
-        <v>0.8799999999999999</v>
+        <v>8.370000000000001</v>
       </c>
       <c r="F259" t="n">
-        <v>18.875</v>
+        <v>26.4</v>
       </c>
       <c r="G259" t="n">
+        <v>20</v>
+      </c>
+      <c r="H259" t="n">
         <v>17</v>
       </c>
-      <c r="H259" t="n">
-        <v>19.5</v>
-      </c>
       <c r="I259" t="n">
-        <v>18.25</v>
+        <v>21.2</v>
       </c>
       <c r="J259" t="n">
-        <v>19.5</v>
+        <v>15.8</v>
       </c>
       <c r="K259" t="n">
-        <v>22.25</v>
+        <v>18.4</v>
       </c>
       <c r="L259" t="n">
-        <v>18.25</v>
+        <v>17.4</v>
       </c>
       <c r="M259" t="n">
-        <v>17.5</v>
+        <v>20.8</v>
       </c>
       <c r="N259" t="n">
-        <v>74.3875</v>
+        <v>84.51599999999999</v>
       </c>
       <c r="O259" t="n">
-        <v>77.94</v>
+        <v>77.614</v>
       </c>
       <c r="P259" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elachem Vigevano 1955 </t>
+          <t xml:space="preserve">Rain or Shine Elasto Painters </t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Pallacanestro 2.015 Forli</t>
+          <t xml:space="preserve"> San Miguel Beermen</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="D260" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="E260" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="F260" t="n">
-        <v>24.5</v>
+        <v>23.375</v>
       </c>
       <c r="G260" t="n">
-        <v>24.5</v>
+        <v>24.125</v>
       </c>
       <c r="H260" t="n">
-        <v>21.75</v>
+        <v>26.375</v>
       </c>
       <c r="I260" t="n">
-        <v>19.25</v>
+        <v>28.25</v>
       </c>
       <c r="J260" t="n">
-        <v>17.25</v>
+        <v>22</v>
       </c>
       <c r="K260" t="n">
-        <v>14.75</v>
+        <v>25.625</v>
       </c>
       <c r="L260" t="n">
-        <v>16</v>
+        <v>27.375</v>
       </c>
       <c r="M260" t="n">
-        <v>19</v>
+        <v>24.125</v>
       </c>
       <c r="N260" t="n">
-        <v>85.5775</v>
+        <v>105.145</v>
       </c>
       <c r="O260" t="n">
-        <v>70.8</v>
+        <v>103.94125</v>
       </c>
       <c r="P260" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frata Nardo </t>
+          <t xml:space="preserve">Hapoel Haifa BC </t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ASD Latina Basket</t>
+          <t xml:space="preserve"> Hapoel Afula</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>1.36</v>
+        <v>1.68</v>
       </c>
       <c r="D261" t="n">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="E261" t="n">
-        <v>1.54</v>
+        <v>0.47</v>
       </c>
       <c r="F261" t="n">
-        <v>24.5</v>
+        <v>19.42857142857143</v>
       </c>
       <c r="G261" t="n">
-        <v>20.25</v>
+        <v>21.85714285714286</v>
       </c>
       <c r="H261" t="n">
-        <v>18</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="I261" t="n">
-        <v>17.5</v>
+        <v>19.85714285714286</v>
       </c>
       <c r="J261" t="n">
-        <v>23.75</v>
+        <v>20.28571428571428</v>
       </c>
       <c r="K261" t="n">
-        <v>15.25</v>
+        <v>21</v>
       </c>
       <c r="L261" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="M261" t="n">
         <v>20</v>
       </c>
       <c r="N261" t="n">
-        <v>83.93000000000001</v>
+        <v>82.62142857142855</v>
       </c>
       <c r="O261" t="n">
-        <v>79.4875</v>
+        <v>81.28</v>
       </c>
       <c r="P261" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Luiss Roma </t>
+          <t xml:space="preserve">Willetton Tigers </t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fortitudo Agrigento</t>
+          <t xml:space="preserve"> Mandurah Magic</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>1.57</v>
+        <v>1.06</v>
       </c>
       <c r="D262" t="n">
-        <v>2.25</v>
+        <v>6.7</v>
       </c>
       <c r="E262" t="n">
-        <v>0.6799999999999999</v>
+        <v>5.640000000000001</v>
       </c>
       <c r="F262" t="n">
-        <v>21.1</v>
+        <v>25</v>
       </c>
       <c r="G262" t="n">
-        <v>20</v>
+        <v>23.5</v>
       </c>
       <c r="H262" t="n">
-        <v>17.6</v>
+        <v>21.5</v>
       </c>
       <c r="I262" t="n">
-        <v>19.6</v>
+        <v>26.5</v>
       </c>
       <c r="J262" t="n">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="K262" t="n">
-        <v>19.1</v>
+        <v>17.5</v>
       </c>
       <c r="L262" t="n">
-        <v>21.6</v>
+        <v>24</v>
       </c>
       <c r="M262" t="n">
-        <v>17.9</v>
+        <v>23.25</v>
       </c>
       <c r="N262" t="n">
-        <v>77.20599999999999</v>
+        <v>92.145</v>
       </c>
       <c r="O262" t="n">
-        <v>76.212</v>
+        <v>93.25500000000001</v>
       </c>
       <c r="P262" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t xml:space="preserve">CS Dinamo Bucuresti </t>
+          <t xml:space="preserve">Hapoel Beer Sheva </t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CSU Sibiu</t>
+          <t xml:space="preserve"> Hapoel Eilat</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="D263" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="E263" t="n">
-        <v>1.02</v>
+        <v>1.5</v>
       </c>
       <c r="F263" t="n">
-        <v>24.25</v>
+        <v>15.375</v>
       </c>
       <c r="G263" t="n">
-        <v>19.5</v>
+        <v>16.375</v>
       </c>
       <c r="H263" t="n">
-        <v>21.83333333333333</v>
+        <v>14.5</v>
       </c>
       <c r="I263" t="n">
-        <v>19.66666666666667</v>
+        <v>18.375</v>
       </c>
       <c r="J263" t="n">
-        <v>22.83333333333333</v>
+        <v>14.625</v>
       </c>
       <c r="K263" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="L263" t="n">
-        <v>19</v>
+        <v>14.75</v>
       </c>
       <c r="M263" t="n">
-        <v>19</v>
+        <v>13.75</v>
       </c>
       <c r="N263" t="n">
-        <v>85.08166666666666</v>
+        <v>65.24249999999999</v>
       </c>
       <c r="O263" t="n">
-        <v>81.18833333333333</v>
+        <v>63.02875</v>
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Spartak Pleven </t>
+          <t xml:space="preserve">Bnei Herzelia </t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Rilski Sportist</t>
+          <t xml:space="preserve"> Ironi Ness Ziona</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="D264" t="n">
-        <v>1.78</v>
+        <v>2.4</v>
       </c>
       <c r="E264" t="n">
-        <v>0.1499999999999999</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="F264" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="G264" t="n">
         <v>18.5</v>
       </c>
-      <c r="G264" t="n">
-        <v>21</v>
-      </c>
       <c r="H264" t="n">
-        <v>20.875</v>
+        <v>19.5</v>
       </c>
       <c r="I264" t="n">
-        <v>22.125</v>
+        <v>20.5</v>
       </c>
       <c r="J264" t="n">
-        <v>19.25</v>
+        <v>18.25</v>
       </c>
       <c r="K264" t="n">
-        <v>19.25</v>
+        <v>23.75</v>
       </c>
       <c r="L264" t="n">
-        <v>18.5</v>
+        <v>22.5</v>
       </c>
       <c r="M264" t="n">
-        <v>19.625</v>
+        <v>20</v>
       </c>
       <c r="N264" t="n">
-        <v>83.8475</v>
+        <v>83.14</v>
       </c>
       <c r="O264" t="n">
-        <v>78.18875</v>
+        <v>83.205</v>
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t xml:space="preserve">MKS Dabrowa Gornicza </t>
+          <t xml:space="preserve">Bumi Borneo Basketball Pontianak </t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Trefl Sopot</t>
+          <t xml:space="preserve"> Dewa United Surabaya</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>1.78</v>
+        <v>5.9</v>
       </c>
       <c r="D265" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="E265" t="n">
-        <v>0.22</v>
+        <v>4.800000000000001</v>
       </c>
       <c r="F265" t="n">
-        <v>15.66666666666667</v>
+        <v>19.25</v>
       </c>
       <c r="G265" t="n">
-        <v>26</v>
+        <v>23.5</v>
       </c>
       <c r="H265" t="n">
-        <v>24.33333333333333</v>
+        <v>19.75</v>
       </c>
       <c r="I265" t="n">
-        <v>21.66666666666667</v>
+        <v>19.5</v>
       </c>
       <c r="J265" t="n">
-        <v>25.33333333333333</v>
+        <v>20.5</v>
       </c>
       <c r="K265" t="n">
-        <v>17.66666666666667</v>
+        <v>22.5</v>
       </c>
       <c r="L265" t="n">
-        <v>26</v>
+        <v>22.5</v>
       </c>
       <c r="M265" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N265" t="n">
-        <v>91.26333333333332</v>
+        <v>85.43000000000001</v>
       </c>
       <c r="O265" t="n">
-        <v>86.50666666666666</v>
+        <v>90.44</v>
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oberwart Gunners </t>
+          <t xml:space="preserve">Bolts </t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Traiskirchen Lions</t>
+          <t xml:space="preserve"> Barangay Ginebra</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="D266" t="n">
-        <v>2.2</v>
+        <v>1.56</v>
       </c>
       <c r="E266" t="n">
-        <v>0.5500000000000003</v>
+        <v>0.7399999999999998</v>
       </c>
       <c r="F266" t="n">
-        <v>17.75</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="G266" t="n">
-        <v>15.25</v>
+        <v>25</v>
       </c>
       <c r="H266" t="n">
-        <v>17.375</v>
+        <v>20</v>
       </c>
       <c r="I266" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J266" t="n">
-        <v>17.875</v>
+        <v>25.66666666666667</v>
       </c>
       <c r="K266" t="n">
-        <v>19.875</v>
+        <v>16.33333333333333</v>
       </c>
       <c r="L266" t="n">
-        <v>16.25</v>
+        <v>29.66666666666667</v>
       </c>
       <c r="M266" t="n">
-        <v>17.5</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="N266" t="n">
-        <v>71.79124999999999</v>
+        <v>90.44</v>
       </c>
       <c r="O266" t="n">
-        <v>74.6425</v>
+        <v>88.75333333333333</v>
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve">NKA Universitas Pecs </t>
+          <t xml:space="preserve">Cocodrilos de Caracas </t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Budapesti Honved SE</t>
+          <t xml:space="preserve"> Diablos de Miranda</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1.34</v>
+        <v>1.17</v>
       </c>
       <c r="D267" t="n">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E267" t="n">
-        <v>1.66</v>
+        <v>3.03</v>
       </c>
       <c r="F267" t="n">
-        <v>20.11111111111111</v>
+        <v>22.6</v>
       </c>
       <c r="G267" t="n">
-        <v>20.33333333333333</v>
+        <v>14.6</v>
       </c>
       <c r="H267" t="n">
-        <v>20.88888888888889</v>
+        <v>18.2</v>
       </c>
       <c r="I267" t="n">
-        <v>19.88888888888889</v>
+        <v>14.4</v>
       </c>
       <c r="J267" t="n">
-        <v>21.11111111111111</v>
+        <v>23.6</v>
       </c>
       <c r="K267" t="n">
-        <v>18.55555555555556</v>
+        <v>15.2</v>
       </c>
       <c r="L267" t="n">
-        <v>19.88888888888889</v>
+        <v>22.2</v>
       </c>
       <c r="M267" t="n">
-        <v>18.77777777777778</v>
+        <v>16.6</v>
       </c>
       <c r="N267" t="n">
-        <v>81.68222222222222</v>
+        <v>72.28587878787877</v>
       </c>
       <c r="O267" t="n">
-        <v>77.86888888888888</v>
+        <v>78.69785238095237</v>
       </c>
       <c r="P267" t="inlineStr">
         <is>
@@ -15414,52 +15414,52 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Basket Golfo Piombino </t>
+          <t xml:space="preserve">Llaneros de Guarico </t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Talos Ruvo Di Puglia</t>
+          <t xml:space="preserve"> Broncos De Caracas</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="D268" t="n">
-        <v>1.7</v>
+        <v>1.56</v>
       </c>
       <c r="E268" t="n">
-        <v>0.3499999999999999</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F268" t="n">
-        <v>22.5</v>
+        <v>12.875</v>
       </c>
       <c r="G268" t="n">
-        <v>19.83333333333333</v>
+        <v>14.5</v>
       </c>
       <c r="H268" t="n">
-        <v>19.5</v>
+        <v>12.25</v>
       </c>
       <c r="I268" t="n">
-        <v>19</v>
+        <v>9.375</v>
       </c>
       <c r="J268" t="n">
-        <v>18.66666666666667</v>
+        <v>8.875</v>
       </c>
       <c r="K268" t="n">
-        <v>19.33333333333333</v>
+        <v>11.625</v>
       </c>
       <c r="L268" t="n">
-        <v>21.16666666666667</v>
+        <v>10.75</v>
       </c>
       <c r="M268" t="n">
-        <v>19.16666666666667</v>
+        <v>10.625</v>
       </c>
       <c r="N268" t="n">
-        <v>78.90666666666667</v>
+        <v>74.32715750334225</v>
       </c>
       <c r="O268" t="n">
-        <v>78.45166666666667</v>
+        <v>72.52518729065054</v>
       </c>
       <c r="P268" t="inlineStr">
         <is>
@@ -15470,52 +15470,52 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Raggisolaris Faenza </t>
+          <t xml:space="preserve">Panteras De Miranda </t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Libertas Livorno</t>
+          <t xml:space="preserve"> Centauros de Portuguesa</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="D269" t="n">
-        <v>2.15</v>
+        <v>1.94</v>
       </c>
       <c r="E269" t="n">
-        <v>0.5299999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="F269" t="n">
-        <v>19.8</v>
+        <v>18.625</v>
       </c>
       <c r="G269" t="n">
-        <v>16.8</v>
+        <v>16.25</v>
       </c>
       <c r="H269" t="n">
-        <v>23.2</v>
+        <v>19.375</v>
       </c>
       <c r="I269" t="n">
-        <v>16.4</v>
+        <v>15.125</v>
       </c>
       <c r="J269" t="n">
-        <v>17.8</v>
+        <v>21.875</v>
       </c>
       <c r="K269" t="n">
-        <v>19.8</v>
+        <v>17.125</v>
       </c>
       <c r="L269" t="n">
-        <v>13.2</v>
+        <v>19.5</v>
       </c>
       <c r="M269" t="n">
-        <v>17.6</v>
+        <v>18.75</v>
       </c>
       <c r="N269" t="n">
-        <v>77.074</v>
+        <v>72.08115214646465</v>
       </c>
       <c r="O269" t="n">
-        <v>71.83799999999999</v>
+        <v>74.20677985209235</v>
       </c>
       <c r="P269" t="inlineStr">
         <is>
@@ -15526,52 +15526,52 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Basquet Girona </t>
+          <t xml:space="preserve">Atlanta Dream </t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basket Zaragoza 2002</t>
+          <t xml:space="preserve"> Dallas Wings</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="D270" t="n">
-        <v>2.81</v>
+        <v>2.94</v>
       </c>
       <c r="E270" t="n">
-        <v>1.33</v>
+        <v>1.51</v>
       </c>
       <c r="F270" t="n">
-        <v>18.11111111111111</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="G270" t="n">
-        <v>17.33333333333333</v>
+        <v>19</v>
       </c>
       <c r="H270" t="n">
-        <v>15.33333333333333</v>
+        <v>23</v>
       </c>
       <c r="I270" t="n">
-        <v>14.22222222222222</v>
+        <v>21</v>
       </c>
       <c r="J270" t="n">
-        <v>14.33333333333333</v>
+        <v>22.66666666666667</v>
       </c>
       <c r="K270" t="n">
-        <v>15.11111111111111</v>
+        <v>20.5</v>
       </c>
       <c r="L270" t="n">
-        <v>14.88888888888889</v>
+        <v>18.5</v>
       </c>
       <c r="M270" t="n">
-        <v>15.88888888888889</v>
+        <v>21.33333333333333</v>
       </c>
       <c r="N270" t="n">
-        <v>66.38666666666667</v>
+        <v>87.10833333333335</v>
       </c>
       <c r="O270" t="n">
-        <v>61.24222222222223</v>
+        <v>86.30166666666666</v>
       </c>
       <c r="P270" t="inlineStr">
         <is>
@@ -15582,52 +15582,52 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Andorra </t>
+          <t xml:space="preserve">Trotamundos de Carabobo </t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Valencia Basket</t>
+          <t xml:space="preserve"> Taurinos de Aragua</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>2.93</v>
+        <v>1.2</v>
       </c>
       <c r="D271" t="n">
-        <v>1.45</v>
+        <v>3.9</v>
       </c>
       <c r="E271" t="n">
-        <v>1.48</v>
+        <v>2.7</v>
       </c>
       <c r="F271" t="n">
-        <v>21.86666666666667</v>
+        <v>22.25</v>
       </c>
       <c r="G271" t="n">
-        <v>22.86666666666667</v>
+        <v>17.125</v>
       </c>
       <c r="H271" t="n">
-        <v>21.6</v>
+        <v>20.125</v>
       </c>
       <c r="I271" t="n">
-        <v>22.46666666666667</v>
+        <v>20.875</v>
       </c>
       <c r="J271" t="n">
-        <v>20.2</v>
+        <v>15.25</v>
       </c>
       <c r="K271" t="n">
-        <v>18.46666666666667</v>
+        <v>20.875</v>
       </c>
       <c r="L271" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="M271" t="n">
-        <v>21.26666666666667</v>
+        <v>22.625</v>
       </c>
       <c r="N271" t="n">
-        <v>90.02333333333333</v>
+        <v>78.20750000000001</v>
       </c>
       <c r="O271" t="n">
-        <v>81.97533333333332</v>
+        <v>76.46143749999999</v>
       </c>
       <c r="P271" t="inlineStr">
         <is>
@@ -15638,52 +15638,52 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bilbao Basket </t>
+          <t xml:space="preserve">Boston Celtics </t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FC Barcelona</t>
+          <t xml:space="preserve"> Indiana Pacers</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>3.95</v>
+        <v>1.23</v>
       </c>
       <c r="D272" t="n">
-        <v>1.29</v>
+        <v>4.77</v>
       </c>
       <c r="E272" t="n">
-        <v>2.66</v>
+        <v>3.54</v>
       </c>
       <c r="F272" t="n">
-        <v>18.14285714285714</v>
+        <v>34.75</v>
       </c>
       <c r="G272" t="n">
-        <v>20.57142857142857</v>
+        <v>30</v>
       </c>
       <c r="H272" t="n">
-        <v>20.85714285714286</v>
+        <v>31</v>
       </c>
       <c r="I272" t="n">
-        <v>20.14285714285714</v>
+        <v>30.75</v>
       </c>
       <c r="J272" t="n">
-        <v>18.42857142857143</v>
+        <v>32</v>
       </c>
       <c r="K272" t="n">
-        <v>17.71428571428572</v>
+        <v>31.25</v>
       </c>
       <c r="L272" t="n">
-        <v>19.71428571428572</v>
+        <v>25</v>
       </c>
       <c r="M272" t="n">
-        <v>21.57142857142857</v>
+        <v>25.25</v>
       </c>
       <c r="N272" t="n">
-        <v>80.24285714285715</v>
+        <v>112.4425</v>
       </c>
       <c r="O272" t="n">
-        <v>77</v>
+        <v>107.0275</v>
       </c>
       <c r="P272" t="inlineStr">
         <is>
@@ -15694,52 +15694,52 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t xml:space="preserve">CB 1939 Canarias </t>
+          <t xml:space="preserve">Independiente de Oliva </t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Basquet Manresa</t>
+          <t xml:space="preserve"> CA Platense</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="D273" t="n">
-        <v>2.43</v>
+        <v>1.87</v>
       </c>
       <c r="E273" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.0299999999999998</v>
       </c>
       <c r="F273" t="n">
-        <v>23.85714285714286</v>
+        <v>17.88888888888889</v>
       </c>
       <c r="G273" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H273" t="n">
-        <v>16.57142857142857</v>
+        <v>18.88888888888889</v>
       </c>
       <c r="I273" t="n">
-        <v>26</v>
+        <v>18.44444444444444</v>
       </c>
       <c r="J273" t="n">
-        <v>17</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="K273" t="n">
-        <v>17.28571428571428</v>
+        <v>18.11111111111111</v>
       </c>
       <c r="L273" t="n">
-        <v>20.57142857142857</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="M273" t="n">
-        <v>20.28571428571428</v>
+        <v>16.22222222222222</v>
       </c>
       <c r="N273" t="n">
-        <v>84.73285714285714</v>
+        <v>75.03222222222222</v>
       </c>
       <c r="O273" t="n">
-        <v>82.53571428571429</v>
+        <v>69.52888888888889</v>
       </c>
       <c r="P273" t="inlineStr">
         <is>
@@ -15750,52 +15750,52 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t xml:space="preserve">CB Malaga </t>
+          <t xml:space="preserve">La Union Formosa </t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CD Maristas Palencia</t>
+          <t xml:space="preserve"> Obras Sanitarias</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1.05</v>
+        <v>1.97</v>
       </c>
       <c r="D274" t="n">
-        <v>13.63</v>
+        <v>1.8</v>
       </c>
       <c r="E274" t="n">
-        <v>12.58</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="F274" t="n">
-        <v>19.4</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="G274" t="n">
-        <v>19.2</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="H274" t="n">
-        <v>23.2</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="I274" t="n">
-        <v>25.4</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="J274" t="n">
-        <v>19.4</v>
+        <v>16.5</v>
       </c>
       <c r="K274" t="n">
-        <v>24.8</v>
+        <v>17.83333333333333</v>
       </c>
       <c r="L274" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="M274" t="n">
-        <v>24.4</v>
+        <v>14</v>
       </c>
       <c r="N274" t="n">
-        <v>85.22799999999999</v>
+        <v>76.65166666666666</v>
       </c>
       <c r="O274" t="n">
-        <v>89.71799999999999</v>
+        <v>69.58499999999999</v>
       </c>
       <c r="P274" t="inlineStr">
         <is>
@@ -15806,52 +15806,52 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t xml:space="preserve">CB Murcia </t>
+          <t xml:space="preserve">CA Penarol </t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CB Breogan</t>
+          <t xml:space="preserve"> Defensor Sporting</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="D275" t="n">
-        <v>4.65</v>
+        <v>3.5</v>
       </c>
       <c r="E275" t="n">
-        <v>3.42</v>
+        <v>2.24</v>
       </c>
       <c r="F275" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G275" t="n">
-        <v>18.625</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="H275" t="n">
-        <v>22</v>
+        <v>26.83333333333333</v>
       </c>
       <c r="I275" t="n">
-        <v>22.375</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="J275" t="n">
-        <v>15.5</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="K275" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="L275" t="n">
-        <v>23.375</v>
+        <v>21</v>
       </c>
       <c r="M275" t="n">
-        <v>20.5</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="N275" t="n">
-        <v>84.73625000000001</v>
+        <v>83.33833333333332</v>
       </c>
       <c r="O275" t="n">
-        <v>78.7975</v>
+        <v>80.54666666666667</v>
       </c>
       <c r="P275" t="inlineStr">
         <is>
@@ -15862,52 +15862,52 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve">GRANADA </t>
+          <t xml:space="preserve">Piratas de Bogota </t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CB Gran Canaria</t>
+          <t xml:space="preserve"> Titanes de Barranquilla</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1.79</v>
+        <v>1.45</v>
       </c>
       <c r="D276" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="E276" t="n">
-        <v>0.3300000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="F276" t="n">
-        <v>20.14285714285714</v>
+        <v>22.8</v>
       </c>
       <c r="G276" t="n">
-        <v>19.28571428571428</v>
+        <v>18.9</v>
       </c>
       <c r="H276" t="n">
-        <v>17.57142857142857</v>
+        <v>23.3</v>
       </c>
       <c r="I276" t="n">
-        <v>23.85714285714286</v>
+        <v>21.4</v>
       </c>
       <c r="J276" t="n">
-        <v>22.28571428571428</v>
+        <v>19.7</v>
       </c>
       <c r="K276" t="n">
-        <v>17.14285714285714</v>
+        <v>19.9</v>
       </c>
       <c r="L276" t="n">
-        <v>19.85714285714286</v>
+        <v>18.9</v>
       </c>
       <c r="M276" t="n">
-        <v>20.28571428571428</v>
+        <v>19.2</v>
       </c>
       <c r="N276" t="n">
-        <v>88.09571428571429</v>
+        <v>85.75</v>
       </c>
       <c r="O276" t="n">
-        <v>79.05142857142856</v>
+        <v>76.82199999999999</v>
       </c>
       <c r="P276" t="inlineStr">
         <is>
@@ -15918,52 +15918,52 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Obradoiro CAB </t>
+          <t xml:space="preserve">Ciclista Olimpico de La Banda </t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Club Joventut Badalona</t>
+          <t xml:space="preserve"> Gimnasia de Comodoro</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="D277" t="n">
-        <v>3.09</v>
+        <v>3</v>
       </c>
       <c r="E277" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="F277" t="n">
-        <v>23.25</v>
+        <v>19.57142857142857</v>
       </c>
       <c r="G277" t="n">
-        <v>20.25</v>
+        <v>18.42857142857143</v>
       </c>
       <c r="H277" t="n">
-        <v>19.91666666666667</v>
+        <v>20.57142857142857</v>
       </c>
       <c r="I277" t="n">
-        <v>21.5</v>
+        <v>21.71428571428572</v>
       </c>
       <c r="J277" t="n">
-        <v>19.33333333333333</v>
+        <v>18.57142857142857</v>
       </c>
       <c r="K277" t="n">
-        <v>18.41666666666667</v>
+        <v>18.14285714285714</v>
       </c>
       <c r="L277" t="n">
-        <v>23.16666666666667</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="M277" t="n">
-        <v>20.75</v>
+        <v>20.14285714285714</v>
       </c>
       <c r="N277" t="n">
-        <v>85.27083333333334</v>
+        <v>82.08285714285715</v>
       </c>
       <c r="O277" t="n">
-        <v>81.58749999999999</v>
+        <v>76.81142857142858</v>
       </c>
       <c r="P277" t="inlineStr">
         <is>
@@ -15974,52 +15974,52 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vasco Da Gama </t>
+          <t xml:space="preserve">BC Chalchuapa United </t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bauru Basket SP</t>
+          <t xml:space="preserve"> San Salvador BC</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="D278" t="n">
-        <v>1.86</v>
+        <v>1.55</v>
       </c>
       <c r="E278" t="n">
-        <v>0.04999999999999982</v>
+        <v>0.7</v>
       </c>
       <c r="F278" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="G278" t="n">
-        <v>18.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="H278" t="n">
-        <v>21.16666666666667</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I278" t="n">
-        <v>17.16666666666667</v>
+        <v>18.83333333333333</v>
       </c>
       <c r="J278" t="n">
-        <v>20.5</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="K278" t="n">
-        <v>15.66666666666667</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="L278" t="n">
-        <v>17.33333333333333</v>
+        <v>16.16666666666667</v>
       </c>
       <c r="M278" t="n">
-        <v>20.16666666666667</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="N278" t="n">
-        <v>77.47500000000001</v>
+        <v>73.34333333333335</v>
       </c>
       <c r="O278" t="n">
-        <v>74.51000000000001</v>
+        <v>63.45333333333334</v>
       </c>
       <c r="P278" t="inlineStr">
         <is>
@@ -16030,52 +16030,52 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kk Split </t>
+          <t xml:space="preserve">Las Vegas Aces </t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> KK Cibona</t>
+          <t xml:space="preserve"> Phoenix Mercury</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="D279" t="n">
-        <v>4.2</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E279" t="n">
-        <v>3.01</v>
+        <v>7.800000000000001</v>
       </c>
       <c r="F279" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="G279" t="n">
-        <v>23.14285714285714</v>
+        <v>18.8</v>
       </c>
       <c r="H279" t="n">
-        <v>21.57142857142857</v>
+        <v>20.5</v>
       </c>
       <c r="I279" t="n">
-        <v>21</v>
+        <v>21.5</v>
       </c>
       <c r="J279" t="n">
-        <v>17.14285714285714</v>
+        <v>18.3</v>
       </c>
       <c r="K279" t="n">
-        <v>22.28571428571428</v>
+        <v>17.9</v>
       </c>
       <c r="L279" t="n">
-        <v>21.42857142857143</v>
+        <v>16.8</v>
       </c>
       <c r="M279" t="n">
-        <v>15.71428571428571</v>
+        <v>20.9</v>
       </c>
       <c r="N279" t="n">
-        <v>86.36857142857143</v>
+        <v>82.41300000000001</v>
       </c>
       <c r="O279" t="n">
-        <v>76.41428571428571</v>
+        <v>76.57799999999999</v>
       </c>
       <c r="P279" t="inlineStr">
         <is>
@@ -16086,52 +16086,52 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Slask Wroclaw </t>
+          <t xml:space="preserve">Los Angeles Sparks </t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Stal Ostrow Wielkopolski</t>
+          <t xml:space="preserve"> Washington Mystics</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="D280" t="n">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="E280" t="n">
-        <v>0.1399999999999999</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="F280" t="n">
-        <v>20.66666666666667</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="G280" t="n">
-        <v>25.33333333333333</v>
+        <v>22.16666666666667</v>
       </c>
       <c r="H280" t="n">
-        <v>18.66666666666667</v>
+        <v>23.16666666666667</v>
       </c>
       <c r="I280" t="n">
-        <v>17.33333333333333</v>
+        <v>17.5</v>
       </c>
       <c r="J280" t="n">
-        <v>20.33333333333333</v>
+        <v>22</v>
       </c>
       <c r="K280" t="n">
-        <v>22.66666666666667</v>
+        <v>19.5</v>
       </c>
       <c r="L280" t="n">
-        <v>19</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="M280" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="N280" t="n">
-        <v>88.83</v>
+        <v>86.06</v>
       </c>
       <c r="O280" t="n">
-        <v>85.21666666666667</v>
+        <v>82.64999999999999</v>
       </c>
       <c r="P280" t="inlineStr">
         <is>
@@ -16142,54 +16142,1398 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Indiana Pacers </t>
+          <t xml:space="preserve">Taranaki Mountainairs </t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New York Knicks</t>
+          <t xml:space="preserve"> Hawke's Bay Hawks</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="D281" t="n">
-        <v>2.9</v>
+        <v>4.9</v>
       </c>
       <c r="E281" t="n">
+        <v>3.760000000000001</v>
+      </c>
+      <c r="F281" t="n">
+        <v>23.83333333333333</v>
+      </c>
+      <c r="G281" t="n">
+        <v>26</v>
+      </c>
+      <c r="H281" t="n">
+        <v>23.66666666666667</v>
+      </c>
+      <c r="I281" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="J281" t="n">
+        <v>25.16666666666667</v>
+      </c>
+      <c r="K281" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="L281" t="n">
+        <v>27</v>
+      </c>
+      <c r="M281" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="N281" t="n">
+        <v>105.9266666666667</v>
+      </c>
+      <c r="O281" t="n">
+        <v>89.81833333333334</v>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ryukyu Golden Kings Okinawa </t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chiba Jets Funabashi</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>0.6999999999999997</v>
+      </c>
+      <c r="F282" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="G282" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="H282" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="I282" t="n">
+        <v>22</v>
+      </c>
+      <c r="J282" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="K282" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="L282" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="M282" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="N282" t="n">
+        <v>73.6125</v>
+      </c>
+      <c r="O282" t="n">
+        <v>72.71250000000001</v>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BC Zalgiris Kaunas </t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="D283" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="E283" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="F283" t="n">
+        <v>10</v>
+      </c>
+      <c r="G283" t="n">
+        <v>13</v>
+      </c>
+      <c r="H283" t="n">
+        <v>8</v>
+      </c>
+      <c r="I283" t="n">
+        <v>13</v>
+      </c>
+      <c r="J283" t="n">
+        <v>12</v>
+      </c>
+      <c r="K283" t="n">
+        <v>11</v>
+      </c>
+      <c r="L283" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M283" t="n">
+        <v>10</v>
+      </c>
+      <c r="N283" t="n">
+        <v>84.72</v>
+      </c>
+      <c r="O283" t="n">
+        <v>89.82499999999999</v>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elitzur Kiryat Atta </t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Maccabi Ironi Ramat Gan</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="E284" t="n">
+        <v>0.5500000000000003</v>
+      </c>
+      <c r="F284" t="n">
+        <v>15.66666666666667</v>
+      </c>
+      <c r="G284" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="H284" t="n">
+        <v>15</v>
+      </c>
+      <c r="I284" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="J284" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="K284" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="L284" t="n">
+        <v>16</v>
+      </c>
+      <c r="M284" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="N284" t="n">
+        <v>67.03666666666668</v>
+      </c>
+      <c r="O284" t="n">
+        <v>68.14666666666666</v>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kk Rapla </t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Kk Parnu</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="D285" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E285" t="n">
+        <v>0.6699999999999999</v>
+      </c>
+      <c r="F285" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="G285" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="H285" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="I285" t="n">
+        <v>16</v>
+      </c>
+      <c r="J285" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K285" t="n">
+        <v>24</v>
+      </c>
+      <c r="L285" t="n">
+        <v>21</v>
+      </c>
+      <c r="M285" t="n">
+        <v>18</v>
+      </c>
+      <c r="N285" t="n">
+        <v>73.035</v>
+      </c>
+      <c r="O285" t="n">
+        <v>74.12</v>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basketball Nymburk </t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Sluneta Usti nad Labem</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D286" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="E286" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="F286" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="G286" t="n">
+        <v>19</v>
+      </c>
+      <c r="H286" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="I286" t="n">
+        <v>24.33333333333333</v>
+      </c>
+      <c r="J286" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="K286" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="L286" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="M286" t="n">
+        <v>14.66666666666667</v>
+      </c>
+      <c r="N286" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="O286" t="n">
+        <v>78.23333333333333</v>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Baskets Bonn </t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Alba Berlin</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="D287" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E287" t="n">
+        <v>0.9299999999999997</v>
+      </c>
+      <c r="F287" t="n">
+        <v>19.15789473684211</v>
+      </c>
+      <c r="G287" t="n">
+        <v>21.84210526315789</v>
+      </c>
+      <c r="H287" t="n">
+        <v>19.26315789473684</v>
+      </c>
+      <c r="I287" t="n">
+        <v>20.78947368421053</v>
+      </c>
+      <c r="J287" t="n">
+        <v>19.15789473684211</v>
+      </c>
+      <c r="K287" t="n">
+        <v>17.15789473684211</v>
+      </c>
+      <c r="L287" t="n">
+        <v>18.84210526315789</v>
+      </c>
+      <c r="M287" t="n">
+        <v>17.52631578947368</v>
+      </c>
+      <c r="N287" t="n">
+        <v>80.82315789473685</v>
+      </c>
+      <c r="O287" t="n">
+        <v>73.82052631578945</v>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phoenix Hagen </t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PS Karlsruhe Lions</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D288" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E288" t="n">
+        <v>0.8499999999999999</v>
+      </c>
+      <c r="F288" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="G288" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="H288" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="I288" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J288" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="K288" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="L288" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="M288" t="n">
+        <v>18</v>
+      </c>
+      <c r="N288" t="n">
+        <v>84.27499999999999</v>
+      </c>
+      <c r="O288" t="n">
+        <v>81.0975</v>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KK Krka Novo Mesto </t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Helios Domzale</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
         <v>1.42</v>
       </c>
-      <c r="F281" t="n">
-        <v>29</v>
-      </c>
-      <c r="G281" t="n">
-        <v>29</v>
-      </c>
-      <c r="H281" t="n">
-        <v>27.25</v>
-      </c>
-      <c r="I281" t="n">
-        <v>29.25</v>
-      </c>
-      <c r="J281" t="n">
-        <v>24.75</v>
-      </c>
-      <c r="K281" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="L281" t="n">
-        <v>31</v>
-      </c>
-      <c r="M281" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="N281" t="n">
-        <v>114.82</v>
-      </c>
-      <c r="O281" t="n">
-        <v>107.4075</v>
-      </c>
-      <c r="P281" t="inlineStr">
+      <c r="D289" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E289" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="F289" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="G289" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="H289" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="I289" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="J289" t="n">
+        <v>26.33333333333333</v>
+      </c>
+      <c r="K289" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="L289" t="n">
+        <v>22.33333333333333</v>
+      </c>
+      <c r="M289" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="N289" t="n">
+        <v>81.505</v>
+      </c>
+      <c r="O289" t="n">
+        <v>81.52166666666668</v>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">FC Porto </t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ovarense Basquetebol</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="D290" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="E290" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="F290" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="G290" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="H290" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="I290" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="J290" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="K290" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L290" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="M290" t="n">
+        <v>20</v>
+      </c>
+      <c r="N290" t="n">
+        <v>75.77249999999999</v>
+      </c>
+      <c r="O290" t="n">
+        <v>75.23999999999999</v>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rasta Vechta </t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Niners Chemnitz</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D291" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="E291" t="n">
+        <v>0.1399999999999999</v>
+      </c>
+      <c r="F291" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="G291" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="H291" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="I291" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="J291" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="K291" t="n">
+        <v>22.2</v>
+      </c>
+      <c r="L291" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="M291" t="n">
+        <v>22</v>
+      </c>
+      <c r="N291" t="n">
+        <v>83.134</v>
+      </c>
+      <c r="O291" t="n">
+        <v>85.24799999999999</v>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Basquet Manresa </t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> CB Malaga</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="E292" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="F292" t="n">
+        <v>19</v>
+      </c>
+      <c r="G292" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="H292" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="I292" t="n">
+        <v>28</v>
+      </c>
+      <c r="J292" t="n">
+        <v>16</v>
+      </c>
+      <c r="K292" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="L292" t="n">
+        <v>20</v>
+      </c>
+      <c r="M292" t="n">
+        <v>28</v>
+      </c>
+      <c r="N292" t="n">
+        <v>88.16499999999999</v>
+      </c>
+      <c r="O292" t="n">
+        <v>80.05500000000001</v>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paris Basketball </t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Cholet Basket</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="D293" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="E293" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="F293" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="G293" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H293" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="I293" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J293" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K293" t="n">
+        <v>14</v>
+      </c>
+      <c r="L293" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="M293" t="n">
+        <v>14</v>
+      </c>
+      <c r="N293" t="n">
+        <v>73.63499999999999</v>
+      </c>
+      <c r="O293" t="n">
+        <v>81.19500000000001</v>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fortitudo Bologna </t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Real Sebastiani Rieti</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="D294" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="E294" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="F294" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="G294" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="H294" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="I294" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="J294" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="K294" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="L294" t="n">
+        <v>20.83333333333333</v>
+      </c>
+      <c r="M294" t="n">
+        <v>17.16666666666667</v>
+      </c>
+      <c r="N294" t="n">
+        <v>74.26333333333334</v>
+      </c>
+      <c r="O294" t="n">
+        <v>72.37833333333333</v>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pallacanestro 2.015 Forli </t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Trieste 2004</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="D295" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E295" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="F295" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="G295" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="H295" t="n">
+        <v>15</v>
+      </c>
+      <c r="I295" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J295" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K295" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L295" t="n">
+        <v>13</v>
+      </c>
+      <c r="M295" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="N295" t="n">
+        <v>67.47</v>
+      </c>
+      <c r="O295" t="n">
+        <v>74.97999999999999</v>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pallacanestro Cantu </t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> APU Udine</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="D296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E296" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="F296" t="n">
+        <v>21</v>
+      </c>
+      <c r="G296" t="n">
+        <v>15</v>
+      </c>
+      <c r="H296" t="n">
+        <v>18.66666666666667</v>
+      </c>
+      <c r="I296" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="J296" t="n">
+        <v>19.33333333333333</v>
+      </c>
+      <c r="K296" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="L296" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="M296" t="n">
+        <v>19</v>
+      </c>
+      <c r="N296" t="n">
+        <v>71.80666666666667</v>
+      </c>
+      <c r="O296" t="n">
+        <v>67.29333333333334</v>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Virtus Basket Padova </t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Pallacanestro Vicenza</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="D297" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0.4500000000000002</v>
+      </c>
+      <c r="F297" t="n">
+        <v>22</v>
+      </c>
+      <c r="G297" t="n">
+        <v>19</v>
+      </c>
+      <c r="H297" t="n">
+        <v>20</v>
+      </c>
+      <c r="I297" t="n">
+        <v>14</v>
+      </c>
+      <c r="J297" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="K297" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="L297" t="n">
+        <v>18</v>
+      </c>
+      <c r="M297" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="N297" t="n">
+        <v>75.28799999999998</v>
+      </c>
+      <c r="O297" t="n">
+        <v>68.05199999999999</v>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libertas Livorno </t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Basket Jesi Academy</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="D298" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="E298" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="F298" t="n">
+        <v>17</v>
+      </c>
+      <c r="G298" t="n">
+        <v>20.16666666666667</v>
+      </c>
+      <c r="H298" t="n">
+        <v>18.16666666666667</v>
+      </c>
+      <c r="I298" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="J298" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="K298" t="n">
+        <v>13.66666666666667</v>
+      </c>
+      <c r="L298" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="M298" t="n">
+        <v>17.33333333333333</v>
+      </c>
+      <c r="N298" t="n">
+        <v>79.64999999999999</v>
+      </c>
+      <c r="O298" t="n">
+        <v>64.645</v>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pallacanestro Roseto </t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Fabriano Basket</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="E299" t="n">
+        <v>0.9600000000000002</v>
+      </c>
+      <c r="F299" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="G299" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H299" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="I299" t="n">
+        <v>16</v>
+      </c>
+      <c r="J299" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>20</v>
+      </c>
+      <c r="L299" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="M299" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="N299" t="n">
+        <v>64.578</v>
+      </c>
+      <c r="O299" t="n">
+        <v>62.676</v>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PF Schio </t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Umana Venezia</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="E300" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="F300" t="n">
+        <v>22.85714285714286</v>
+      </c>
+      <c r="G300" t="n">
+        <v>24.57142857142857</v>
+      </c>
+      <c r="H300" t="n">
+        <v>22.14285714285714</v>
+      </c>
+      <c r="I300" t="n">
+        <v>18.28571428571428</v>
+      </c>
+      <c r="J300" t="n">
+        <v>14.28571428571429</v>
+      </c>
+      <c r="K300" t="n">
+        <v>19.14285714285714</v>
+      </c>
+      <c r="L300" t="n">
+        <v>14.85714285714286</v>
+      </c>
+      <c r="M300" t="n">
+        <v>18</v>
+      </c>
+      <c r="N300" t="n">
+        <v>81.83714285714287</v>
+      </c>
+      <c r="O300" t="n">
+        <v>70.43999999999998</v>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Talos Ruvo Di Puglia </t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Herons Basket</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E301" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="F301" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="G301" t="n">
+        <v>19</v>
+      </c>
+      <c r="H301" t="n">
+        <v>17.2</v>
+      </c>
+      <c r="I301" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="J301" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="K301" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="L301" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="M301" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N301" t="n">
+        <v>72.768</v>
+      </c>
+      <c r="O301" t="n">
+        <v>71.34999999999999</v>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sao Jose Dos Campos </t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> SC Corinthians SP</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>6</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E302" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="F302" t="n">
+        <v>21</v>
+      </c>
+      <c r="G302" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H302" t="n">
+        <v>17</v>
+      </c>
+      <c r="I302" t="n">
+        <v>15.8</v>
+      </c>
+      <c r="J302" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="K302" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="L302" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="M302" t="n">
+        <v>17</v>
+      </c>
+      <c r="N302" t="n">
+        <v>74.89000000000001</v>
+      </c>
+      <c r="O302" t="n">
+        <v>72.95599999999999</v>
+      </c>
+      <c r="P302" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aguada </t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Club Nacional</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="D303" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="F303" t="n">
+        <v>21.61538461538462</v>
+      </c>
+      <c r="G303" t="n">
+        <v>19.76923076923077</v>
+      </c>
+      <c r="H303" t="n">
+        <v>19.84615384615385</v>
+      </c>
+      <c r="I303" t="n">
+        <v>17.23076923076923</v>
+      </c>
+      <c r="J303" t="n">
+        <v>21.76923076923077</v>
+      </c>
+      <c r="K303" t="n">
+        <v>22.15384615384615</v>
+      </c>
+      <c r="L303" t="n">
+        <v>21.15384615384615</v>
+      </c>
+      <c r="M303" t="n">
+        <v>17.53846153846154</v>
+      </c>
+      <c r="N303" t="n">
+        <v>81.08</v>
+      </c>
+      <c r="O303" t="n">
+        <v>80.91769230769231</v>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bauru Basket SP </t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Flamengo RJ</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>3</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="E304" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="F304" t="n">
+        <v>17.28571428571428</v>
+      </c>
+      <c r="G304" t="n">
+        <v>18</v>
+      </c>
+      <c r="H304" t="n">
+        <v>24</v>
+      </c>
+      <c r="I304" t="n">
+        <v>19.57142857142857</v>
+      </c>
+      <c r="J304" t="n">
+        <v>18</v>
+      </c>
+      <c r="K304" t="n">
+        <v>16</v>
+      </c>
+      <c r="L304" t="n">
+        <v>18.85714285714286</v>
+      </c>
+      <c r="M304" t="n">
+        <v>20.71428571428572</v>
+      </c>
+      <c r="N304" t="n">
+        <v>79.60428571428572</v>
+      </c>
+      <c r="O304" t="n">
+        <v>71.23714285714286</v>
+      </c>
+      <c r="P304" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santo Andre/Apaba </t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Vera Cruz Campinas</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E305" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="F305" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="G305" t="n">
+        <v>15.33333333333333</v>
+      </c>
+      <c r="H305" t="n">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="I305" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="J305" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="K305" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="L305" t="n">
+        <v>18</v>
+      </c>
+      <c r="M305" t="n">
+        <v>18.33333333333333</v>
+      </c>
+      <c r="N305" t="n">
+        <v>61.25</v>
+      </c>
+      <c r="O305" t="n">
+        <v>66.06666666666666</v>
+      </c>
+      <c r="P305" t="inlineStr">
         <is>
           <t>pending</t>
         </is>

--- a/bak/ml_bb.xlsx
+++ b/bak/ml_bb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P305"/>
+  <dimension ref="A1:P289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15358,2184 +15358,1288 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cocodrilos de Caracas </t>
+          <t xml:space="preserve">Ryukyu Golden Kings Okinawa </t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Diablos de Miranda</t>
+          <t xml:space="preserve"> Chiba Jets Funabashi</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>1.17</v>
+        <v>2.3</v>
       </c>
       <c r="D267" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="E267" t="n">
-        <v>3.03</v>
+        <v>0.6999999999999997</v>
       </c>
       <c r="F267" t="n">
-        <v>22.6</v>
+        <v>19.25</v>
       </c>
       <c r="G267" t="n">
-        <v>14.6</v>
+        <v>24.25</v>
       </c>
       <c r="H267" t="n">
-        <v>18.2</v>
+        <v>15.25</v>
       </c>
       <c r="I267" t="n">
-        <v>14.4</v>
+        <v>22</v>
       </c>
       <c r="J267" t="n">
-        <v>23.6</v>
+        <v>13.25</v>
       </c>
       <c r="K267" t="n">
-        <v>15.2</v>
+        <v>21.25</v>
       </c>
       <c r="L267" t="n">
-        <v>22.2</v>
+        <v>16.25</v>
       </c>
       <c r="M267" t="n">
-        <v>16.6</v>
+        <v>21.25</v>
       </c>
       <c r="N267" t="n">
-        <v>72.28587878787877</v>
+        <v>73.6125</v>
       </c>
       <c r="O267" t="n">
-        <v>78.69785238095237</v>
+        <v>72.71250000000001</v>
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Llaneros de Guarico </t>
+          <t xml:space="preserve">BC Zalgiris Kaunas </t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Broncos De Caracas</t>
+          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>2.25</v>
+        <v>1.11</v>
       </c>
       <c r="D268" t="n">
-        <v>1.56</v>
+        <v>6.2</v>
       </c>
       <c r="E268" t="n">
-        <v>0.6899999999999999</v>
+        <v>5.09</v>
       </c>
       <c r="F268" t="n">
-        <v>12.875</v>
+        <v>10</v>
       </c>
       <c r="G268" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="H268" t="n">
-        <v>12.25</v>
+        <v>8</v>
       </c>
       <c r="I268" t="n">
-        <v>9.375</v>
+        <v>13</v>
       </c>
       <c r="J268" t="n">
-        <v>8.875</v>
+        <v>12</v>
       </c>
       <c r="K268" t="n">
-        <v>11.625</v>
+        <v>11</v>
       </c>
       <c r="L268" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="M268" t="n">
-        <v>10.625</v>
+        <v>10</v>
       </c>
       <c r="N268" t="n">
-        <v>74.32715750334225</v>
+        <v>84.72</v>
       </c>
       <c r="O268" t="n">
-        <v>72.52518729065054</v>
+        <v>89.82499999999999</v>
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Panteras De Miranda </t>
+          <t xml:space="preserve">Elitzur Kiryat Atta </t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Centauros de Portuguesa</t>
+          <t xml:space="preserve"> Maccabi Ironi Ramat Gan</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>1.74</v>
+        <v>2.2</v>
       </c>
       <c r="D269" t="n">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="E269" t="n">
-        <v>0.2</v>
+        <v>0.5500000000000003</v>
       </c>
       <c r="F269" t="n">
-        <v>18.625</v>
+        <v>15.66666666666667</v>
       </c>
       <c r="G269" t="n">
-        <v>16.25</v>
+        <v>10.66666666666667</v>
       </c>
       <c r="H269" t="n">
-        <v>19.375</v>
+        <v>15</v>
       </c>
       <c r="I269" t="n">
-        <v>15.125</v>
+        <v>14.33333333333333</v>
       </c>
       <c r="J269" t="n">
-        <v>21.875</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="K269" t="n">
-        <v>17.125</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="L269" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="M269" t="n">
-        <v>18.75</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="N269" t="n">
-        <v>72.08115214646465</v>
+        <v>67.03666666666668</v>
       </c>
       <c r="O269" t="n">
-        <v>74.20677985209235</v>
+        <v>68.14666666666666</v>
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Atlanta Dream </t>
+          <t xml:space="preserve">Kk Rapla </t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Dallas Wings</t>
+          <t xml:space="preserve"> Kk Parnu</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>1.43</v>
+        <v>1.58</v>
       </c>
       <c r="D270" t="n">
-        <v>2.94</v>
+        <v>2.25</v>
       </c>
       <c r="E270" t="n">
-        <v>1.51</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="F270" t="n">
-        <v>21.66666666666667</v>
+        <v>16.5</v>
       </c>
       <c r="G270" t="n">
-        <v>19</v>
+        <v>21.5</v>
       </c>
       <c r="H270" t="n">
-        <v>23</v>
+        <v>21.5</v>
       </c>
       <c r="I270" t="n">
+        <v>16</v>
+      </c>
+      <c r="J270" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="K270" t="n">
+        <v>24</v>
+      </c>
+      <c r="L270" t="n">
         <v>21</v>
       </c>
-      <c r="J270" t="n">
-        <v>22.66666666666667</v>
-      </c>
-      <c r="K270" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L270" t="n">
-        <v>18.5</v>
-      </c>
       <c r="M270" t="n">
-        <v>21.33333333333333</v>
+        <v>18</v>
       </c>
       <c r="N270" t="n">
-        <v>87.10833333333335</v>
+        <v>73.035</v>
       </c>
       <c r="O270" t="n">
-        <v>86.30166666666666</v>
+        <v>74.12</v>
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Trotamundos de Carabobo </t>
+          <t xml:space="preserve">Basketball Nymburk </t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Taurinos de Aragua</t>
+          <t xml:space="preserve"> Sluneta Usti nad Labem</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="D271" t="n">
-        <v>3.9</v>
+        <v>7.75</v>
       </c>
       <c r="E271" t="n">
-        <v>2.7</v>
+        <v>6.68</v>
       </c>
       <c r="F271" t="n">
-        <v>22.25</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="G271" t="n">
-        <v>17.125</v>
+        <v>19</v>
       </c>
       <c r="H271" t="n">
-        <v>20.125</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="I271" t="n">
-        <v>20.875</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="J271" t="n">
-        <v>15.25</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="K271" t="n">
-        <v>20.875</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="L271" t="n">
-        <v>20.5</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="M271" t="n">
-        <v>22.625</v>
+        <v>14.66666666666667</v>
       </c>
       <c r="N271" t="n">
-        <v>78.20750000000001</v>
+        <v>80.25</v>
       </c>
       <c r="O271" t="n">
-        <v>76.46143749999999</v>
+        <v>78.23333333333333</v>
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boston Celtics </t>
+          <t xml:space="preserve">Baskets Bonn </t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Indiana Pacers</t>
+          <t xml:space="preserve"> Alba Berlin</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>1.23</v>
+        <v>2.53</v>
       </c>
       <c r="D272" t="n">
-        <v>4.77</v>
+        <v>1.6</v>
       </c>
       <c r="E272" t="n">
-        <v>3.54</v>
+        <v>0.9299999999999997</v>
       </c>
       <c r="F272" t="n">
-        <v>34.75</v>
+        <v>19.15789473684211</v>
       </c>
       <c r="G272" t="n">
-        <v>30</v>
+        <v>21.84210526315789</v>
       </c>
       <c r="H272" t="n">
-        <v>31</v>
+        <v>19.26315789473684</v>
       </c>
       <c r="I272" t="n">
-        <v>30.75</v>
+        <v>20.78947368421053</v>
       </c>
       <c r="J272" t="n">
-        <v>32</v>
+        <v>19.15789473684211</v>
       </c>
       <c r="K272" t="n">
-        <v>31.25</v>
+        <v>17.15789473684211</v>
       </c>
       <c r="L272" t="n">
-        <v>25</v>
+        <v>18.84210526315789</v>
       </c>
       <c r="M272" t="n">
-        <v>25.25</v>
+        <v>17.52631578947368</v>
       </c>
       <c r="N272" t="n">
-        <v>112.4425</v>
+        <v>80.82315789473685</v>
       </c>
       <c r="O272" t="n">
-        <v>107.0275</v>
+        <v>73.82052631578945</v>
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Independiente de Oliva </t>
+          <t xml:space="preserve">Phoenix Hagen </t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA Platense</t>
+          <t xml:space="preserve"> PS Karlsruhe Lions</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="D273" t="n">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="E273" t="n">
-        <v>0.0299999999999998</v>
+        <v>0.8499999999999999</v>
       </c>
       <c r="F273" t="n">
-        <v>17.88888888888889</v>
+        <v>15.5</v>
       </c>
       <c r="G273" t="n">
-        <v>22</v>
+        <v>26.25</v>
       </c>
       <c r="H273" t="n">
-        <v>18.88888888888889</v>
+        <v>19.5</v>
       </c>
       <c r="I273" t="n">
-        <v>18.44444444444444</v>
+        <v>22.5</v>
       </c>
       <c r="J273" t="n">
-        <v>15.33333333333333</v>
+        <v>19.75</v>
       </c>
       <c r="K273" t="n">
-        <v>18.11111111111111</v>
+        <v>16.75</v>
       </c>
       <c r="L273" t="n">
-        <v>19.66666666666667</v>
+        <v>20.5</v>
       </c>
       <c r="M273" t="n">
-        <v>16.22222222222222</v>
+        <v>18</v>
       </c>
       <c r="N273" t="n">
-        <v>75.03222222222222</v>
+        <v>84.27499999999999</v>
       </c>
       <c r="O273" t="n">
-        <v>69.52888888888889</v>
+        <v>81.0975</v>
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Union Formosa </t>
+          <t xml:space="preserve">KK Krka Novo Mesto </t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Obras Sanitarias</t>
+          <t xml:space="preserve"> Helios Domzale</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>1.97</v>
+        <v>1.42</v>
       </c>
       <c r="D274" t="n">
-        <v>1.8</v>
+        <v>2.65</v>
       </c>
       <c r="E274" t="n">
-        <v>0.1699999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="F274" t="n">
-        <v>21.66666666666667</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="G274" t="n">
-        <v>17.33333333333333</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="H274" t="n">
-        <v>17.83333333333333</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="I274" t="n">
-        <v>18.33333333333333</v>
+        <v>19.66666666666667</v>
       </c>
       <c r="J274" t="n">
-        <v>16.5</v>
+        <v>26.33333333333333</v>
       </c>
       <c r="K274" t="n">
-        <v>17.83333333333333</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="L274" t="n">
-        <v>17.5</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="M274" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="N274" t="n">
-        <v>76.65166666666666</v>
+        <v>81.505</v>
       </c>
       <c r="O274" t="n">
-        <v>69.58499999999999</v>
+        <v>81.52166666666668</v>
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t xml:space="preserve">CA Penarol </t>
+          <t xml:space="preserve">FC Porto </t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Defensor Sporting</t>
+          <t xml:space="preserve"> Ovarense Basquetebol</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>1.26</v>
+        <v>1.08</v>
       </c>
       <c r="D275" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="E275" t="n">
-        <v>2.24</v>
+        <v>6.32</v>
       </c>
       <c r="F275" t="n">
-        <v>18</v>
+        <v>19.75</v>
       </c>
       <c r="G275" t="n">
-        <v>20.83333333333333</v>
+        <v>16.75</v>
       </c>
       <c r="H275" t="n">
-        <v>26.83333333333333</v>
+        <v>20.75</v>
       </c>
       <c r="I275" t="n">
-        <v>18.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="J275" t="n">
-        <v>20.66666666666667</v>
+        <v>17.75</v>
       </c>
       <c r="K275" t="n">
-        <v>21</v>
+        <v>19.25</v>
       </c>
       <c r="L275" t="n">
-        <v>21</v>
+        <v>14.25</v>
       </c>
       <c r="M275" t="n">
-        <v>18.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="N275" t="n">
-        <v>83.33833333333332</v>
+        <v>75.77249999999999</v>
       </c>
       <c r="O275" t="n">
-        <v>80.54666666666667</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Piratas de Bogota </t>
+          <t xml:space="preserve">Rasta Vechta </t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Titanes de Barranquilla</t>
+          <t xml:space="preserve"> Niners Chemnitz</t>
         </is>
       </c>
       <c r="C276" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="D276" t="n">
-        <v>2.5</v>
+        <v>2.03</v>
       </c>
       <c r="E276" t="n">
-        <v>1.05</v>
+        <v>0.1399999999999999</v>
       </c>
       <c r="F276" t="n">
-        <v>22.8</v>
+        <v>19.8</v>
       </c>
       <c r="G276" t="n">
-        <v>18.9</v>
+        <v>24.8</v>
       </c>
       <c r="H276" t="n">
-        <v>23.3</v>
+        <v>17.4</v>
       </c>
       <c r="I276" t="n">
-        <v>21.4</v>
+        <v>23.6</v>
       </c>
       <c r="J276" t="n">
-        <v>19.7</v>
+        <v>22.4</v>
       </c>
       <c r="K276" t="n">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="L276" t="n">
-        <v>18.9</v>
+        <v>20.6</v>
       </c>
       <c r="M276" t="n">
-        <v>19.2</v>
+        <v>22</v>
       </c>
       <c r="N276" t="n">
-        <v>85.75</v>
+        <v>83.134</v>
       </c>
       <c r="O276" t="n">
-        <v>76.82199999999999</v>
+        <v>85.24799999999999</v>
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ciclista Olimpico de La Banda </t>
+          <t xml:space="preserve">Basquet Manresa </t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Gimnasia de Comodoro</t>
+          <t xml:space="preserve"> CB Malaga</t>
         </is>
       </c>
       <c r="C277" t="n">
-        <v>1.38</v>
+        <v>2.74</v>
       </c>
       <c r="D277" t="n">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="E277" t="n">
-        <v>1.62</v>
+        <v>1.21</v>
       </c>
       <c r="F277" t="n">
-        <v>19.57142857142857</v>
+        <v>19</v>
       </c>
       <c r="G277" t="n">
-        <v>18.42857142857143</v>
+        <v>18.5</v>
       </c>
       <c r="H277" t="n">
-        <v>20.57142857142857</v>
+        <v>16.5</v>
       </c>
       <c r="I277" t="n">
-        <v>21.71428571428572</v>
+        <v>28</v>
       </c>
       <c r="J277" t="n">
-        <v>18.57142857142857</v>
+        <v>16</v>
       </c>
       <c r="K277" t="n">
-        <v>18.14285714285714</v>
+        <v>19.5</v>
       </c>
       <c r="L277" t="n">
-        <v>22.85714285714286</v>
+        <v>20</v>
       </c>
       <c r="M277" t="n">
-        <v>20.14285714285714</v>
+        <v>28</v>
       </c>
       <c r="N277" t="n">
-        <v>82.08285714285715</v>
+        <v>88.16499999999999</v>
       </c>
       <c r="O277" t="n">
-        <v>76.81142857142858</v>
+        <v>80.05500000000001</v>
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Chalchuapa United </t>
+          <t xml:space="preserve">Paris Basketball </t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t xml:space="preserve"> San Salvador BC</t>
+          <t xml:space="preserve"> Cholet Basket</t>
         </is>
       </c>
       <c r="C278" t="n">
-        <v>2.25</v>
+        <v>1.09</v>
       </c>
       <c r="D278" t="n">
-        <v>1.55</v>
+        <v>9.93</v>
       </c>
       <c r="E278" t="n">
-        <v>0.7</v>
+        <v>8.84</v>
       </c>
       <c r="F278" t="n">
-        <v>19.5</v>
+        <v>13.75</v>
       </c>
       <c r="G278" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="H278" t="n">
-        <v>19.33333333333333</v>
+        <v>12.5</v>
       </c>
       <c r="I278" t="n">
-        <v>18.83333333333333</v>
+        <v>13.5</v>
       </c>
       <c r="J278" t="n">
-        <v>19.33333333333333</v>
+        <v>15.5</v>
       </c>
       <c r="K278" t="n">
-        <v>14.33333333333333</v>
+        <v>14</v>
       </c>
       <c r="L278" t="n">
-        <v>16.16666666666667</v>
+        <v>14.5</v>
       </c>
       <c r="M278" t="n">
-        <v>14.66666666666667</v>
+        <v>14</v>
       </c>
       <c r="N278" t="n">
-        <v>73.34333333333335</v>
+        <v>73.63499999999999</v>
       </c>
       <c r="O278" t="n">
-        <v>63.45333333333334</v>
+        <v>81.19500000000001</v>
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Las Vegas Aces </t>
+          <t xml:space="preserve">Fortitudo Bologna </t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Phoenix Mercury</t>
+          <t xml:space="preserve"> Real Sebastiani Rieti</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="D279" t="n">
-        <v>8.880000000000001</v>
+        <v>3.25</v>
       </c>
       <c r="E279" t="n">
-        <v>7.800000000000001</v>
+        <v>1.97</v>
       </c>
       <c r="F279" t="n">
-        <v>19.7</v>
+        <v>17.5</v>
       </c>
       <c r="G279" t="n">
-        <v>18.8</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="H279" t="n">
-        <v>20.5</v>
+        <v>18.5</v>
       </c>
       <c r="I279" t="n">
+        <v>19.83333333333333</v>
+      </c>
+      <c r="J279" t="n">
         <v>21.5</v>
       </c>
-      <c r="J279" t="n">
-        <v>18.3</v>
-      </c>
       <c r="K279" t="n">
-        <v>17.9</v>
+        <v>16.5</v>
       </c>
       <c r="L279" t="n">
-        <v>16.8</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="M279" t="n">
-        <v>20.9</v>
+        <v>17.16666666666667</v>
       </c>
       <c r="N279" t="n">
-        <v>82.41300000000001</v>
+        <v>74.26333333333334</v>
       </c>
       <c r="O279" t="n">
-        <v>76.57799999999999</v>
+        <v>72.37833333333333</v>
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los Angeles Sparks </t>
+          <t xml:space="preserve">Pallacanestro 2.015 Forli </t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Washington Mystics</t>
+          <t xml:space="preserve"> Trieste 2004</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="D280" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="E280" t="n">
-        <v>0.7999999999999998</v>
+        <v>0.71</v>
       </c>
       <c r="F280" t="n">
-        <v>22.33333333333333</v>
+        <v>19.5</v>
       </c>
       <c r="G280" t="n">
-        <v>22.16666666666667</v>
+        <v>15.5</v>
       </c>
       <c r="H280" t="n">
-        <v>23.16666666666667</v>
+        <v>15</v>
       </c>
       <c r="I280" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J280" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="K280" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="L280" t="n">
+        <v>13</v>
+      </c>
+      <c r="M280" t="n">
         <v>17.5</v>
       </c>
-      <c r="J280" t="n">
-        <v>22</v>
-      </c>
-      <c r="K280" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="L280" t="n">
-        <v>20.83333333333333</v>
-      </c>
-      <c r="M280" t="n">
-        <v>19.5</v>
-      </c>
       <c r="N280" t="n">
-        <v>86.06</v>
+        <v>67.47</v>
       </c>
       <c r="O280" t="n">
-        <v>82.64999999999999</v>
+        <v>74.97999999999999</v>
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Taranaki Mountainairs </t>
+          <t xml:space="preserve">Pallacanestro Cantu </t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hawke's Bay Hawks</t>
+          <t xml:space="preserve"> APU Udine</t>
         </is>
       </c>
       <c r="C281" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="D281" t="n">
-        <v>4.9</v>
+        <v>2.75</v>
       </c>
       <c r="E281" t="n">
-        <v>3.760000000000001</v>
+        <v>1.38</v>
       </c>
       <c r="F281" t="n">
-        <v>23.83333333333333</v>
+        <v>21</v>
       </c>
       <c r="G281" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H281" t="n">
-        <v>23.66666666666667</v>
+        <v>18.66666666666667</v>
       </c>
       <c r="I281" t="n">
-        <v>26.66666666666667</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="J281" t="n">
-        <v>25.16666666666667</v>
+        <v>19.33333333333333</v>
       </c>
       <c r="K281" t="n">
-        <v>25.33333333333333</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="L281" t="n">
-        <v>27</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="M281" t="n">
-        <v>18.66666666666667</v>
+        <v>19</v>
       </c>
       <c r="N281" t="n">
-        <v>105.9266666666667</v>
+        <v>71.80666666666667</v>
       </c>
       <c r="O281" t="n">
-        <v>89.81833333333334</v>
+        <v>67.29333333333334</v>
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ryukyu Golden Kings Okinawa </t>
+          <t xml:space="preserve">Virtus Basket Padova </t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chiba Jets Funabashi</t>
+          <t xml:space="preserve"> Pallacanestro Vicenza</t>
         </is>
       </c>
       <c r="C282" t="n">
-        <v>2.3</v>
+        <v>1.65</v>
       </c>
       <c r="D282" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="E282" t="n">
-        <v>0.6999999999999997</v>
+        <v>0.4500000000000002</v>
       </c>
       <c r="F282" t="n">
-        <v>19.25</v>
+        <v>22</v>
       </c>
       <c r="G282" t="n">
-        <v>24.25</v>
+        <v>19</v>
       </c>
       <c r="H282" t="n">
-        <v>15.25</v>
+        <v>20</v>
       </c>
       <c r="I282" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J282" t="n">
-        <v>13.25</v>
+        <v>13.8</v>
       </c>
       <c r="K282" t="n">
-        <v>21.25</v>
+        <v>18.2</v>
       </c>
       <c r="L282" t="n">
-        <v>16.25</v>
+        <v>18</v>
       </c>
       <c r="M282" t="n">
-        <v>21.25</v>
+        <v>21.8</v>
       </c>
       <c r="N282" t="n">
-        <v>73.6125</v>
+        <v>75.28799999999998</v>
       </c>
       <c r="O282" t="n">
-        <v>72.71250000000001</v>
+        <v>68.05199999999999</v>
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t xml:space="preserve">BC Zalgiris Kaunas </t>
+          <t xml:space="preserve">Libertas Livorno </t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t xml:space="preserve"> BC Lietkabelis Panevezys</t>
+          <t xml:space="preserve"> Basket Jesi Academy</t>
         </is>
       </c>
       <c r="C283" t="n">
-        <v>1.11</v>
+        <v>1.23</v>
       </c>
       <c r="D283" t="n">
-        <v>6.2</v>
+        <v>3.75</v>
       </c>
       <c r="E283" t="n">
-        <v>5.09</v>
+        <v>2.52</v>
       </c>
       <c r="F283" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G283" t="n">
-        <v>13</v>
+        <v>20.16666666666667</v>
       </c>
       <c r="H283" t="n">
-        <v>8</v>
+        <v>18.16666666666667</v>
       </c>
       <c r="I283" t="n">
-        <v>13</v>
+        <v>21.5</v>
       </c>
       <c r="J283" t="n">
-        <v>12</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="K283" t="n">
-        <v>11</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="L283" t="n">
-        <v>11.5</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="M283" t="n">
-        <v>10</v>
+        <v>17.33333333333333</v>
       </c>
       <c r="N283" t="n">
-        <v>84.72</v>
+        <v>79.64999999999999</v>
       </c>
       <c r="O283" t="n">
-        <v>89.82499999999999</v>
+        <v>64.645</v>
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elitzur Kiryat Atta </t>
+          <t xml:space="preserve">Pallacanestro Roseto </t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Maccabi Ironi Ramat Gan</t>
+          <t xml:space="preserve"> Fabriano Basket</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>2.2</v>
+        <v>1.49</v>
       </c>
       <c r="D284" t="n">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="E284" t="n">
-        <v>0.5500000000000003</v>
+        <v>0.9600000000000002</v>
       </c>
       <c r="F284" t="n">
-        <v>15.66666666666667</v>
+        <v>17.4</v>
       </c>
       <c r="G284" t="n">
-        <v>10.66666666666667</v>
+        <v>15.2</v>
       </c>
       <c r="H284" t="n">
-        <v>15</v>
+        <v>17.6</v>
       </c>
       <c r="I284" t="n">
-        <v>14.33333333333333</v>
+        <v>16</v>
       </c>
       <c r="J284" t="n">
-        <v>12.33333333333333</v>
+        <v>12.2</v>
       </c>
       <c r="K284" t="n">
-        <v>13.66666666666667</v>
+        <v>20</v>
       </c>
       <c r="L284" t="n">
-        <v>16</v>
+        <v>18.2</v>
       </c>
       <c r="M284" t="n">
-        <v>15.33333333333333</v>
+        <v>17.2</v>
       </c>
       <c r="N284" t="n">
-        <v>67.03666666666668</v>
+        <v>64.578</v>
       </c>
       <c r="O284" t="n">
-        <v>68.14666666666666</v>
+        <v>62.676</v>
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Kk Rapla </t>
+          <t xml:space="preserve">PF Schio </t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kk Parnu</t>
+          <t xml:space="preserve"> Umana Venezia</t>
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="D285" t="n">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="E285" t="n">
-        <v>0.6699999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="F285" t="n">
-        <v>16.5</v>
+        <v>22.85714285714286</v>
       </c>
       <c r="G285" t="n">
-        <v>21.5</v>
+        <v>24.57142857142857</v>
       </c>
       <c r="H285" t="n">
-        <v>21.5</v>
+        <v>22.14285714285714</v>
       </c>
       <c r="I285" t="n">
-        <v>16</v>
+        <v>18.28571428571428</v>
       </c>
       <c r="J285" t="n">
-        <v>13.5</v>
+        <v>14.28571428571429</v>
       </c>
       <c r="K285" t="n">
-        <v>24</v>
+        <v>19.14285714285714</v>
       </c>
       <c r="L285" t="n">
-        <v>21</v>
+        <v>14.85714285714286</v>
       </c>
       <c r="M285" t="n">
         <v>18</v>
       </c>
       <c r="N285" t="n">
-        <v>73.035</v>
+        <v>81.83714285714287</v>
       </c>
       <c r="O285" t="n">
-        <v>74.12</v>
+        <v>70.43999999999998</v>
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Basketball Nymburk </t>
+          <t xml:space="preserve">Talos Ruvo Di Puglia </t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sluneta Usti nad Labem</t>
+          <t xml:space="preserve"> Herons Basket</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>1.07</v>
+        <v>1.38</v>
       </c>
       <c r="D286" t="n">
-        <v>7.75</v>
+        <v>2.8</v>
       </c>
       <c r="E286" t="n">
-        <v>6.68</v>
+        <v>1.42</v>
       </c>
       <c r="F286" t="n">
-        <v>18.66666666666667</v>
+        <v>17.6</v>
       </c>
       <c r="G286" t="n">
         <v>19</v>
       </c>
       <c r="H286" t="n">
-        <v>19.33333333333333</v>
+        <v>17.2</v>
       </c>
       <c r="I286" t="n">
-        <v>24.33333333333333</v>
+        <v>19.8</v>
       </c>
       <c r="J286" t="n">
-        <v>21.66666666666667</v>
+        <v>17.4</v>
       </c>
       <c r="K286" t="n">
-        <v>20.66666666666667</v>
+        <v>18.2</v>
       </c>
       <c r="L286" t="n">
-        <v>22.33333333333333</v>
+        <v>15.8</v>
       </c>
       <c r="M286" t="n">
-        <v>14.66666666666667</v>
+        <v>16.6</v>
       </c>
       <c r="N286" t="n">
-        <v>80.25</v>
+        <v>72.768</v>
       </c>
       <c r="O286" t="n">
-        <v>78.23333333333333</v>
+        <v>71.34999999999999</v>
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Baskets Bonn </t>
+          <t xml:space="preserve">Sao Jose Dos Campos </t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Alba Berlin</t>
+          <t xml:space="preserve"> SC Corinthians SP</t>
         </is>
       </c>
       <c r="C287" t="n">
-        <v>2.53</v>
+        <v>6</v>
       </c>
       <c r="D287" t="n">
-        <v>1.6</v>
+        <v>1.08</v>
       </c>
       <c r="E287" t="n">
-        <v>0.9299999999999997</v>
+        <v>4.92</v>
       </c>
       <c r="F287" t="n">
-        <v>19.15789473684211</v>
+        <v>21</v>
       </c>
       <c r="G287" t="n">
-        <v>21.84210526315789</v>
+        <v>21.8</v>
       </c>
       <c r="H287" t="n">
-        <v>19.26315789473684</v>
+        <v>17</v>
       </c>
       <c r="I287" t="n">
-        <v>20.78947368421053</v>
+        <v>15.8</v>
       </c>
       <c r="J287" t="n">
-        <v>19.15789473684211</v>
+        <v>21.2</v>
       </c>
       <c r="K287" t="n">
-        <v>17.15789473684211</v>
+        <v>19.6</v>
       </c>
       <c r="L287" t="n">
-        <v>18.84210526315789</v>
+        <v>17.8</v>
       </c>
       <c r="M287" t="n">
-        <v>17.52631578947368</v>
+        <v>17</v>
       </c>
       <c r="N287" t="n">
-        <v>80.82315789473685</v>
+        <v>74.89000000000001</v>
       </c>
       <c r="O287" t="n">
-        <v>73.82052631578945</v>
+        <v>72.95599999999999</v>
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phoenix Hagen </t>
+          <t xml:space="preserve">Bauru Basket SP </t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PS Karlsruhe Lions</t>
+          <t xml:space="preserve"> Flamengo RJ</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>1.55</v>
+        <v>3</v>
       </c>
       <c r="D288" t="n">
-        <v>2.4</v>
+        <v>1.38</v>
       </c>
       <c r="E288" t="n">
-        <v>0.8499999999999999</v>
+        <v>1.62</v>
       </c>
       <c r="F288" t="n">
-        <v>15.5</v>
+        <v>17.28571428571428</v>
       </c>
       <c r="G288" t="n">
-        <v>26.25</v>
+        <v>18</v>
       </c>
       <c r="H288" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="I288" t="n">
-        <v>22.5</v>
+        <v>19.57142857142857</v>
       </c>
       <c r="J288" t="n">
-        <v>19.75</v>
+        <v>18</v>
       </c>
       <c r="K288" t="n">
-        <v>16.75</v>
+        <v>16</v>
       </c>
       <c r="L288" t="n">
-        <v>20.5</v>
+        <v>18.85714285714286</v>
       </c>
       <c r="M288" t="n">
-        <v>18</v>
+        <v>20.71428571428572</v>
       </c>
       <c r="N288" t="n">
-        <v>84.27499999999999</v>
+        <v>79.60428571428572</v>
       </c>
       <c r="O288" t="n">
-        <v>81.0975</v>
+        <v>71.23714285714286</v>
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>pending</t>
+          <t>A</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t xml:space="preserve">KK Krka Novo Mesto </t>
+          <t xml:space="preserve">Santo Andre/Apaba </t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Helios Domzale</t>
+          <t xml:space="preserve"> Vera Cruz Campinas</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="D289" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="E289" t="n">
-        <v>1.23</v>
+        <v>1.31</v>
       </c>
       <c r="F289" t="n">
-        <v>20.83333333333333</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="G289" t="n">
-        <v>18.66666666666667</v>
+        <v>15.33333333333333</v>
       </c>
       <c r="H289" t="n">
-        <v>20.83333333333333</v>
+        <v>16.66666666666667</v>
       </c>
       <c r="I289" t="n">
-        <v>19.66666666666667</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="J289" t="n">
-        <v>26.33333333333333</v>
+        <v>17.66666666666667</v>
       </c>
       <c r="K289" t="n">
-        <v>18.16666666666667</v>
+        <v>12.33333333333333</v>
       </c>
       <c r="L289" t="n">
-        <v>22.33333333333333</v>
+        <v>18</v>
       </c>
       <c r="M289" t="n">
-        <v>18.5</v>
+        <v>18.33333333333333</v>
       </c>
       <c r="N289" t="n">
-        <v>81.505</v>
+        <v>61.25</v>
       </c>
       <c r="O289" t="n">
-        <v>81.52166666666668</v>
+        <v>66.06666666666666</v>
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t xml:space="preserve">FC Porto </t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ovarense Basquetebol</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="D290" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="E290" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="F290" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="G290" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="H290" t="n">
-        <v>20.75</v>
-      </c>
-      <c r="I290" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="J290" t="n">
-        <v>17.75</v>
-      </c>
-      <c r="K290" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="L290" t="n">
-        <v>14.25</v>
-      </c>
-      <c r="M290" t="n">
-        <v>20</v>
-      </c>
-      <c r="N290" t="n">
-        <v>75.77249999999999</v>
-      </c>
-      <c r="O290" t="n">
-        <v>75.23999999999999</v>
-      </c>
-      <c r="P290" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rasta Vechta </t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Niners Chemnitz</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="D291" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="E291" t="n">
-        <v>0.1399999999999999</v>
-      </c>
-      <c r="F291" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="G291" t="n">
-        <v>24.8</v>
-      </c>
-      <c r="H291" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="I291" t="n">
-        <v>23.6</v>
-      </c>
-      <c r="J291" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="K291" t="n">
-        <v>22.2</v>
-      </c>
-      <c r="L291" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="M291" t="n">
-        <v>22</v>
-      </c>
-      <c r="N291" t="n">
-        <v>83.134</v>
-      </c>
-      <c r="O291" t="n">
-        <v>85.24799999999999</v>
-      </c>
-      <c r="P291" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Basquet Manresa </t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> CB Malaga</t>
-        </is>
-      </c>
-      <c r="C292" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="D292" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="E292" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="F292" t="n">
-        <v>19</v>
-      </c>
-      <c r="G292" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="H292" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="I292" t="n">
-        <v>28</v>
-      </c>
-      <c r="J292" t="n">
-        <v>16</v>
-      </c>
-      <c r="K292" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="L292" t="n">
-        <v>20</v>
-      </c>
-      <c r="M292" t="n">
-        <v>28</v>
-      </c>
-      <c r="N292" t="n">
-        <v>88.16499999999999</v>
-      </c>
-      <c r="O292" t="n">
-        <v>80.05500000000001</v>
-      </c>
-      <c r="P292" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paris Basketball </t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cholet Basket</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="D293" t="n">
-        <v>9.93</v>
-      </c>
-      <c r="E293" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F293" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="G293" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H293" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="I293" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="J293" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="K293" t="n">
-        <v>14</v>
-      </c>
-      <c r="L293" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="M293" t="n">
-        <v>14</v>
-      </c>
-      <c r="N293" t="n">
-        <v>73.63499999999999</v>
-      </c>
-      <c r="O293" t="n">
-        <v>81.19500000000001</v>
-      </c>
-      <c r="P293" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fortitudo Bologna </t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Real Sebastiani Rieti</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="D294" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="E294" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="F294" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="G294" t="n">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="H294" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="I294" t="n">
-        <v>19.83333333333333</v>
-      </c>
-      <c r="J294" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="K294" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="L294" t="n">
-        <v>20.83333333333333</v>
-      </c>
-      <c r="M294" t="n">
-        <v>17.16666666666667</v>
-      </c>
-      <c r="N294" t="n">
-        <v>74.26333333333334</v>
-      </c>
-      <c r="O294" t="n">
-        <v>72.37833333333333</v>
-      </c>
-      <c r="P294" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pallacanestro 2.015 Forli </t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Trieste 2004</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="D295" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E295" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="F295" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="G295" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="H295" t="n">
-        <v>15</v>
-      </c>
-      <c r="I295" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J295" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="K295" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="L295" t="n">
-        <v>13</v>
-      </c>
-      <c r="M295" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="N295" t="n">
-        <v>67.47</v>
-      </c>
-      <c r="O295" t="n">
-        <v>74.97999999999999</v>
-      </c>
-      <c r="P295" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pallacanestro Cantu </t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> APU Udine</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="D296" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="E296" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="F296" t="n">
-        <v>21</v>
-      </c>
-      <c r="G296" t="n">
-        <v>15</v>
-      </c>
-      <c r="H296" t="n">
-        <v>18.66666666666667</v>
-      </c>
-      <c r="I296" t="n">
-        <v>20.66666666666667</v>
-      </c>
-      <c r="J296" t="n">
-        <v>19.33333333333333</v>
-      </c>
-      <c r="K296" t="n">
-        <v>18.33333333333333</v>
-      </c>
-      <c r="L296" t="n">
-        <v>18.33333333333333</v>
-      </c>
-      <c r="M296" t="n">
-        <v>19</v>
-      </c>
-      <c r="N296" t="n">
-        <v>71.80666666666667</v>
-      </c>
-      <c r="O296" t="n">
-        <v>67.29333333333334</v>
-      </c>
-      <c r="P296" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Virtus Basket Padova </t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pallacanestro Vicenza</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="D297" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="E297" t="n">
-        <v>0.4500000000000002</v>
-      </c>
-      <c r="F297" t="n">
-        <v>22</v>
-      </c>
-      <c r="G297" t="n">
-        <v>19</v>
-      </c>
-      <c r="H297" t="n">
-        <v>20</v>
-      </c>
-      <c r="I297" t="n">
-        <v>14</v>
-      </c>
-      <c r="J297" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="K297" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L297" t="n">
-        <v>18</v>
-      </c>
-      <c r="M297" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="N297" t="n">
-        <v>75.28799999999998</v>
-      </c>
-      <c r="O297" t="n">
-        <v>68.05199999999999</v>
-      </c>
-      <c r="P297" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Libertas Livorno </t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Basket Jesi Academy</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="D298" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="E298" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="F298" t="n">
-        <v>17</v>
-      </c>
-      <c r="G298" t="n">
-        <v>20.16666666666667</v>
-      </c>
-      <c r="H298" t="n">
-        <v>18.16666666666667</v>
-      </c>
-      <c r="I298" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="J298" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="K298" t="n">
-        <v>13.66666666666667</v>
-      </c>
-      <c r="L298" t="n">
-        <v>17.66666666666667</v>
-      </c>
-      <c r="M298" t="n">
-        <v>17.33333333333333</v>
-      </c>
-      <c r="N298" t="n">
-        <v>79.64999999999999</v>
-      </c>
-      <c r="O298" t="n">
-        <v>64.645</v>
-      </c>
-      <c r="P298" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pallacanestro Roseto </t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fabriano Basket</t>
-        </is>
-      </c>
-      <c r="C299" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="D299" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="E299" t="n">
-        <v>0.9600000000000002</v>
-      </c>
-      <c r="F299" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="G299" t="n">
-        <v>15.2</v>
-      </c>
-      <c r="H299" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="I299" t="n">
-        <v>16</v>
-      </c>
-      <c r="J299" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K299" t="n">
-        <v>20</v>
-      </c>
-      <c r="L299" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="M299" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="N299" t="n">
-        <v>64.578</v>
-      </c>
-      <c r="O299" t="n">
-        <v>62.676</v>
-      </c>
-      <c r="P299" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" t="inlineStr">
-        <is>
-          <t xml:space="preserve">PF Schio </t>
-        </is>
-      </c>
-      <c r="B300" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Umana Venezia</t>
-        </is>
-      </c>
-      <c r="C300" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="D300" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E300" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="F300" t="n">
-        <v>22.85714285714286</v>
-      </c>
-      <c r="G300" t="n">
-        <v>24.57142857142857</v>
-      </c>
-      <c r="H300" t="n">
-        <v>22.14285714285714</v>
-      </c>
-      <c r="I300" t="n">
-        <v>18.28571428571428</v>
-      </c>
-      <c r="J300" t="n">
-        <v>14.28571428571429</v>
-      </c>
-      <c r="K300" t="n">
-        <v>19.14285714285714</v>
-      </c>
-      <c r="L300" t="n">
-        <v>14.85714285714286</v>
-      </c>
-      <c r="M300" t="n">
-        <v>18</v>
-      </c>
-      <c r="N300" t="n">
-        <v>81.83714285714287</v>
-      </c>
-      <c r="O300" t="n">
-        <v>70.43999999999998</v>
-      </c>
-      <c r="P300" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Talos Ruvo Di Puglia </t>
-        </is>
-      </c>
-      <c r="B301" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Herons Basket</t>
-        </is>
-      </c>
-      <c r="C301" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="D301" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="E301" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="F301" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="G301" t="n">
-        <v>19</v>
-      </c>
-      <c r="H301" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="J301" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="K301" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L301" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="M301" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="N301" t="n">
-        <v>72.768</v>
-      </c>
-      <c r="O301" t="n">
-        <v>71.34999999999999</v>
-      </c>
-      <c r="P301" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sao Jose Dos Campos </t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> SC Corinthians SP</t>
-        </is>
-      </c>
-      <c r="C302" t="n">
-        <v>6</v>
-      </c>
-      <c r="D302" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E302" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="F302" t="n">
-        <v>21</v>
-      </c>
-      <c r="G302" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="H302" t="n">
-        <v>17</v>
-      </c>
-      <c r="I302" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="J302" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="K302" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="L302" t="n">
-        <v>17.8</v>
-      </c>
-      <c r="M302" t="n">
-        <v>17</v>
-      </c>
-      <c r="N302" t="n">
-        <v>74.89000000000001</v>
-      </c>
-      <c r="O302" t="n">
-        <v>72.95599999999999</v>
-      </c>
-      <c r="P302" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aguada </t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Club Nacional</t>
-        </is>
-      </c>
-      <c r="C303" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="D303" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="E303" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="F303" t="n">
-        <v>21.61538461538462</v>
-      </c>
-      <c r="G303" t="n">
-        <v>19.76923076923077</v>
-      </c>
-      <c r="H303" t="n">
-        <v>19.84615384615385</v>
-      </c>
-      <c r="I303" t="n">
-        <v>17.23076923076923</v>
-      </c>
-      <c r="J303" t="n">
-        <v>21.76923076923077</v>
-      </c>
-      <c r="K303" t="n">
-        <v>22.15384615384615</v>
-      </c>
-      <c r="L303" t="n">
-        <v>21.15384615384615</v>
-      </c>
-      <c r="M303" t="n">
-        <v>17.53846153846154</v>
-      </c>
-      <c r="N303" t="n">
-        <v>81.08</v>
-      </c>
-      <c r="O303" t="n">
-        <v>80.91769230769231</v>
-      </c>
-      <c r="P303" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bauru Basket SP </t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Flamengo RJ</t>
-        </is>
-      </c>
-      <c r="C304" t="n">
-        <v>3</v>
-      </c>
-      <c r="D304" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="E304" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="F304" t="n">
-        <v>17.28571428571428</v>
-      </c>
-      <c r="G304" t="n">
-        <v>18</v>
-      </c>
-      <c r="H304" t="n">
-        <v>24</v>
-      </c>
-      <c r="I304" t="n">
-        <v>19.57142857142857</v>
-      </c>
-      <c r="J304" t="n">
-        <v>18</v>
-      </c>
-      <c r="K304" t="n">
-        <v>16</v>
-      </c>
-      <c r="L304" t="n">
-        <v>18.85714285714286</v>
-      </c>
-      <c r="M304" t="n">
-        <v>20.71428571428572</v>
-      </c>
-      <c r="N304" t="n">
-        <v>79.60428571428572</v>
-      </c>
-      <c r="O304" t="n">
-        <v>71.23714285714286</v>
-      </c>
-      <c r="P304" t="inlineStr">
-        <is>
-          <t>pending</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Santo Andre/Apaba </t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vera Cruz Campinas</t>
-        </is>
-      </c>
-      <c r="C305" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="D305" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="E305" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="F305" t="n">
-        <v>17.66666666666667</v>
-      </c>
-      <c r="G305" t="n">
-        <v>15.33333333333333</v>
-      </c>
-      <c r="H305" t="n">
-        <v>16.66666666666667</v>
-      </c>
-      <c r="I305" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="J305" t="n">
-        <v>17.66666666666667</v>
-      </c>
-      <c r="K305" t="n">
-        <v>12.33333333333333</v>
-      </c>
-      <c r="L305" t="n">
-        <v>18</v>
-      </c>
-      <c r="M305" t="n">
-        <v>18.33333333333333</v>
-      </c>
-      <c r="N305" t="n">
-        <v>61.25</v>
-      </c>
-      <c r="O305" t="n">
-        <v>66.06666666666666</v>
-      </c>
-      <c r="P305" t="inlineStr">
-        <is>
-          <t>pending</t>
+          <t>H</t>
         </is>
       </c>
     </row>
